--- a/public/files/ED_Template.xlsx
+++ b/public/files/ED_Template.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data dummy\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341867F-434F-4A82-8C1E-E1D4323F87AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3DA5C-4D2A-4813-818D-74504E4289C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgFJ/W62q1qIxVPNtMeVgT2IVX8Pg=="/>
     </ext>
@@ -2082,7 +2077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="259">
   <si>
     <t>C. Kriteria</t>
   </si>
@@ -3028,6 +3023,62 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t xml:space="preserve">C.2.4.c) Kerjasama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.2.4. Indikator Kinerja Utama 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.2.4.a) Sistem Tata Pamong </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.3.4. Indikator Kinerja Utama </t>
+  </si>
+  <si>
+    <t>C.3.4.a) Kualitas Input Mahasiswa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.6.4. Indikator Kinerja Utama 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.6.4.a) Kurikulum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.4.4. Indikator Kinerja Utama 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.4.4.a) Profil Dosen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.5.4. Indikator Kinerja Utama 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.5.4.a) Keuangan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.9.4. Indikator Kinerja Utama 
+</t>
+  </si>
+  <si>
+    <t>C.9.4.a) Luaran Dharma Pendidikan</t>
+  </si>
+  <si>
+    <t>https://laravel.com/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1rNzkOGzTrsoxc5WXwpAXS2apYx_bgyUO/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/147i69umsIxxQXSWNhlRV6gB69la4P4fZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1tiR3DD3C6IbqLf3-CJnzLg-IFLFxWRSm/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
+  </si>
 </sst>
 </file>
 
@@ -3038,7 +3089,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3083,13 +3134,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3188,8 +3232,28 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3230,6 +3294,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3366FF"/>
         <bgColor rgb="FF3366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3403,11 +3473,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="150">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3471,7 +3542,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3480,10 +3551,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3507,13 +3578,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3525,13 +3593,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3541,62 +3606,62 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3605,35 +3670,29 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3654,9 +3713,6 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3672,7 +3728,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3693,7 +3749,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3742,7 +3798,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3751,10 +3807,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3775,36 +3831,62 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="234">
@@ -5691,731 +5773,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:radarChart>
-        <c:radarStyle val="marker"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$27:$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>C.1.4.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C.1.4.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>C.1.4.3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$27:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.0_);_(* \(#,##0.0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0D8-4E68-B9E7-6ACA04AB0E12}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1127843523"/>
-        <c:axId val="1646278661"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="1127843523"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-ID"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1646278661"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1646278661"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-ID"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1127843523"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$112:$B$113</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>C.8.4.a.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>C.8.4.b.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$112:$C$113</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln cmpd="sng">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDB7-40B2-A64F-C66B1AFCD2BB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2142474092"/>
-        <c:axId val="1011792697"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2142474092"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-ID"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1011792697"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1011792697"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-ID"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2142474092"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4F81BD"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$107</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C.7.4.a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$107</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln cmpd="sng">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-358E-45D4-8821-E894A1CC3A48}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1215386361"/>
-        <c:axId val="595110582"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1215386361"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-ID"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="595110582"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="595110582"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-ID"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1215386361"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5943600" cy="1819275"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1752899403" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B1F7B68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3038475" cy="2771775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1304920839" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000783C74D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2895600" cy="2771775"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1398795810" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022EE5F53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6618,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152:XFD1024"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -6635,74 +5992,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="115" t="s">
+      <c r="G2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="117">
+      <c r="A3" s="112">
         <v>1</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="131">
+      <c r="E3" s="126">
         <v>4</v>
       </c>
-      <c r="F3" s="132" t="str">
+      <c r="F3" s="127" t="str">
         <f>IF(E3="","",IF(E3=4,"Sangat Baik",IF(AND(E3&gt;=3,E3&lt;4),"Baik",IF(AND(E3&gt;=2,E3&lt;3),"cukup",IF(AND(E3&gt;=1,E3&lt;2),"Kurang",IF(AND(E3&gt;=0,E3&lt;1),"Sangat Kurang",""))))))</f>
         <v>Sangat Baik</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="117">
         <v>1</v>
       </c>
-      <c r="H3" s="133">
+      <c r="H3" s="128">
         <f>IFERROR((AVERAGE(E3)*G3),"")</f>
         <v>4</v>
       </c>
-      <c r="I3" s="134" t="s">
-        <v>14</v>
+      <c r="I3" s="137" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
@@ -6713,116 +6070,118 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="97"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114" t="s">
+      <c r="B6" s="108"/>
+      <c r="C6" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="115" t="s">
+      <c r="E6" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="115" t="s">
+      <c r="G6" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="H6" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="115" t="s">
+      <c r="I6" s="110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="81.75" customHeight="1">
-      <c r="A7" s="117">
+      <c r="A7" s="112">
         <v>2</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="131">
+      <c r="E7" s="126">
         <v>3</v>
       </c>
-      <c r="F7" s="132" t="str">
+      <c r="F7" s="127" t="str">
         <f>IF(E7="","",IF(E7=4,"Sangat Baik",IF(AND(E7&gt;=3,E7&lt;4),"Baik",IF(AND(E7&gt;=2,E7&lt;3),"cukup",IF(AND(E7&gt;=1,E7&lt;2),"Kurang",IF(AND(E7&gt;=0,E7&lt;1),"Sangat Kurang",""))))))</f>
         <v>Baik</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="117">
         <v>1</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H7" s="128">
         <f>IFERROR((AVERAGE(E7)*G7),"")</f>
         <v>3</v>
       </c>
-      <c r="I7" s="133"/>
+      <c r="I7" s="128" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -6852,34 +6211,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A12" s="86">
+      <c r="A12" s="82">
         <v>3</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="85">
         <v>4</v>
       </c>
-      <c r="F12" s="90" t="str">
+      <c r="F12" s="86" t="str">
         <f t="shared" ref="F12:F14" si="0">IF(E12="","",IF(E12=4,"Sangat Baik",IF(AND(E12&gt;=3,E12&lt;4),"Baik",IF(AND(E12&gt;=2,E12&lt;3),"cukup",IF(AND(E12&gt;=1,E12&lt;2),"Kurang",IF(AND(E12&gt;=0,E12&lt;1),"Sangat Kurang",""))))))</f>
         <v>Sangat Baik</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="87">
         <v>0.51</v>
       </c>
-      <c r="H12" s="92">
+      <c r="H12" s="88">
         <f t="shared" ref="H12:H14" si="1">IFERROR((AVERAGE(E12)*G12),"")</f>
         <v>2.04</v>
       </c>
-      <c r="I12" s="93" t="s">
-        <v>14</v>
+      <c r="I12" s="138" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
@@ -6907,8 +6266,8 @@
         <f t="shared" si="1"/>
         <v>4.08</v>
       </c>
-      <c r="I13" s="83" t="s">
-        <v>14</v>
+      <c r="I13" s="139" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
@@ -6936,8 +6295,8 @@
         <f t="shared" si="1"/>
         <v>6.12</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>14</v>
+      <c r="I14" s="140" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
@@ -7041,13 +6400,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="138">
+      <c r="A21" s="142">
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="144" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -7072,11 +6431,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="140"/>
+      <c r="A22" s="143"/>
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="140"/>
+      <c r="C22" s="143"/>
       <c r="D22" s="16" t="s">
         <v>34</v>
       </c>
@@ -7099,13 +6458,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A23" s="138">
+      <c r="A23" s="142">
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="144" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -7130,11 +6489,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" customHeight="1">
-      <c r="A24" s="140"/>
+      <c r="A24" s="143"/>
       <c r="B24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="140"/>
+      <c r="C24" s="143"/>
       <c r="D24" s="16" t="s">
         <v>39</v>
       </c>
@@ -7163,7 +6522,7 @@
       <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="144" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -7183,22 +6542,22 @@
         <f t="shared" si="3"/>
         <v>2.72</v>
       </c>
-      <c r="I25" s="127" t="s">
+      <c r="I25" s="122" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="57.75" customHeight="1">
-      <c r="A26" s="138">
+      <c r="A26" s="142">
         <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="139"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="34"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7206,20 +6565,20 @@
       <c r="G26" s="13">
         <v>0.34</v>
       </c>
-      <c r="H26" s="82" t="str">
+      <c r="H26" s="78" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="84" t="s">
+      <c r="I26" s="80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="140"/>
+      <c r="A27" s="143"/>
       <c r="B27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="140"/>
+      <c r="C27" s="143"/>
       <c r="D27" s="16" t="s">
         <v>46</v>
       </c>
@@ -7237,7 +6596,7 @@
         <f t="shared" si="3"/>
         <v>0.68</v>
       </c>
-      <c r="I27" s="83" t="s">
+      <c r="I27" s="79" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7268,7 +6627,7 @@
         <f t="shared" si="3"/>
         <v>2.04</v>
       </c>
-      <c r="I28" s="35"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="14">
@@ -7314,7 +6673,7 @@
       <c r="D30" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7357,7 +6716,7 @@
         <f t="shared" si="3"/>
         <v>5.44</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -7416,48 +6775,48 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="106" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="98" t="s">
+    <row r="36" spans="1:9" s="101" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-    </row>
-    <row r="37" spans="1:9" s="106" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A37" s="100" t="s">
+      <c r="B36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+    </row>
+    <row r="37" spans="1:9" s="101" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A37" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102" t="s">
+      <c r="B37" s="96"/>
+      <c r="C37" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="105" t="s">
+      <c r="H37" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="103" t="s">
+      <c r="I37" s="98" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7468,13 +6827,13 @@
       <c r="B38" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="141">
         <v>4</v>
       </c>
       <c r="F38" s="24" t="str">
@@ -7491,19 +6850,19 @@
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A39" s="138">
+      <c r="A39" s="142">
         <v>15</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="144" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="141">
         <v>4</v>
       </c>
       <c r="F39" s="24" t="str">
@@ -7520,15 +6879,15 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="140"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="143"/>
+      <c r="B40" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="140"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="141">
         <v>2</v>
       </c>
       <c r="F40" s="24"/>
@@ -7539,19 +6898,19 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9" ht="87" customHeight="1">
-      <c r="A41" s="138">
+      <c r="A41" s="142">
         <v>16</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="141" t="s">
+      <c r="C41" s="144" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="141">
         <v>4</v>
       </c>
       <c r="F41" s="24" t="str">
@@ -7568,15 +6927,15 @@
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A42" s="140"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="143"/>
+      <c r="B42" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="43" t="s">
+      <c r="C42" s="143"/>
+      <c r="D42" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="29"/>
+      <c r="E42" s="141"/>
       <c r="F42" s="24" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -7596,7 +6955,7 @@
       <c r="C43" s="16"/>
       <c r="D43" s="33"/>
       <c r="E43" s="29"/>
-      <c r="F43" s="38"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -7654,7 +7013,7 @@
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
@@ -7730,7 +7089,7 @@
       <c r="D50" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="34"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7755,7 +7114,7 @@
       <c r="D51" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E51" s="34"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7780,7 +7139,7 @@
       <c r="D52" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="34"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7805,7 +7164,7 @@
       <c r="D53" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E53" s="34"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7830,7 +7189,7 @@
       <c r="D54" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="34"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7848,14 +7207,14 @@
       <c r="A55" s="14">
         <v>23</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E55" s="34"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7882,7 +7241,7 @@
       <c r="D56" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="34"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7900,14 +7259,14 @@
       <c r="A57" s="14">
         <v>25</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="40" t="s">
         <v>92</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E57" s="34"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7925,14 +7284,14 @@
       <c r="A58" s="14">
         <v>26</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="40" t="s">
         <v>94</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="34"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7950,14 +7309,14 @@
       <c r="A59" s="14">
         <v>27</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="40" t="s">
         <v>96</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E59" s="34"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -7975,14 +7334,14 @@
       <c r="A60" s="14">
         <v>28</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="40" t="s">
         <v>98</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="34"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8000,14 +7359,14 @@
       <c r="A61" s="14">
         <v>29</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="40" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="34"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="24" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -8165,10 +7524,10 @@
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A69" s="126" t="s">
+      <c r="A69" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="45"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="3"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
@@ -8211,13 +7570,13 @@
       <c r="B71" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="41" t="s">
         <v>112</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E71" s="34"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="24" t="str">
         <f t="shared" ref="F71:F76" si="13">IF(E71="","",IF(E71=4,"Sangat Baik",IF(AND(E71&gt;=3,E71&lt;4),"Baik",IF(AND(E71&gt;=2,E71&lt;3),"cukup",IF(AND(E71&gt;=1,E71&lt;2),"Kurang",IF(AND(E71&gt;=0,E71&lt;1),"Sangat Kurang",""))))))</f>
         <v/>
@@ -8269,7 +7628,7 @@
       <c r="D73" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E73" s="34"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="24" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8294,7 +7653,7 @@
       <c r="D74" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E74" s="34"/>
+      <c r="E74" s="23"/>
       <c r="F74" s="24" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8319,7 +7678,7 @@
       <c r="D75" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E75" s="34"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="24" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8346,7 +7705,7 @@
       <c r="D76" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E76" s="34"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="24" t="str">
         <f t="shared" si="13"/>
         <v/>
@@ -8415,16 +7774,16 @@
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="37"/>
+      <c r="F80" s="36"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A81" s="126" t="s">
+      <c r="A81" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
@@ -8464,7 +7823,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A83" s="138">
+      <c r="A83" s="142">
         <v>38</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -8493,7 +7852,7 @@
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A84" s="139"/>
+      <c r="A84" s="145"/>
       <c r="B84" s="15" t="s">
         <v>129</v>
       </c>
@@ -8518,15 +7877,15 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A85" s="140"/>
-      <c r="B85" s="42" t="s">
+      <c r="A85" s="143"/>
+      <c r="B85" s="40" t="s">
         <v>131</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="34"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="24" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8553,7 +7912,7 @@
       <c r="D86" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E86" s="34"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="24" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8568,7 +7927,7 @@
       <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A87" s="138">
+      <c r="A87" s="142">
         <v>40</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -8597,7 +7956,7 @@
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" s="140"/>
+      <c r="A88" s="143"/>
       <c r="B88" s="15" t="s">
         <v>139</v>
       </c>
@@ -8605,7 +7964,7 @@
       <c r="D88" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E88" s="34"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="24" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8620,7 +7979,7 @@
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A89" s="138">
+      <c r="A89" s="142">
         <v>41</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -8649,7 +8008,7 @@
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A90" s="139"/>
+      <c r="A90" s="145"/>
       <c r="B90" s="15" t="s">
         <v>144</v>
       </c>
@@ -8657,7 +8016,7 @@
       <c r="D90" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E90" s="34"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="24" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8672,7 +8031,7 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="208.5" customHeight="1">
-      <c r="A91" s="139"/>
+      <c r="A91" s="145"/>
       <c r="B91" s="15" t="s">
         <v>146</v>
       </c>
@@ -8680,7 +8039,7 @@
       <c r="D91" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E91" s="34"/>
+      <c r="E91" s="23"/>
       <c r="F91" s="24"/>
       <c r="G91" s="13">
         <v>1.1200000000000001</v>
@@ -8689,15 +8048,15 @@
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A92" s="139"/>
-      <c r="B92" s="42" t="s">
+      <c r="A92" s="145"/>
+      <c r="B92" s="40" t="s">
         <v>148</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E92" s="34"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="24" t="str">
         <f t="shared" ref="F92:F102" si="18">IF(E92="","",IF(E92=4,"Sangat Baik",IF(AND(E92&gt;=3,E92&lt;4),"Baik",IF(AND(E92&gt;=2,E92&lt;3),"cukup",IF(AND(E92&gt;=1,E92&lt;2),"Kurang",IF(AND(E92&gt;=0,E92&lt;1),"Sangat Kurang",""))))))</f>
         <v/>
@@ -8712,15 +8071,15 @@
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A93" s="140"/>
-      <c r="B93" s="42" t="s">
+      <c r="A93" s="143"/>
+      <c r="B93" s="40" t="s">
         <v>150</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E93" s="34"/>
+      <c r="E93" s="23"/>
       <c r="F93" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8738,12 +8097,12 @@
       <c r="A94" s="14">
         <v>42</v>
       </c>
-      <c r="B94" s="42"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E94" s="34"/>
+      <c r="E94" s="23"/>
       <c r="F94" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8770,7 +8129,7 @@
       <c r="D95" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E95" s="34"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8797,7 +8156,7 @@
       <c r="D96" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E96" s="34"/>
+      <c r="E96" s="23"/>
       <c r="F96" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8820,7 +8179,7 @@
       <c r="D97" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E97" s="34"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8836,14 +8195,14 @@
     </row>
     <row r="98" spans="1:9" ht="220.5" customHeight="1">
       <c r="A98" s="14"/>
-      <c r="B98" s="42" t="s">
+      <c r="B98" s="40" t="s">
         <v>161</v>
       </c>
       <c r="C98" s="16"/>
-      <c r="D98" s="46" t="s">
+      <c r="D98" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="34"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8861,7 +8220,7 @@
       <c r="A99" s="14">
         <v>45</v>
       </c>
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="40" t="s">
         <v>163</v>
       </c>
       <c r="C99" s="16" t="s">
@@ -8870,7 +8229,7 @@
       <c r="D99" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E99" s="34"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8888,7 +8247,7 @@
       <c r="A100" s="14">
         <v>46</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="40" t="s">
         <v>166</v>
       </c>
       <c r="C100" s="16" t="s">
@@ -8897,7 +8256,7 @@
       <c r="D100" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E100" s="34"/>
+      <c r="E100" s="23"/>
       <c r="F100" s="24" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -8915,7 +8274,7 @@
       <c r="A101" s="14">
         <v>47</v>
       </c>
-      <c r="B101" s="42" t="s">
+      <c r="B101" s="40" t="s">
         <v>169</v>
       </c>
       <c r="C101" s="16" t="s">
@@ -8942,7 +8301,7 @@
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="14"/>
-      <c r="B102" s="42" t="s">
+      <c r="B102" s="40" t="s">
         <v>172</v>
       </c>
       <c r="C102" s="16"/>
@@ -9078,7 +8437,7 @@
       <c r="D109" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E109" s="40">
+      <c r="E109" s="141">
         <v>4</v>
       </c>
       <c r="F109" s="24" t="str">
@@ -9107,7 +8466,7 @@
       <c r="D110" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E110" s="29"/>
+      <c r="E110" s="141"/>
       <c r="F110" s="24"/>
       <c r="G110" s="13">
         <v>3.07</v>
@@ -9225,7 +8584,7 @@
       <c r="C117" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D117" s="46" t="s">
+      <c r="D117" s="44" t="s">
         <v>184</v>
       </c>
       <c r="E117" s="23">
@@ -9458,7 +8817,7 @@
       <c r="A128" s="14">
         <v>55</v>
       </c>
-      <c r="B128" s="42" t="s">
+      <c r="B128" s="40" t="s">
         <v>196</v>
       </c>
       <c r="C128" s="16"/>
@@ -9483,7 +8842,7 @@
       <c r="A129" s="14">
         <v>56</v>
       </c>
-      <c r="B129" s="42" t="s">
+      <c r="B129" s="40" t="s">
         <v>198</v>
       </c>
       <c r="C129" s="16"/>
@@ -9515,7 +8874,7 @@
       <c r="D130" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E130" s="34"/>
+      <c r="E130" s="23"/>
       <c r="F130" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9533,14 +8892,14 @@
       <c r="A131" s="14">
         <v>58</v>
       </c>
-      <c r="B131" s="42" t="s">
+      <c r="B131" s="40" t="s">
         <v>202</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E131" s="34"/>
+      <c r="E131" s="23"/>
       <c r="F131" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9558,14 +8917,14 @@
       <c r="A132" s="14">
         <v>59</v>
       </c>
-      <c r="B132" s="42" t="s">
+      <c r="B132" s="40" t="s">
         <v>204</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="E132" s="34"/>
+      <c r="E132" s="23"/>
       <c r="F132" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9583,7 +8942,7 @@
       <c r="A133" s="14">
         <v>60</v>
       </c>
-      <c r="B133" s="42" t="s">
+      <c r="B133" s="40" t="s">
         <v>206</v>
       </c>
       <c r="C133" s="16"/>
@@ -9610,7 +8969,7 @@
       <c r="A134" s="14">
         <v>61</v>
       </c>
-      <c r="B134" s="42" t="s">
+      <c r="B134" s="40" t="s">
         <v>209</v>
       </c>
       <c r="C134" s="16"/>
@@ -9637,14 +8996,14 @@
       <c r="A135" s="14">
         <v>62</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="40" t="s">
         <v>212</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="E135" s="34"/>
+      <c r="E135" s="23"/>
       <c r="F135" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9662,14 +9021,14 @@
       <c r="A136" s="14">
         <v>63</v>
       </c>
-      <c r="B136" s="42" t="s">
+      <c r="B136" s="40" t="s">
         <v>214</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E136" s="34"/>
+      <c r="E136" s="23"/>
       <c r="F136" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9687,7 +9046,7 @@
       <c r="A137" s="14">
         <v>64</v>
       </c>
-      <c r="B137" s="42" t="s">
+      <c r="B137" s="40" t="s">
         <v>216</v>
       </c>
       <c r="C137" s="16" t="s">
@@ -9696,7 +9055,7 @@
       <c r="D137" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E137" s="34"/>
+      <c r="E137" s="23"/>
       <c r="F137" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9719,7 +9078,7 @@
       <c r="D138" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E138" s="34"/>
+      <c r="E138" s="23"/>
       <c r="F138" s="24" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9788,7 +9147,7 @@
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="137"/>
+      <c r="F142" s="105"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
@@ -9807,213 +9166,213 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A144" s="112" t="s">
+      <c r="A144" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B144" s="113"/>
-      <c r="C144" s="114" t="s">
+      <c r="B144" s="108"/>
+      <c r="C144" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="114" t="s">
+      <c r="D144" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="115" t="s">
+      <c r="E144" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F144" s="116" t="s">
+      <c r="F144" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G144" s="115" t="s">
+      <c r="G144" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H144" s="115" t="s">
+      <c r="H144" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="I144" s="115" t="s">
+      <c r="I144" s="110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A145" s="117">
+      <c r="A145" s="112">
         <v>66</v>
       </c>
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="119" t="s">
+      <c r="C145" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="D145" s="119" t="s">
+      <c r="D145" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="E145" s="120">
+      <c r="E145" s="115">
         <v>4</v>
       </c>
-      <c r="F145" s="121" t="str">
+      <c r="F145" s="116" t="str">
         <f t="shared" ref="F145:F148" si="27">IF(E145="","",IF(E145=4,"Sangat Baik",IF(AND(E145&gt;=3,E145&lt;4),"Baik",IF(AND(E145&gt;=2,E145&lt;3),"cukup",IF(AND(E145&gt;=1,E145&lt;2),"Kurang",IF(AND(E145&gt;=0,E145&lt;1),"Sangat Kurang",""))))))</f>
         <v>Sangat Baik</v>
       </c>
-      <c r="G145" s="122">
+      <c r="G145" s="117">
         <v>1.5</v>
       </c>
-      <c r="H145" s="122">
+      <c r="H145" s="117">
         <f t="shared" ref="H145:H148" si="28">IFERROR((AVERAGE(E145)*G145),"")</f>
         <v>6</v>
       </c>
-      <c r="I145" s="84" t="s">
+      <c r="I145" s="80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A146" s="117">
+      <c r="A146" s="112">
         <v>67</v>
       </c>
-      <c r="B146" s="118" t="s">
+      <c r="B146" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="C146" s="119" t="s">
+      <c r="C146" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="D146" s="119" t="s">
+      <c r="D146" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="E146" s="120">
+      <c r="E146" s="115">
         <v>4</v>
       </c>
-      <c r="F146" s="121" t="str">
+      <c r="F146" s="116" t="str">
         <f t="shared" si="27"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="G146" s="122">
+      <c r="G146" s="117">
         <v>2</v>
       </c>
-      <c r="H146" s="122">
+      <c r="H146" s="117">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="I146" s="123" t="s">
+      <c r="I146" s="118" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A147" s="117">
+      <c r="A147" s="112">
         <v>68</v>
       </c>
-      <c r="B147" s="118" t="s">
+      <c r="B147" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="C147" s="119" t="s">
+      <c r="C147" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="D147" s="119" t="s">
+      <c r="D147" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="E147" s="120">
+      <c r="E147" s="115">
         <v>4</v>
       </c>
-      <c r="F147" s="121" t="str">
+      <c r="F147" s="116" t="str">
         <f t="shared" si="27"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="G147" s="122">
+      <c r="G147" s="117">
         <v>1.5</v>
       </c>
-      <c r="H147" s="122">
+      <c r="H147" s="117">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="I147" s="123" t="s">
+      <c r="I147" s="118" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A148" s="117">
+      <c r="A148" s="112">
         <v>69</v>
       </c>
-      <c r="B148" s="118" t="s">
+      <c r="B148" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="C148" s="119" t="s">
+      <c r="C148" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="D148" s="119" t="s">
+      <c r="D148" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="E148" s="120">
+      <c r="E148" s="115">
         <v>4</v>
       </c>
-      <c r="F148" s="121" t="str">
+      <c r="F148" s="116" t="str">
         <f t="shared" si="27"/>
         <v>Sangat Baik</v>
       </c>
-      <c r="G148" s="122">
+      <c r="G148" s="117">
         <v>1</v>
       </c>
-      <c r="H148" s="122">
+      <c r="H148" s="117">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
-      <c r="I148" s="123" t="s">
+      <c r="I148" s="118" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A149" s="117"/>
-      <c r="B149" s="118"/>
-      <c r="C149" s="119"/>
-      <c r="D149" s="124"/>
-      <c r="E149" s="125"/>
-      <c r="F149" s="124"/>
-      <c r="G149" s="122"/>
-      <c r="H149" s="122"/>
-      <c r="I149" s="122"/>
+      <c r="A149" s="112"/>
+      <c r="B149" s="113"/>
+      <c r="C149" s="114"/>
+      <c r="D149" s="119"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="119"/>
+      <c r="G149" s="117"/>
+      <c r="H149" s="117"/>
+      <c r="I149" s="117"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A150" s="117"/>
-      <c r="B150" s="118"/>
-      <c r="C150" s="119"/>
-      <c r="D150" s="124" t="s">
+      <c r="A150" s="112"/>
+      <c r="B150" s="113"/>
+      <c r="C150" s="114"/>
+      <c r="D150" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="E150" s="125">
+      <c r="E150" s="120">
         <f>IFERROR(AVERAGE(E145:E148),"")</f>
         <v>4</v>
       </c>
-      <c r="F150" s="121" t="str">
+      <c r="F150" s="116" t="str">
         <f>IF(E150="","",IF(E150=4,"Sangat Baik",IF(AND(E150&gt;=3,E150&lt;4),"Baik",IF(AND(E150&gt;=2,E150&lt;3),"cukup",IF(AND(E150&gt;=1,E150&lt;2),"Kurang",IF(AND(E150&gt;=0,E150&lt;1),"Sangat Kurang",""))))))</f>
         <v>Sangat Baik</v>
       </c>
-      <c r="G150" s="122"/>
-      <c r="H150" s="122"/>
-      <c r="I150" s="122"/>
+      <c r="G150" s="117"/>
+      <c r="H150" s="117"/>
+      <c r="I150" s="117"/>
     </row>
     <row r="151" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A151" s="117"/>
-      <c r="B151" s="118"/>
-      <c r="C151" s="119"/>
-      <c r="D151" s="124" t="s">
+      <c r="A151" s="112"/>
+      <c r="B151" s="113"/>
+      <c r="C151" s="114"/>
+      <c r="D151" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E151" s="125"/>
-      <c r="F151" s="124"/>
-      <c r="G151" s="122">
+      <c r="E151" s="120"/>
+      <c r="F151" s="119"/>
+      <c r="G151" s="117">
         <f t="shared" ref="G151:H151" si="29">SUM(G145:G148)</f>
         <v>6</v>
       </c>
-      <c r="H151" s="122">
+      <c r="H151" s="117">
         <f t="shared" si="29"/>
         <v>24</v>
       </c>
-      <c r="I151" s="122"/>
+      <c r="I151" s="117"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="hXjuf79Zq6Jdwk+V5W7KxAk+TOtAstxr9D4fQfIjUmj9zLYOgsMVh0edhhbifPNKqvnP4o4fdxBSDCrynOj7rw==" saltValue="pC4pKAvyZXkImbOwFQaw4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="E145:E148" name="Range3"/>
+    <protectedRange sqref="E3 E7 E12 E13 E14 E21:E25 E30:E31 E26 E28 E27 E29 E38 E41 E42 E40 E39 E49:E62 E63 E64 E71:E76 E83:E91 E92:E98 E99 E102 E101 E100 E109 E110 E117 E118 E125:E132 E133:E138" name="Range1"/>
+    <protectedRange sqref="G109 I3 I7 I12:I17 I21:I31 I38:I42 I49:I64 I71:I76 I83:I91 I93:I101 I102 I109:I110 I117:I118 I125:I132 I133:I138 I145:I148" name="Range2"/>
+  </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A93"/>
@@ -10021,6 +9380,12 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F49:F57 F2:F5 F7:F10 F38:F44 F35:F36">
     <cfRule type="containsText" dxfId="233" priority="56" operator="containsText" text="cukup">
@@ -11192,8 +10557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A980" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="L345" sqref="L345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -11204,308 +10569,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="50"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="55" t="s">
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="57" t="str">
+      <c r="A5" s="55" t="str">
         <f>A26</f>
         <v>C.1. Visi, Misi, Tujuan dan Strategi</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="59">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="57">
         <f>C30</f>
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="str">
+      <c r="G5" s="58" t="str">
         <f t="shared" ref="G5:G14" si="0">IF(F5="","",IF(F5=4,"Sangat Baik",IF(AND(F5&gt;=3,F5&lt;4),"Baik",IF(AND(F5&gt;=2,F5&lt;3),"cukup",IF(AND(F5&gt;=1,F5&lt;2),"Kurang",IF(AND(F5&gt;=0,F5&lt;1),"Sangat Kurang",""))))))</f>
         <v>Sangat Baik</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="61" t="str">
+      <c r="A6" s="59" t="str">
         <f>A34</f>
         <v>C.2. Tata Pamong, Tata Kelola dan Kerjasama</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="59">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="57">
         <f>C46</f>
         <v>2.9090909090909092</v>
       </c>
-      <c r="G6" s="60" t="str">
+      <c r="G6" s="58" t="str">
         <f t="shared" si="0"/>
         <v>cukup</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="61" t="str">
+      <c r="A7" s="59" t="str">
         <f>A48</f>
         <v>C.3. Mahasiswa</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="59">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="57">
         <f>C54</f>
         <v>2.8</v>
       </c>
-      <c r="G7" s="60" t="str">
+      <c r="G7" s="58" t="str">
         <f t="shared" si="0"/>
         <v>cukup</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="63" t="str">
+      <c r="A8" s="61" t="str">
         <f>A56</f>
         <v xml:space="preserve">C.4. Sumber Daya Manusia </v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="59">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="57">
         <f>C73</f>
         <v>0.9375</v>
       </c>
-      <c r="G8" s="60" t="str">
+      <c r="G8" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="61" t="str">
+      <c r="A9" s="59" t="str">
         <f>A75</f>
         <v>C.5. Keuangan, Sarana dan Prasarana</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="59">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="57">
         <f>C82</f>
         <v>0.5</v>
       </c>
-      <c r="G9" s="60" t="str">
+      <c r="G9" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="61" t="str">
+      <c r="A10" s="59" t="str">
         <f>$A$84</f>
         <v xml:space="preserve">C.6. Pendidikan </v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="59">
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="57">
         <f>C104</f>
         <v>1.263157894736842</v>
       </c>
-      <c r="G10" s="60" t="str">
+      <c r="G10" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Kurang</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="63" t="str">
+      <c r="A11" s="61" t="str">
         <f>$A$106</f>
         <v>C.7. Penelitian</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="59">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="57">
         <f>C109</f>
         <v>2</v>
       </c>
-      <c r="G11" s="60" t="str">
+      <c r="G11" s="58" t="str">
         <f t="shared" si="0"/>
         <v>cukup</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="63" t="str">
+      <c r="A12" s="61" t="str">
         <f>$A$111</f>
         <v>C.8 Pengabdian Kepada Masyarakat</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="59">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="57">
         <f>C114</f>
         <v>4</v>
       </c>
-      <c r="G12" s="60" t="str">
+      <c r="G12" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="63" t="str">
+      <c r="A13" s="61" t="str">
         <f>$A$116</f>
         <v>C.9. Luaran dan Capaian Tridharma</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="59">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="57">
         <f>C131</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="G13" s="60" t="str">
+      <c r="G13" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Kurang</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A14" s="65" t="str">
+      <c r="A14" s="63" t="str">
         <f>$A$133</f>
         <v>D. Analisis dan Penetapan Program Pengembangan</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="59">
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="57">
         <f>C138</f>
         <v>4</v>
       </c>
-      <c r="G14" s="60" t="str">
+      <c r="G14" s="58" t="str">
         <f t="shared" si="0"/>
         <v>Sangat Baik</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="66">
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="64">
         <f>IFERROR(AVERAGE(F5:F14),"")</f>
         <v>2.3552605946684895</v>
       </c>
-      <c r="G16" s="60" t="str">
+      <c r="G16" s="58" t="str">
         <f>IF(F16="","",IF(F16=4,"Sangat Baik",IF(AND(F16&gt;=3,F16&lt;4),"Baik",IF(AND(F16&gt;=2,F16&lt;3),"cukup",IF(AND(F16&gt;=1,F16&lt;2),"Kurang",IF(AND(F16&gt;=0,F16&lt;1),"Sangat Kurang",""))))))</f>
         <v>cukup</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="52" t="str">
+      <c r="A19" s="50" t="str">
         <f>Sheet1!$A$1</f>
         <v xml:space="preserve">A. Kondisi Eksternal </v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B20" s="52" t="str">
+      <c r="B20" s="50" t="str">
         <f>Sheet1!$B$3</f>
         <v>A.1</v>
       </c>
-      <c r="C20" s="54">
+      <c r="C20" s="52">
         <f>Sheet1!$E$3</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="52" t="str">
+      <c r="A22" s="50" t="str">
         <f>Sheet1!$A$5</f>
         <v xml:space="preserve">B. Profil Unit Pengelola Program Studi </v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B23" s="52" t="str">
+      <c r="B23" s="50" t="str">
         <f>Sheet1!$B$7</f>
         <v>B.1</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="52">
         <f>Sheet1!$E$7</f>
         <v>3</v>
       </c>
@@ -11513,54 +10878,54 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="69" t="str">
+      <c r="A26" s="67" t="str">
         <f>Sheet1!A10</f>
         <v>C.1. Visi, Misi, Tujuan dan Strategi</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="70" t="str">
+      <c r="B27" s="68" t="str">
         <f>Sheet1!B12</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="69">
         <f>IF((Sheet1!E12=0),"",Sheet1!E12)</f>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="70" t="str">
+      <c r="A28" s="50"/>
+      <c r="B28" s="68" t="str">
         <f>Sheet1!B13</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C28" s="71">
+      <c r="C28" s="69">
         <f>IF((Sheet1!E13=0),"",Sheet1!E13)</f>
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="70" t="str">
+      <c r="A29" s="50"/>
+      <c r="B29" s="68" t="str">
         <f>Sheet1!B14</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C29" s="71">
+      <c r="C29" s="69">
         <f>IF((Sheet1!E14=0),"",Sheet1!E14)</f>
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="72" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="C30" s="73">
+      <c r="C30" s="71">
         <f>IFERROR(AVERAGE(C27:C29),"")</f>
         <v>4</v>
       </c>
@@ -11569,673 +10934,673 @@
     <row r="32" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="33" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="52" t="str">
+      <c r="A34" s="50" t="str">
         <f>Sheet1!A19</f>
         <v>C.2. Tata Pamong, Tata Kelola dan Kerjasama</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="B35" s="52" t="str">
+      <c r="B35" s="50" t="str">
         <f>Sheet1!B21</f>
         <v>C.2.4.a.A.</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="72">
         <f>Sheet1!E21</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B36" s="52" t="str">
+      <c r="B36" s="50" t="str">
         <f>Sheet1!B22</f>
         <v>C.2.4.a.B.</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="72">
         <f>Sheet1!E22</f>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B37" s="52" t="str">
+      <c r="B37" s="50" t="str">
         <f>Sheet1!B23</f>
         <v>C.2.4.b.A</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="72">
         <f>Sheet1!E23</f>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B38" s="52" t="str">
+      <c r="B38" s="50" t="str">
         <f>Sheet1!B24</f>
         <v>C.2.4.b.B</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="72">
         <f>Sheet1!E24</f>
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B39" s="52" t="str">
+      <c r="B39" s="50" t="str">
         <f>Sheet1!B25</f>
         <v xml:space="preserve">C.2.4.c) </v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="72">
         <f>Sheet1!E25</f>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B40" s="52" t="str">
+      <c r="B40" s="50" t="str">
         <f>Sheet1!B26</f>
         <v>C.2.4.c.A</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="72">
         <f>Sheet1!E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B41" s="52" t="str">
+      <c r="B41" s="50" t="str">
         <f>Sheet1!B27</f>
         <v>C.2.4.c.B</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="72">
         <f>Sheet1!E27</f>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B42" s="52" t="str">
+      <c r="B42" s="50" t="str">
         <f>Sheet1!B28</f>
         <v>C.2.5.</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="72">
         <f>Sheet1!E28</f>
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B43" s="52" t="str">
+      <c r="B43" s="50" t="str">
         <f>Sheet1!B29</f>
         <v>C.2.6.</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="72">
         <f>Sheet1!E29</f>
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B44" s="52" t="str">
+      <c r="B44" s="50" t="str">
         <f>Sheet1!B30</f>
         <v>C.2.7.</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="72">
         <f>Sheet1!E30</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B45" s="52" t="str">
+      <c r="B45" s="50" t="str">
         <f>Sheet1!B31</f>
         <v>C.2.8.</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C45" s="72">
         <f>Sheet1!E31</f>
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="74">
         <f>IFERROR(AVERAGE(C35:C45),"")</f>
         <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="65" t="str">
+      <c r="A48" s="63" t="str">
         <f>Sheet1!$A$36</f>
         <v>C.3. Mahasiswa</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B49" s="52" t="str">
+      <c r="B49" s="50" t="str">
         <f>Sheet1!B38</f>
         <v>C.3.4.a.</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C49" s="72">
         <f>Sheet1!E38</f>
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B50" s="52" t="str">
+      <c r="B50" s="50" t="str">
         <f>Sheet1!B39</f>
         <v>C.3.4.b. A</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="72">
         <f>Sheet1!E39</f>
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B51" s="52" t="str">
+      <c r="B51" s="50" t="str">
         <f>Sheet1!B40</f>
         <v>C.3.4.b. B</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="72">
         <f>Sheet1!E40</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B52" s="52" t="str">
+      <c r="B52" s="50" t="str">
         <f>Sheet1!B41</f>
         <v>C.3.4.c.A</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="72">
         <f>Sheet1!E41</f>
         <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B53" s="52" t="str">
+      <c r="B53" s="50" t="str">
         <f>Sheet1!B42</f>
         <v>C.3.4.c.B</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="72">
         <f>Sheet1!E42</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B54" s="75" t="s">
+      <c r="B54" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="77">
+      <c r="C54" s="75">
         <f>AVERAGE(C49:C53)</f>
         <v>2.8</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="52" t="str">
+      <c r="A56" s="50" t="str">
         <f>Sheet1!$A$47</f>
         <v xml:space="preserve">C.4. Sumber Daya Manusia </v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B57" s="52" t="str">
+      <c r="B57" s="50" t="str">
         <f>Sheet1!B49</f>
         <v>C.4.4.a.1</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C57" s="72">
         <f>Sheet1!E49</f>
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B58" s="52" t="str">
+      <c r="B58" s="50" t="str">
         <f>Sheet1!B50</f>
         <v>C.4.4.a.2</v>
       </c>
-      <c r="C58" s="74">
+      <c r="C58" s="72">
         <f>Sheet1!E50</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B59" s="52" t="str">
+      <c r="B59" s="50" t="str">
         <f>Sheet1!B51</f>
         <v>C.4.4.a.3.</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C59" s="72">
         <f>Sheet1!E51</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B60" s="52" t="str">
+      <c r="B60" s="50" t="str">
         <f>Sheet1!B52</f>
         <v>C.4.4.a.4</v>
       </c>
-      <c r="C60" s="74">
+      <c r="C60" s="72">
         <f>Sheet1!E52</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B61" s="52" t="str">
+      <c r="B61" s="50" t="str">
         <f>Sheet1!B53</f>
         <v>C.4.4.a.5</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C61" s="72">
         <f>Sheet1!E53</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B62" s="52" t="str">
+      <c r="B62" s="50" t="str">
         <f>Sheet1!B54</f>
         <v>C.4.4.a.6</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C62" s="72">
         <f>Sheet1!E54</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B63" s="52" t="str">
+      <c r="B63" s="50" t="str">
         <f>Sheet1!B55</f>
         <v>C.4.4.a.7</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C63" s="72">
         <f>Sheet1!E55</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B64" s="52" t="str">
+      <c r="B64" s="50" t="str">
         <f>Sheet1!B56</f>
         <v>C.4.4.b.1</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="72">
         <f>Sheet1!E56</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B65" s="52" t="str">
+      <c r="B65" s="50" t="str">
         <f>Sheet1!B57</f>
         <v>C.4.4.b.2</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="72">
         <f>Sheet1!E57</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B66" s="52" t="str">
+      <c r="B66" s="50" t="str">
         <f>Sheet1!B58</f>
         <v>C.4.4.b.3</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="72">
         <f>Sheet1!E58</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B67" s="52" t="str">
+      <c r="B67" s="50" t="str">
         <f>Sheet1!B59</f>
         <v>C.4.4.b.4</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="72">
         <f>Sheet1!E59</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B68" s="52" t="str">
+      <c r="B68" s="50" t="str">
         <f>Sheet1!B60</f>
         <v>C.4.4.b.5</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="72">
         <f>Sheet1!E60</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B69" s="52" t="str">
+      <c r="B69" s="50" t="str">
         <f>Sheet1!B61</f>
         <v>C.4.4.b.6</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="72">
         <f>Sheet1!E61</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B70" s="52" t="str">
+      <c r="B70" s="50" t="str">
         <f>Sheet1!B62</f>
         <v>C.4.4.c</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C70" s="72">
         <f>Sheet1!E62</f>
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B71" s="52" t="str">
+      <c r="B71" s="50" t="str">
         <f>Sheet1!B63</f>
         <v>C.4.4.d.A</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71" s="72">
         <f>Sheet1!E63</f>
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B72" s="52" t="str">
+      <c r="B72" s="50" t="str">
         <f>Sheet1!B64</f>
         <v>C.4.4.d.B</v>
       </c>
-      <c r="C72" s="74">
+      <c r="C72" s="72">
         <f>Sheet1!E64</f>
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B73" s="75" t="s">
+      <c r="B73" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="78">
+      <c r="C73" s="76">
         <f>AVERAGE(C57:C72)</f>
         <v>0.9375</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="52" t="str">
+      <c r="A75" s="50" t="str">
         <f>Sheet1!$A$69</f>
         <v>C.5. Keuangan, Sarana dan Prasarana</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B76" s="52" t="str">
+      <c r="B76" s="50" t="str">
         <f>Sheet1!B71</f>
         <v>C.5.4.a.1</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C76" s="72">
         <f>Sheet1!$E$71</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B77" s="52" t="str">
+      <c r="B77" s="50" t="str">
         <f>Sheet1!B72</f>
         <v>C.5.4.a.2</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C77" s="72">
         <f>Sheet1!E72</f>
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B78" s="52" t="str">
+      <c r="B78" s="50" t="str">
         <f>Sheet1!B73</f>
         <v>C.5.4.a.3</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C78" s="72">
         <f>Sheet1!E73</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B79" s="52" t="str">
+      <c r="B79" s="50" t="str">
         <f>Sheet1!B74</f>
         <v>C.5.4.a.4</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C79" s="72">
         <f>Sheet1!E74</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B80" s="52" t="str">
+      <c r="B80" s="50" t="str">
         <f>Sheet1!B75</f>
         <v>C.5.4.a.5</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="72">
         <f>Sheet1!E75</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B81" s="52" t="str">
+      <c r="B81" s="50" t="str">
         <f>Sheet1!B76</f>
         <v>C.5.4.b.</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C81" s="72">
         <f>Sheet1!E76</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B82" s="75" t="s">
+      <c r="B82" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="78">
+      <c r="C82" s="76">
         <f>AVERAGE(C76:C81)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="65" t="str">
+      <c r="A84" s="63" t="str">
         <f>Sheet1!$A$81</f>
         <v xml:space="preserve">C.6. Pendidikan </v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B85" s="65" t="str">
+      <c r="B85" s="63" t="str">
         <f>Sheet1!B83</f>
         <v>C.6.4.a.A</v>
       </c>
-      <c r="C85" s="74">
+      <c r="C85" s="72">
         <f>Sheet1!E83</f>
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B86" s="65" t="str">
+      <c r="B86" s="63" t="str">
         <f>Sheet1!B84</f>
         <v>C.6.4.a.B</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="72">
         <f>Sheet1!E84</f>
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B87" s="65" t="str">
+      <c r="B87" s="63" t="str">
         <f>Sheet1!B85</f>
         <v>C.6.4.a.C</v>
       </c>
-      <c r="C87" s="74">
+      <c r="C87" s="72">
         <f>Sheet1!E85</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B88" s="65" t="str">
+      <c r="B88" s="63" t="str">
         <f>Sheet1!B86</f>
         <v>C.6.4.b.</v>
       </c>
-      <c r="C88" s="74">
+      <c r="C88" s="72">
         <f>Sheet1!E86</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B89" s="65" t="str">
+      <c r="B89" s="63" t="str">
         <f>Sheet1!B87</f>
         <v>C.6.4.c.A</v>
       </c>
-      <c r="C89" s="74">
+      <c r="C89" s="72">
         <f>Sheet1!E87</f>
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B90" s="65" t="str">
+      <c r="B90" s="63" t="str">
         <f>Sheet1!B88</f>
         <v>C.6.4.c.B</v>
       </c>
-      <c r="C90" s="74">
+      <c r="C90" s="72">
         <f>Sheet1!E88</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B91" s="65" t="str">
+      <c r="B91" s="63" t="str">
         <f>Sheet1!B89</f>
         <v>C.6.4.d.A</v>
       </c>
-      <c r="C91" s="74">
+      <c r="C91" s="72">
         <f>Sheet1!E89</f>
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B92" s="65" t="str">
+      <c r="B92" s="63" t="str">
         <f>Sheet1!B90</f>
         <v>C.6.4.d.B</v>
       </c>
-      <c r="C92" s="74">
+      <c r="C92" s="72">
         <f>Sheet1!E90</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B93" s="65" t="str">
+      <c r="B93" s="63" t="str">
         <f>Sheet1!B92</f>
         <v>C.6.4.d.D</v>
       </c>
-      <c r="C93" s="74">
+      <c r="C93" s="72">
         <f>Sheet1!E92</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B94" s="65" t="str">
+      <c r="B94" s="63" t="str">
         <f>Sheet1!B93</f>
         <v>C.6.4.d.E</v>
       </c>
-      <c r="C94" s="74">
+      <c r="C94" s="72">
         <f>Sheet1!E93</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B95" s="65">
+      <c r="B95" s="63">
         <f>Sheet1!B94</f>
         <v>0</v>
       </c>
-      <c r="C95" s="74">
+      <c r="C95" s="72">
         <f>Sheet1!E94</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B96" s="65" t="str">
+      <c r="B96" s="63" t="str">
         <f>Sheet1!B95</f>
         <v>C.6.4.e.</v>
       </c>
-      <c r="C96" s="74">
+      <c r="C96" s="72">
         <f>Sheet1!E95</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B97" s="65" t="str">
+      <c r="B97" s="63" t="str">
         <f>Sheet1!B96</f>
         <v>C.6.4.f.A</v>
       </c>
-      <c r="C97" s="74">
+      <c r="C97" s="72">
         <f>Sheet1!E96</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B98" s="65" t="str">
+      <c r="B98" s="63" t="str">
         <f>Sheet1!B97</f>
         <v>C.6.4.f.B</v>
       </c>
-      <c r="C98" s="74">
+      <c r="C98" s="72">
         <f>Sheet1!E97</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B99" s="65" t="str">
+      <c r="B99" s="63" t="str">
         <f>Sheet1!B98</f>
         <v>C.6.4.f.C</v>
       </c>
-      <c r="C99" s="74">
+      <c r="C99" s="72">
         <f>Sheet1!E98</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B100" s="65" t="str">
+      <c r="B100" s="63" t="str">
         <f>Sheet1!B99</f>
         <v>C.6.4.g</v>
       </c>
-      <c r="C100" s="74">
+      <c r="C100" s="72">
         <f>Sheet1!E99</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B101" s="65" t="str">
+      <c r="B101" s="63" t="str">
         <f>Sheet1!B100</f>
         <v>C.6.4.h</v>
       </c>
-      <c r="C101" s="74">
+      <c r="C101" s="72">
         <f>Sheet1!E100</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B102" s="65" t="str">
+      <c r="B102" s="63" t="str">
         <f>Sheet1!B101</f>
         <v>C.6.4.i.A</v>
       </c>
-      <c r="C102" s="74">
+      <c r="C102" s="72">
         <f>Sheet1!E101</f>
         <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B103" s="65" t="str">
+      <c r="B103" s="63" t="str">
         <f>Sheet1!B102</f>
         <v>C.6.4.i.B</v>
       </c>
-      <c r="C103" s="74">
+      <c r="C103" s="72">
         <f>Sheet1!E102</f>
         <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B104" s="75" t="s">
+      <c r="B104" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="78">
+      <c r="C104" s="76">
         <f>AVERAGE(C85:C103)</f>
         <v>1.263157894736842</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B105" s="52"/>
-      <c r="C105" s="54"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="52"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A106" s="79" t="str">
+      <c r="A106" s="77" t="str">
         <f>Sheet1!A107</f>
         <v>C.7. Penelitian</v>
       </c>
-      <c r="C106" s="54"/>
+      <c r="C106" s="52"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="B107" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="C107" s="74">
+      <c r="C107" s="72">
         <f>Sheet1!E109</f>
         <v>4</v>
       </c>
@@ -12245,262 +11610,262 @@
         <f>Sheet1!B110</f>
         <v>C.7.4.b</v>
       </c>
-      <c r="C108" s="74">
+      <c r="C108" s="72">
         <f>Sheet1!E110</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B109" s="75" t="s">
+      <c r="B109" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="78">
+      <c r="C109" s="76">
         <f>AVERAGE(C107:C108)</f>
         <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="111" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A111" s="65" t="str">
+      <c r="A111" s="63" t="str">
         <f>Sheet1!A115</f>
         <v>C.8 Pengabdian Kepada Masyarakat</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B112" s="65" t="str">
+      <c r="B112" s="63" t="str">
         <f>Sheet1!B117</f>
         <v>C.8.4.a.</v>
       </c>
-      <c r="C112" s="74">
+      <c r="C112" s="72">
         <f>Sheet1!E117</f>
         <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B113" s="65" t="str">
+      <c r="B113" s="63" t="str">
         <f>Sheet1!B118</f>
         <v>C.8.4.b.</v>
       </c>
-      <c r="C113" s="74">
+      <c r="C113" s="72">
         <f>Sheet1!E118</f>
         <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B114" s="75" t="s">
+      <c r="B114" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="78">
+      <c r="C114" s="76">
         <f>AVERAGE(C112:C113)</f>
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A116" s="65" t="s">
+      <c r="A116" s="63" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B117" s="65" t="str">
+      <c r="B117" s="63" t="str">
         <f>Sheet1!B125</f>
         <v>C.9.4.a.1</v>
       </c>
-      <c r="C117" s="74">
+      <c r="C117" s="72">
         <f>Sheet1!E125</f>
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B118" s="65" t="str">
+      <c r="B118" s="63" t="str">
         <f>Sheet1!B126</f>
         <v>C.9.4.a.2</v>
       </c>
-      <c r="C118" s="74">
+      <c r="C118" s="72">
         <f>Sheet1!E126</f>
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B119" s="65" t="str">
+      <c r="B119" s="63" t="str">
         <f>Sheet1!B127</f>
         <v>C.9.4.a.3</v>
       </c>
-      <c r="C119" s="74">
+      <c r="C119" s="72">
         <f>Sheet1!E127</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B120" s="65" t="str">
+      <c r="B120" s="63" t="str">
         <f>Sheet1!B128</f>
         <v>C.9.4.a.4</v>
       </c>
-      <c r="C120" s="74">
+      <c r="C120" s="72">
         <f>Sheet1!E128</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B121" s="65" t="str">
+      <c r="B121" s="63" t="str">
         <f>Sheet1!B129</f>
         <v>C.9.4.a.5</v>
       </c>
-      <c r="C121" s="74">
+      <c r="C121" s="72">
         <f>Sheet1!E129</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B122" s="65" t="str">
+      <c r="B122" s="63" t="str">
         <f>Sheet1!B130</f>
         <v>C.9.4.a.6</v>
       </c>
-      <c r="C122" s="74">
+      <c r="C122" s="72">
         <f>Sheet1!E130</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B123" s="65" t="str">
+      <c r="B123" s="63" t="str">
         <f>Sheet1!B131</f>
         <v>C.9.4.a.7</v>
       </c>
-      <c r="C123" s="74">
+      <c r="C123" s="72">
         <f>Sheet1!E131</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B124" s="65" t="str">
+      <c r="B124" s="63" t="str">
         <f>Sheet1!B132</f>
         <v>C.9.4.a.8</v>
       </c>
-      <c r="C124" s="74">
+      <c r="C124" s="72">
         <f>Sheet1!E132</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B125" s="65" t="str">
+      <c r="B125" s="63" t="str">
         <f>Sheet1!B133</f>
         <v>C.9.4.a.9</v>
       </c>
-      <c r="C125" s="74">
+      <c r="C125" s="72">
         <f>Sheet1!E133</f>
         <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B126" s="65" t="str">
+      <c r="B126" s="63" t="str">
         <f>Sheet1!B134</f>
         <v>C.9.4.a.10</v>
       </c>
-      <c r="C126" s="74">
+      <c r="C126" s="72">
         <f>Sheet1!E134</f>
         <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B127" s="65" t="str">
+      <c r="B127" s="63" t="str">
         <f>Sheet1!B135</f>
         <v>C.9.4.a.11</v>
       </c>
-      <c r="C127" s="74">
+      <c r="C127" s="72">
         <f>Sheet1!E135</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B128" s="65" t="str">
+      <c r="B128" s="63" t="str">
         <f>Sheet1!B136</f>
         <v>C.9.4.a.12</v>
       </c>
-      <c r="C128" s="74">
+      <c r="C128" s="72">
         <f>Sheet1!E136</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B129" s="65" t="str">
+      <c r="B129" s="63" t="str">
         <f>Sheet1!B137</f>
         <v>C.9.4.b</v>
       </c>
-      <c r="C129" s="74">
+      <c r="C129" s="72">
         <f>Sheet1!E137</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B130" s="65">
+      <c r="B130" s="63">
         <f>Sheet1!B138</f>
         <v>0</v>
       </c>
-      <c r="C130" s="74">
+      <c r="C130" s="72">
         <f>Sheet1!E138</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B131" s="75" t="s">
+      <c r="B131" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C131" s="78">
+      <c r="C131" s="76">
         <f>AVERAGE(C117:C130)</f>
         <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A133" s="79" t="s">
+      <c r="A133" s="77" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B134" s="65" t="str">
+      <c r="B134" s="63" t="str">
         <f>Sheet1!B145</f>
         <v>D.1</v>
       </c>
-      <c r="C134" s="54">
+      <c r="C134" s="52">
         <f>Sheet1!E145</f>
         <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B135" s="65" t="str">
+      <c r="B135" s="63" t="str">
         <f>Sheet1!B146</f>
         <v>D.2</v>
       </c>
-      <c r="C135" s="54">
+      <c r="C135" s="52">
         <f>Sheet1!E146</f>
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B136" s="65" t="str">
+      <c r="B136" s="63" t="str">
         <f>Sheet1!B147</f>
         <v>D.3</v>
       </c>
-      <c r="C136" s="54">
+      <c r="C136" s="52">
         <f>Sheet1!E147</f>
         <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B137" s="65" t="str">
+      <c r="B137" s="63" t="str">
         <f>Sheet1!B148</f>
         <v>D.4</v>
       </c>
-      <c r="C137" s="54">
+      <c r="C137" s="52">
         <f>Sheet1!E148</f>
         <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B138" s="75" t="s">
+      <c r="B138" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="C138" s="78">
+      <c r="C138" s="76">
         <f>AVERAGE(C134:C137)</f>
         <v>4</v>
       </c>
@@ -13368,6 +12733,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="1PqKsSjyKlWNilHZbMhF0vEKLx8LrGuVOGImOvzn1EYVx10cF9xuw8dlE+e3YpTMvWgvBygfeouNXyZaZ5jKPw==" saltValue="zylXwfwB9n4BAd4VL0czaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A16:E16"/>
@@ -13404,996 +12770,1050 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C998"/>
+  <dimension ref="A1:C996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="28.375" style="101" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="26" width="13" customWidth="1"/>
+    <col min="4" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="80" t="str">
+      <c r="A1" s="131" t="str">
         <f>Sheet2!$A$19</f>
         <v xml:space="preserve">A. Kondisi Eksternal </v>
       </c>
-      <c r="B1" s="52" t="str">
+      <c r="B1" s="50" t="str">
         <f>Sheet2!B20</f>
         <v>A.1</v>
       </c>
-      <c r="C1" s="74">
+      <c r="C1" s="72">
         <f>Sheet2!C20</f>
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="80" t="str">
+      <c r="A2" s="131" t="str">
         <f>Sheet2!$A$22</f>
         <v xml:space="preserve">B. Profil Unit Pengelola Program Studi </v>
       </c>
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="50" t="str">
         <f>Sheet2!B23</f>
         <v>B.1</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="72">
         <f>Sheet2!C23</f>
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="80" t="str">
+      <c r="A3" s="131" t="str">
         <f>Sheet2!$A$26</f>
         <v>C.1. Visi, Misi, Tujuan dan Strategi</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="50" t="str">
         <f>Sheet2!B27</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="72">
         <f>Sheet2!C27</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="52" t="str">
+      <c r="A4" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="50" t="str">
         <f>Sheet2!B28</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="72">
         <f>Sheet2!C28</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="52" t="str">
+      <c r="A5" s="131"/>
+      <c r="B5" s="50" t="str">
         <f>Sheet2!B29</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="72">
         <f>Sheet2!C29</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="80" t="str">
+      <c r="A6" s="131" t="str">
         <f>Sheet2!$A$34</f>
         <v>C.2. Tata Pamong, Tata Kelola dan Kerjasama</v>
       </c>
-      <c r="B6" s="52" t="str">
+      <c r="B6" s="50" t="str">
         <f>Sheet2!B35</f>
         <v>C.2.4.a.A.</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="72">
         <f>Sheet2!C35</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="52" t="str">
+      <c r="A7" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="50" t="str">
         <f>Sheet2!B36</f>
         <v>C.2.4.a.B.</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="72">
         <f>Sheet2!C36</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="80"/>
-      <c r="B8" s="52" t="str">
+      <c r="A8" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="50" t="str">
         <f>Sheet2!B37</f>
         <v>C.2.4.b.A</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="72">
         <f>Sheet2!C37</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="80"/>
-      <c r="B9" s="52" t="str">
+      <c r="A9" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="50" t="str">
         <f>Sheet2!B38</f>
         <v>C.2.4.b.B</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="72">
         <f>Sheet2!C38</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="52" t="str">
+      <c r="A10" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="50" t="str">
         <f>Sheet2!B39</f>
         <v xml:space="preserve">C.2.4.c) </v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="72">
         <f>Sheet2!C39</f>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="52" t="str">
+      <c r="A11" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="50" t="str">
         <f>Sheet2!B40</f>
         <v>C.2.4.c.A</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="72">
         <f>Sheet2!C40</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="52" t="str">
+      <c r="A12" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="50" t="str">
         <f>Sheet2!B41</f>
         <v>C.2.4.c.B</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="72">
         <f>Sheet2!C41</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="52" t="str">
+      <c r="A13" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="50" t="str">
         <f>Sheet2!B42</f>
         <v>C.2.5.</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="72">
         <f>Sheet2!C42</f>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="52" t="str">
+      <c r="A14" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="50" t="str">
         <f>Sheet2!B43</f>
         <v>C.2.6.</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="72">
         <f>Sheet2!C43</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="80"/>
-      <c r="B15" s="52" t="str">
+      <c r="B15" s="50" t="str">
         <f>Sheet2!B44</f>
         <v>C.2.7.</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="72">
         <f>Sheet2!C44</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="80"/>
-      <c r="B16" s="52" t="str">
+      <c r="A16" s="131"/>
+      <c r="B16" s="50" t="str">
         <f>Sheet2!B45</f>
         <v>C.2.8.</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="72">
         <f>Sheet2!C45</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="81" t="str">
+      <c r="A17" s="132" t="str">
         <f>Sheet1!$A$36</f>
         <v>C.3. Mahasiswa</v>
       </c>
-      <c r="B17" s="52" t="str">
+      <c r="B17" s="50" t="str">
         <f>Sheet2!B49</f>
         <v>C.3.4.a.</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="72">
         <f>Sheet2!C49</f>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="52" t="str">
+      <c r="A18" s="103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="50" t="str">
         <f>Sheet2!B50</f>
         <v>C.3.4.b. A</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="72">
         <f>Sheet2!C50</f>
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="52" t="str">
+      <c r="A19" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="50" t="str">
         <f>Sheet2!B51</f>
         <v>C.3.4.b. B</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="72">
         <f>Sheet2!C51</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="52" t="str">
+      <c r="A20" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="50" t="str">
         <f>Sheet2!B52</f>
         <v>C.3.4.c.A</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="72">
         <f>Sheet2!C52</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="52" t="str">
+      <c r="A21" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="50" t="str">
         <f>Sheet2!B53</f>
         <v>C.3.4.c.B</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="72">
         <f>Sheet2!C53</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="80" t="str">
+      <c r="A22" s="131" t="str">
         <f>Sheet2!$A$56</f>
         <v xml:space="preserve">C.4. Sumber Daya Manusia </v>
       </c>
-      <c r="B22" s="52" t="str">
+      <c r="B22" s="50" t="str">
         <f>Sheet2!B57</f>
         <v>C.4.4.a.1</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="72">
         <f>Sheet2!C57</f>
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="52" t="str">
+      <c r="A23" s="134" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="50" t="str">
         <f>Sheet2!B58</f>
         <v>C.4.4.a.2</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="72">
         <f>Sheet2!C58</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="52" t="str">
+      <c r="A24" s="135" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" s="50" t="str">
         <f>Sheet2!B59</f>
         <v>C.4.4.a.3.</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="72">
         <f>Sheet2!C59</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="52" t="str">
+      <c r="A25" s="131"/>
+      <c r="B25" s="50" t="str">
         <f>Sheet2!B60</f>
         <v>C.4.4.a.4</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="72">
         <f>Sheet2!C60</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="52" t="str">
+      <c r="A26" s="131"/>
+      <c r="B26" s="50" t="str">
         <f>Sheet2!B61</f>
         <v>C.4.4.a.5</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C26" s="72">
         <f>Sheet2!C61</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="52" t="str">
+      <c r="A27" s="131"/>
+      <c r="B27" s="50" t="str">
         <f>Sheet2!B62</f>
         <v>C.4.4.a.6</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="72">
         <f>Sheet2!C62</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="52" t="str">
+      <c r="A28" s="131"/>
+      <c r="B28" s="50" t="str">
         <f>Sheet2!B63</f>
         <v>C.4.4.a.7</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="72">
         <f>Sheet2!C63</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="52" t="str">
+      <c r="A29" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="50" t="str">
         <f>Sheet2!B64</f>
         <v>C.4.4.b.1</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="72">
         <f>Sheet2!C64</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="52" t="str">
+      <c r="A30" s="131"/>
+      <c r="B30" s="50" t="str">
         <f>Sheet2!B65</f>
         <v>C.4.4.b.2</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="72">
         <f>Sheet2!C65</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="80"/>
-      <c r="B31" s="52" t="str">
+      <c r="A31" s="131"/>
+      <c r="B31" s="50" t="str">
         <f>Sheet2!B66</f>
         <v>C.4.4.b.3</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="72">
         <f>Sheet2!C66</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="52" t="str">
+      <c r="A32" s="131"/>
+      <c r="B32" s="50" t="str">
         <f>Sheet2!B67</f>
         <v>C.4.4.b.4</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C32" s="72">
         <f>Sheet2!C67</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="52" t="str">
+      <c r="A33" s="131"/>
+      <c r="B33" s="50" t="str">
         <f>Sheet2!B68</f>
         <v>C.4.4.b.5</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="72">
         <f>Sheet2!C68</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="52" t="str">
+      <c r="A34" s="131"/>
+      <c r="B34" s="50" t="str">
         <f>Sheet2!B69</f>
         <v>C.4.4.b.6</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="72">
         <f>Sheet2!C69</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="52" t="str">
+      <c r="A35" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="50" t="str">
         <f>Sheet2!B70</f>
         <v>C.4.4.c</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="72">
         <f>Sheet2!C70</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="52" t="str">
+      <c r="A36" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="50" t="str">
         <f>Sheet2!B71</f>
         <v>C.4.4.d.A</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="72">
         <f>Sheet2!C71</f>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="52" t="str">
+      <c r="A37" s="131"/>
+      <c r="B37" s="50" t="str">
         <f>Sheet2!B72</f>
         <v>C.4.4.d.B</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="72">
         <f>Sheet2!C72</f>
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="80" t="str">
+      <c r="A38" s="131" t="str">
         <f>Sheet2!$A$75</f>
         <v>C.5. Keuangan, Sarana dan Prasarana</v>
       </c>
-      <c r="B38" s="52" t="str">
+      <c r="B38" s="50" t="str">
         <f>Sheet2!B76</f>
         <v>C.5.4.a.1</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="72">
         <f>Sheet2!C76</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="52" t="str">
+      <c r="A39" s="136" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="50" t="str">
         <f>Sheet2!B77</f>
         <v>C.5.4.a.2</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C39" s="72">
         <f>Sheet2!C77</f>
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="52" t="str">
+      <c r="A40" s="135" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="50" t="str">
         <f>Sheet2!B78</f>
         <v>C.5.4.a.3</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C40" s="72">
         <f>Sheet2!C78</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="80"/>
-      <c r="B41" s="52" t="str">
+      <c r="A41" s="131"/>
+      <c r="B41" s="50" t="str">
         <f>Sheet2!B79</f>
         <v>C.5.4.a.4</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="72">
         <f>Sheet2!C79</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="80"/>
-      <c r="B42" s="52" t="str">
+      <c r="A42" s="131"/>
+      <c r="B42" s="50" t="str">
         <f>Sheet2!B80</f>
         <v>C.5.4.a.5</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="72">
         <f>Sheet2!C80</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="80"/>
-      <c r="B43" s="52" t="str">
+      <c r="A43" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="50" t="str">
         <f>Sheet2!B81</f>
         <v>C.5.4.b.</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="72">
         <f>Sheet2!C81</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="80" t="str">
+      <c r="A44" s="131" t="str">
         <f>Sheet2!$A$84</f>
         <v xml:space="preserve">C.6. Pendidikan </v>
       </c>
-      <c r="B44" s="52" t="str">
+      <c r="B44" s="50" t="str">
         <f>Sheet2!B85</f>
         <v>C.6.4.a.A</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C44" s="72">
         <f>Sheet2!C85</f>
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="80"/>
-      <c r="B45" s="52" t="str">
+      <c r="A45" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="50" t="str">
         <f>Sheet2!B86</f>
         <v>C.6.4.a.B</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C45" s="72">
         <f>Sheet2!C86</f>
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="80"/>
-      <c r="B46" s="52" t="str">
+      <c r="A46" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="50" t="str">
         <f>Sheet2!B87</f>
         <v>C.6.4.a.C</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="72">
         <f>Sheet2!C87</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="80"/>
-      <c r="B47" s="52" t="str">
+      <c r="A47" s="103" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="50" t="str">
         <f>Sheet2!B88</f>
         <v>C.6.4.b.</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C47" s="72">
         <f>Sheet2!C88</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="80"/>
-      <c r="B48" s="52" t="str">
+      <c r="A48" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="50" t="str">
         <f>Sheet2!B89</f>
         <v>C.6.4.c.A</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C48" s="72">
         <f>Sheet2!C89</f>
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="80"/>
-      <c r="B49" s="52" t="str">
+      <c r="A49" s="131"/>
+      <c r="B49" s="50" t="str">
         <f>Sheet2!B90</f>
         <v>C.6.4.c.B</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C49" s="72">
         <f>Sheet2!C90</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="80"/>
-      <c r="B50" s="52" t="str">
+      <c r="A50" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="50" t="str">
         <f>Sheet2!B91</f>
         <v>C.6.4.d.A</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="72">
         <f>Sheet2!C91</f>
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="80"/>
-      <c r="B51" s="52" t="str">
+      <c r="A51" s="131"/>
+      <c r="B51" s="50" t="str">
         <f>Sheet2!B92</f>
         <v>C.6.4.d.B</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="72">
         <f>Sheet2!C92</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="80"/>
-      <c r="B52" s="52" t="str">
+      <c r="A52" s="131"/>
+      <c r="B52" s="50" t="str">
         <f>Sheet2!B93</f>
         <v>C.6.4.d.D</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="72">
         <f>Sheet2!C93</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="80"/>
-      <c r="B53" s="52" t="str">
+      <c r="A53" s="131"/>
+      <c r="B53" s="50" t="str">
         <f>Sheet2!B94</f>
         <v>C.6.4.d.E</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C53" s="72">
         <f>Sheet2!C94</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="80"/>
-      <c r="B54" s="52">
-        <f>Sheet2!B95</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="74">
-        <f>Sheet2!C95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="80"/>
-      <c r="B55" s="52" t="str">
+      <c r="A54" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="50" t="str">
         <f>Sheet2!B96</f>
         <v>C.6.4.e.</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C54" s="72">
         <f>Sheet2!C96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="80"/>
-      <c r="B56" s="52" t="str">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="50" t="str">
         <f>Sheet2!B97</f>
         <v>C.6.4.f.A</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C55" s="72">
         <f>Sheet2!C97</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="80"/>
-      <c r="B57" s="52" t="str">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="131"/>
+      <c r="B56" s="50" t="str">
         <f>Sheet2!B98</f>
         <v>C.6.4.f.B</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C56" s="72">
         <f>Sheet2!C98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="80"/>
-      <c r="B58" s="52" t="str">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="131"/>
+      <c r="B57" s="50" t="str">
         <f>Sheet2!B99</f>
         <v>C.6.4.f.C</v>
       </c>
-      <c r="C58" s="74">
+      <c r="C57" s="72">
         <f>Sheet2!C99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" s="80"/>
-      <c r="B59" s="52" t="str">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="50" t="str">
         <f>Sheet2!B100</f>
         <v>C.6.4.g</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C58" s="72">
         <f>Sheet2!C100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="80"/>
-      <c r="B60" s="52" t="str">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="50" t="str">
         <f>Sheet2!B101</f>
         <v>C.6.4.h</v>
       </c>
-      <c r="C60" s="74">
+      <c r="C59" s="72">
         <f>Sheet2!C101</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="80"/>
-      <c r="B61" s="52" t="str">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="50" t="str">
         <f>Sheet2!B102</f>
         <v>C.6.4.i.A</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C60" s="72">
         <f>Sheet2!C102</f>
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="80"/>
-      <c r="B62" s="52" t="str">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="131"/>
+      <c r="B61" s="50" t="str">
         <f>Sheet2!B103</f>
         <v>C.6.4.i.B</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C61" s="72">
         <f>Sheet2!C103</f>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="80" t="str">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="131" t="str">
         <f>Sheet2!$A$106</f>
         <v>C.7. Penelitian</v>
       </c>
-      <c r="B63" s="52" t="str">
+      <c r="B62" s="50" t="str">
         <f>Sheet2!B107</f>
         <v>C.7.4.a</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C62" s="72">
         <f>Sheet2!C107</f>
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="80"/>
-      <c r="B64" s="52" t="str">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="50" t="str">
         <f>Sheet2!B108</f>
         <v>C.7.4.b</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C63" s="72">
         <f>Sheet2!C108</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="80" t="str">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="131" t="str">
         <f>Sheet2!$A$111</f>
         <v>C.8 Pengabdian Kepada Masyarakat</v>
       </c>
-      <c r="B65" s="52" t="str">
+      <c r="B64" s="50" t="str">
         <f>Sheet2!B112</f>
         <v>C.8.4.a.</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C64" s="72">
         <f>Sheet2!C112</f>
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="80"/>
-      <c r="B66" s="52" t="str">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="50" t="str">
         <f>Sheet2!B113</f>
         <v>C.8.4.b.</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C65" s="72">
         <f>Sheet2!C113</f>
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A67" s="80" t="str">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="131" t="str">
         <f>Sheet2!$A$116</f>
         <v>C.9. Luaran dan Capaian Tridharma</v>
       </c>
-      <c r="B67" s="52" t="str">
+      <c r="B66" s="50" t="str">
         <f>Sheet2!B117</f>
         <v>C.9.4.a.1</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C66" s="72">
         <f>Sheet2!C117</f>
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="80"/>
-      <c r="B68" s="52" t="str">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="50" t="str">
         <f>Sheet2!B118</f>
         <v>C.9.4.a.2</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C67" s="72">
         <f>Sheet2!C118</f>
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="80"/>
-      <c r="B69" s="52" t="str">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="50" t="str">
         <f>Sheet2!B119</f>
         <v>C.9.4.a.3</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C68" s="72">
         <f>Sheet2!C119</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="80"/>
-      <c r="B70" s="52" t="str">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="131"/>
+      <c r="B69" s="50" t="str">
         <f>Sheet2!B120</f>
         <v>C.9.4.a.4</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C69" s="72">
         <f>Sheet2!C120</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="80"/>
-      <c r="B71" s="52" t="str">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="131"/>
+      <c r="B70" s="50" t="str">
         <f>Sheet2!B121</f>
         <v>C.9.4.a.5</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C70" s="72">
         <f>Sheet2!C121</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="80"/>
-      <c r="B72" s="52" t="str">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="131"/>
+      <c r="B71" s="50" t="str">
         <f>Sheet2!B122</f>
         <v>C.9.4.a.6</v>
       </c>
-      <c r="C72" s="74">
+      <c r="C71" s="72">
         <f>Sheet2!C122</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="80"/>
-      <c r="B73" s="52" t="str">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="131"/>
+      <c r="B72" s="50" t="str">
         <f>Sheet2!B123</f>
         <v>C.9.4.a.7</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C72" s="72">
         <f>Sheet2!C123</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="80"/>
-      <c r="B74" s="52" t="str">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" s="131"/>
+      <c r="B73" s="50" t="str">
         <f>Sheet2!B124</f>
         <v>C.9.4.a.8</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C73" s="72">
         <f>Sheet2!C124</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="80"/>
-      <c r="B75" s="52" t="str">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" s="131"/>
+      <c r="B74" s="50" t="str">
         <f>Sheet2!B125</f>
         <v>C.9.4.a.9</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C74" s="72">
         <f>Sheet2!C125</f>
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="80"/>
-      <c r="B76" s="52" t="str">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A75" s="131"/>
+      <c r="B75" s="50" t="str">
         <f>Sheet2!B126</f>
         <v>C.9.4.a.10</v>
       </c>
-      <c r="C76" s="74">
+      <c r="C75" s="72">
         <f>Sheet2!C126</f>
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="80"/>
-      <c r="B77" s="52" t="str">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A76" s="131"/>
+      <c r="B76" s="50" t="str">
         <f>Sheet2!B127</f>
         <v>C.9.4.a.11</v>
       </c>
-      <c r="C77" s="74">
+      <c r="C76" s="72">
         <f>Sheet2!C127</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="80"/>
-      <c r="B78" s="52" t="str">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A77" s="131"/>
+      <c r="B77" s="50" t="str">
         <f>Sheet2!B128</f>
         <v>C.9.4.a.12</v>
       </c>
-      <c r="C78" s="74">
+      <c r="C77" s="72">
         <f>Sheet2!C128</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A79" s="80"/>
-      <c r="B79" s="52" t="str">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A78" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="50" t="str">
         <f>Sheet2!B129</f>
         <v>C.9.4.b</v>
       </c>
-      <c r="C79" s="74">
+      <c r="C78" s="72">
         <f>Sheet2!C129</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="80"/>
-      <c r="B80" s="52">
-        <f>Sheet2!B130</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="74">
-        <f>Sheet2!C130</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="80" t="str">
-        <f>Sheet2!$A$133</f>
-        <v>D. Analisis dan Penetapan Program Pengembangan</v>
-      </c>
-      <c r="B81" s="52" t="str">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A79" s="103" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" s="50" t="str">
         <f>Sheet2!B134</f>
         <v>D.1</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C79" s="72">
         <f>Sheet2!C134</f>
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="80"/>
-      <c r="B82" s="52" t="str">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A80" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="50" t="str">
         <f>Sheet2!B135</f>
         <v>D.2</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C80" s="72">
         <f>Sheet2!C135</f>
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A83" s="80"/>
-      <c r="B83" s="52" t="str">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" s="50" t="str">
         <f>Sheet2!B136</f>
         <v>D.3</v>
       </c>
-      <c r="C83" s="74">
+      <c r="C81" s="72">
         <f>Sheet2!C136</f>
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A84" s="80"/>
-      <c r="B84" s="52" t="str">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A82" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" s="50" t="str">
         <f>Sheet2!B137</f>
         <v>D.4</v>
       </c>
-      <c r="C84" s="74">
+      <c r="C82" s="72">
         <f>Sheet2!C137</f>
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A85" s="80"/>
-      <c r="B85" s="52" t="s">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B83" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="74">
-        <f>SUM(C1:C84)</f>
+      <c r="C83" s="72">
+        <f>SUM(C1:C82)</f>
         <v>151</v>
       </c>
     </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="86" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="87" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="88" spans="1:3" ht="15.75" customHeight="1"/>
@@ -15305,10 +14725,8 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/files/ED_Template.xlsx
+++ b/public/files/ED_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data dummy\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3DA5C-4D2A-4813-818D-74504E4289C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C6AA6-2500-418B-9176-758099EC7FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgFJ/W62q1qIxVPNtMeVgT2IVX8Pg=="/>
     </ext>
@@ -2077,7 +2088,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="254">
   <si>
     <t>C. Kriteria</t>
   </si>
@@ -2119,9 +2130,6 @@
   </si>
   <si>
     <t xml:space="preserve">Konsistensi dengan hasil analisis SWOT dan/atau analisis lain serta rencana pengembangan ke depan. </t>
-  </si>
-  <si>
-    <t>Link</t>
   </si>
   <si>
     <t>Konsistensi dengan hasil analisis SWOT dan/atau analisis lain serta rencana pengembangan ke depan.</t>
@@ -3066,18 +3074,6 @@
   </si>
   <si>
     <t>C.9.4.a) Luaran Dharma Pendidikan</t>
-  </si>
-  <si>
-    <t>https://laravel.com/</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1rNzkOGzTrsoxc5WXwpAXS2apYx_bgyUO/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/147i69umsIxxQXSWNhlRV6gB69la4P4fZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1tiR3DD3C6IbqLf3-CJnzLg-IFLFxWRSm/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -3871,11 +3867,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5975,8 +5971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -6044,29 +6040,25 @@
       <c r="D3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="126">
-        <v>4</v>
-      </c>
+      <c r="E3" s="126"/>
       <c r="F3" s="127" t="str">
         <f>IF(E3="","",IF(E3=4,"Sangat Baik",IF(AND(E3&gt;=3,E3&lt;4),"Baik",IF(AND(E3&gt;=2,E3&lt;3),"cukup",IF(AND(E3&gt;=1,E3&lt;2),"Kurang",IF(AND(E3&gt;=0,E3&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G3" s="117">
         <v>1</v>
       </c>
-      <c r="H3" s="128">
+      <c r="H3" s="128" t="str">
         <f>IFERROR((AVERAGE(E3)*G3),"")</f>
-        <v>4</v>
-      </c>
-      <c r="I3" s="137" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -6077,7 +6069,7 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="129" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="91"/>
@@ -6120,31 +6112,27 @@
         <v>2</v>
       </c>
       <c r="B7" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="D7" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="114" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="126">
-        <v>3</v>
-      </c>
+      <c r="E7" s="126"/>
       <c r="F7" s="127" t="str">
         <f>IF(E7="","",IF(E7=4,"Sangat Baik",IF(AND(E7&gt;=3,E7&lt;4),"Baik",IF(AND(E7&gt;=2,E7&lt;3),"cukup",IF(AND(E7&gt;=1,E7&lt;2),"Kurang",IF(AND(E7&gt;=0,E7&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G7" s="117">
         <v>1</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="128" t="str">
         <f>IFERROR((AVERAGE(E7)*G7),"")</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="128" t="s">
-        <v>255</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I7" s="128"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="89"/>
@@ -6215,89 +6203,77 @@
         <v>3</v>
       </c>
       <c r="B12" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="D12" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="85">
-        <v>4</v>
-      </c>
+      <c r="E12" s="85"/>
       <c r="F12" s="86" t="str">
         <f t="shared" ref="F12:F14" si="0">IF(E12="","",IF(E12=4,"Sangat Baik",IF(AND(E12&gt;=3,E12&lt;4),"Baik",IF(AND(E12&gt;=2,E12&lt;3),"cukup",IF(AND(E12&gt;=1,E12&lt;2),"Kurang",IF(AND(E12&gt;=0,E12&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G12" s="87">
         <v>0.51</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="88" t="str">
         <f t="shared" ref="H12:H14" si="1">IFERROR((AVERAGE(E12)*G12),"")</f>
-        <v>2.04</v>
-      </c>
-      <c r="I12" s="138" t="s">
-        <v>256</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I12" s="138"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="22">
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="23">
-        <v>4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G13" s="13">
         <v>1.02</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>4.08</v>
-      </c>
-      <c r="I13" s="139" t="s">
-        <v>257</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I13" s="139"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="22">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="23">
-        <v>4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G14" s="13">
         <v>1.53</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>6.12</v>
-      </c>
-      <c r="I14" s="140" t="s">
-        <v>258</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I14" s="140"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="27"/>
@@ -6315,15 +6291,15 @@
       <c r="B16" s="28"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="29">
+        <v>26</v>
+      </c>
+      <c r="E16" s="29" t="str">
         <f>IFERROR(AVERAGE(E12:E14),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F16" s="24" t="str">
         <f>IF(E16="","",IF(E16=4,"Sangat Baik",IF(AND(E16&gt;=3,E16&lt;4),"Baik",IF(AND(E16&gt;=2,E16&lt;3),"cukup",IF(AND(E16&gt;=1,E16&lt;2),"Kurang",IF(AND(E16&gt;=0,E16&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -6334,7 +6310,7 @@
       <c r="B17" s="28"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="24"/>
@@ -6344,7 +6320,7 @@
       </c>
       <c r="H17" s="13">
         <f>SUM(H12:H14)</f>
-        <v>12.24</v>
+        <v>0</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -6361,7 +6337,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -6404,158 +6380,138 @@
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="D21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="23">
-        <v>4</v>
-      </c>
+      <c r="E21" s="23"/>
       <c r="F21" s="32" t="str">
         <f t="shared" ref="F21:F31" si="2">IF(E21="","",IF(E21=4,"Sangat Baik",IF(AND(E21&gt;=3,E21&lt;4),"Baik",IF(AND(E21&gt;=2,E21&lt;3),"cukup",IF(AND(E21&gt;=1,E21&lt;2),"Kurang",IF(AND(E21&gt;=0,E21&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G21" s="13">
         <v>0.34</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="13" t="str">
         <f t="shared" ref="H21:H31" si="3">IFERROR((AVERAGE(E21)*G21),"")</f>
-        <v>1.36</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="143"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="144"/>
+      <c r="D22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="23">
-        <v>4</v>
-      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G22" s="13">
         <v>0.34</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.36</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
       <c r="A23" s="142">
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="144" t="s">
+      <c r="D23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="23">
-        <v>4</v>
-      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G23" s="13">
         <v>0.34</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.36</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="1:9" ht="126.75" customHeight="1">
-      <c r="A24" s="143"/>
+      <c r="A24" s="144"/>
       <c r="B24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="144"/>
+      <c r="D24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="23">
-        <v>4</v>
-      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G24" s="13">
         <v>0.34</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>1.36</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="1:9" ht="157.5" customHeight="1">
       <c r="A25" s="14">
         <v>8</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="D25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="23">
-        <v>4</v>
-      </c>
+      <c r="E25" s="23"/>
       <c r="F25" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G25" s="13">
         <v>0.68</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>2.72</v>
-      </c>
-      <c r="I25" s="122" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:9" ht="57.75" customHeight="1">
       <c r="A26" s="142">
         <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="143"/>
+      <c r="D26" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24" t="str">
@@ -6569,63 +6525,55 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="80" t="s">
-        <v>14</v>
-      </c>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="143"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="144"/>
+      <c r="D27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
+      <c r="E27" s="23"/>
       <c r="F27" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>cukup</v>
+        <v/>
       </c>
       <c r="G27" s="13">
         <v>0.34</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>0.68</v>
-      </c>
-      <c r="I27" s="79" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="14">
         <v>10</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="23">
-        <v>3</v>
-      </c>
+      <c r="E28" s="23"/>
       <c r="F28" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G28" s="13">
         <v>0.68</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>2.04</v>
+        <v/>
       </c>
       <c r="I28" s="34"/>
     </row>
@@ -6634,44 +6582,40 @@
         <v>11</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="23">
-        <v>3</v>
-      </c>
+      <c r="E29" s="23"/>
       <c r="F29" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G29" s="13">
         <v>1.02</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>3.06</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="14">
         <v>12</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="D30" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24" t="str">
@@ -6685,40 +6629,34 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="251.25" customHeight="1">
       <c r="A31" s="14">
         <v>13</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="23">
-        <v>4</v>
-      </c>
+      <c r="E31" s="23"/>
       <c r="F31" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G31" s="13">
         <v>1.36</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="13" t="str">
         <f t="shared" si="3"/>
-        <v>5.44</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="14"/>
@@ -6736,15 +6674,15 @@
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="29">
+        <v>26</v>
+      </c>
+      <c r="E33" s="29" t="str">
         <f>IFERROR(AVERAGE(E21:E31),"")</f>
-        <v>3.5555555555555554</v>
+        <v/>
       </c>
       <c r="F33" s="24" t="str">
         <f>IF(E33="","",IF(E33=4,"Sangat Baik",IF(AND(E33&gt;=3,E33&lt;4),"Baik",IF(AND(E33&gt;=2,E33&lt;3),"cukup",IF(AND(E33&gt;=1,E33&lt;2),"Kurang",IF(AND(E33&gt;=0,E33&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -6755,7 +6693,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="33"/>
@@ -6765,7 +6703,7 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" si="4"/>
-        <v>19.38</v>
+        <v>0</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -6782,7 +6720,7 @@
     </row>
     <row r="36" spans="1:9" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -6825,27 +6763,25 @@
         <v>14</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="D38" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="141">
-        <v>4</v>
-      </c>
+      <c r="E38" s="141"/>
       <c r="F38" s="24" t="str">
         <f t="shared" ref="F38:F39" si="5">IF(E38="","",IF(E38=4,"Sangat Baik",IF(AND(E38&gt;=3,E38&lt;4),"Baik",IF(AND(E38&gt;=2,E38&lt;3),"cukup",IF(AND(E38&gt;=1,E38&lt;2),"Kurang",IF(AND(E38&gt;=0,E38&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G38" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="13" t="str">
         <f t="shared" ref="H38:H39" si="6">IFERROR((AVERAGE(E38)*G38),"")</f>
-        <v>18.399999999999999</v>
+        <v/>
       </c>
       <c r="I38" s="13"/>
     </row>
@@ -6854,42 +6790,38 @@
         <v>15</v>
       </c>
       <c r="B39" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="D39" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="141">
-        <v>4</v>
-      </c>
+      <c r="E39" s="141"/>
       <c r="F39" s="24" t="str">
         <f t="shared" si="5"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G39" s="13">
         <v>3.07</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>12.28</v>
+        <v/>
       </c>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="143"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="144"/>
+      <c r="D40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="141">
-        <v>2</v>
-      </c>
+      <c r="E40" s="141"/>
       <c r="F40" s="24"/>
       <c r="G40" s="13">
         <v>3.07</v>
@@ -6902,38 +6834,36 @@
         <v>16</v>
       </c>
       <c r="B41" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="D41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="141">
-        <v>4</v>
-      </c>
+      <c r="E41" s="141"/>
       <c r="F41" s="24" t="str">
         <f t="shared" ref="F41:F42" si="7">IF(E41="","",IF(E41=4,"Sangat Baik",IF(AND(E41&gt;=3,E41&lt;4),"Baik",IF(AND(E41&gt;=2,E41&lt;3),"cukup",IF(AND(E41&gt;=1,E41&lt;2),"Kurang",IF(AND(E41&gt;=0,E41&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G41" s="13">
         <v>1.53</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="13" t="str">
         <f t="shared" ref="H41:H42" si="8">IFERROR((AVERAGE(E41)*G41),"")</f>
-        <v>6.12</v>
+        <v/>
       </c>
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A42" s="143"/>
+      <c r="A42" s="144"/>
       <c r="B42" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="144"/>
+      <c r="D42" s="41" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="41" t="s">
-        <v>72</v>
       </c>
       <c r="E42" s="141"/>
       <c r="F42" s="24" t="str">
@@ -6965,15 +6895,15 @@
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="29">
+        <v>26</v>
+      </c>
+      <c r="E44" s="29" t="str">
         <f>IFERROR(AVERAGE(E38:E42),"")</f>
-        <v>3.5</v>
+        <v/>
       </c>
       <c r="F44" s="24" t="str">
         <f>IF(E44="","",IF(E44=4,"Sangat Baik",IF(AND(E44&gt;=3,E44&lt;4),"Baik",IF(AND(E44&gt;=2,E44&lt;3),"cukup",IF(AND(E44&gt;=1,E44&lt;2),"Kurang",IF(AND(E44&gt;=0,E44&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -6984,7 +6914,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="33"/>
@@ -6994,7 +6924,7 @@
       </c>
       <c r="H45" s="13">
         <f t="shared" si="9"/>
-        <v>36.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="I45" s="13"/>
     </row>
@@ -7011,7 +6941,7 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="3"/>
@@ -7054,27 +6984,25 @@
         <v>17</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="23">
-        <v>3</v>
-      </c>
+      <c r="E49" s="23"/>
       <c r="F49" s="24" t="str">
         <f t="shared" ref="F49:F64" si="10">IF(E49="","",IF(E49=4,"Sangat Baik",IF(AND(E49&gt;=3,E49&lt;4),"Baik",IF(AND(E49&gt;=2,E49&lt;3),"cukup",IF(AND(E49&gt;=1,E49&lt;2),"Kurang",IF(AND(E49&gt;=0,E49&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G49" s="13">
         <v>0.74</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="13" t="str">
         <f t="shared" ref="H49:H64" si="11">IFERROR((AVERAGE(E49)*G49),"")</f>
-        <v>2.2199999999999998</v>
+        <v/>
       </c>
       <c r="I49" s="13"/>
     </row>
@@ -7083,11 +7011,11 @@
         <v>18</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24" t="str">
@@ -7108,11 +7036,11 @@
         <v>19</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="24" t="str">
@@ -7133,11 +7061,11 @@
         <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24" t="str">
@@ -7158,11 +7086,11 @@
         <v>21</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="24" t="str">
@@ -7183,11 +7111,11 @@
         <v>22</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24" t="str">
@@ -7208,11 +7136,11 @@
         <v>23</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24" t="str">
@@ -7233,13 +7161,13 @@
         <v>24</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="D56" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24" t="str">
@@ -7260,11 +7188,11 @@
         <v>25</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24" t="str">
@@ -7285,11 +7213,11 @@
         <v>26</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="24" t="str">
@@ -7310,11 +7238,11 @@
         <v>27</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24" t="str">
@@ -7335,11 +7263,11 @@
         <v>28</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24" t="str">
@@ -7360,11 +7288,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="24" t="str">
@@ -7385,27 +7313,25 @@
         <v>30</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="D62" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="23">
-        <v>4</v>
-      </c>
+      <c r="E62" s="23"/>
       <c r="F62" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G62" s="13">
         <v>2.23</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>8.92</v>
+        <v/>
       </c>
       <c r="I62" s="13"/>
     </row>
@@ -7414,52 +7340,48 @@
         <v>31</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="D63" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" s="23">
-        <v>4</v>
-      </c>
+      <c r="E63" s="23"/>
       <c r="F63" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G63" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>4.4800000000000004</v>
+        <v/>
       </c>
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="82.5" customHeight="1">
       <c r="A64" s="14"/>
       <c r="B64" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" s="23">
-        <v>4</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E64" s="23"/>
       <c r="F64" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G64" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>4.4800000000000004</v>
+        <v/>
       </c>
       <c r="I64" s="13"/>
     </row>
@@ -7479,15 +7401,15 @@
       <c r="B66" s="15"/>
       <c r="C66" s="16"/>
       <c r="D66" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="29">
+        <v>26</v>
+      </c>
+      <c r="E66" s="29" t="str">
         <f>IFERROR(AVERAGE(E49:E64),"")</f>
-        <v>3.75</v>
+        <v/>
       </c>
       <c r="F66" s="24" t="str">
         <f>IF(E66="","",IF(E66=4,"Sangat Baik",IF(AND(E66&gt;=3,E66&lt;4),"Baik",IF(AND(E66&gt;=2,E66&lt;3),"cukup",IF(AND(E66&gt;=1,E66&lt;2),"Kurang",IF(AND(E66&gt;=0,E66&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -7498,7 +7420,7 @@
       <c r="B67" s="15"/>
       <c r="C67" s="16"/>
       <c r="D67" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="33"/>
@@ -7508,7 +7430,7 @@
       </c>
       <c r="H67" s="13">
         <f t="shared" si="12"/>
-        <v>20.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I67" s="13"/>
     </row>
@@ -7525,7 +7447,7 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B69" s="43"/>
       <c r="C69" s="3"/>
@@ -7568,13 +7490,13 @@
         <v>32</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="D71" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24" t="str">
@@ -7595,25 +7517,23 @@
         <v>33</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="23">
-        <v>3</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E72" s="23"/>
       <c r="F72" s="24" t="str">
         <f t="shared" si="13"/>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G72" s="13">
         <v>0.77</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="13" t="str">
         <f t="shared" si="14"/>
-        <v>2.31</v>
+        <v/>
       </c>
       <c r="I72" s="13"/>
     </row>
@@ -7622,11 +7542,11 @@
         <v>34</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="24" t="str">
@@ -7647,11 +7567,11 @@
         <v>35</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="24" t="str">
@@ -7672,11 +7592,11 @@
         <v>36</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="24" t="str">
@@ -7697,13 +7617,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="D76" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>124</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="24" t="str">
@@ -7735,15 +7655,15 @@
       <c r="B78" s="15"/>
       <c r="C78" s="16"/>
       <c r="D78" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="29">
+        <v>26</v>
+      </c>
+      <c r="E78" s="29" t="str">
         <f>IFERROR(AVERAGE(E71:E76),"")</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="F78" s="24" t="str">
         <f>IF(E78="","",IF(E78=4,"Sangat Baik",IF(AND(E78&gt;=3,E78&lt;4),"Baik",IF(AND(E78&gt;=2,E78&lt;3),"cukup",IF(AND(E78&gt;=1,E78&lt;2),"Kurang",IF(AND(E78&gt;=0,E78&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Baik</v>
+        <v/>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -7754,7 +7674,7 @@
       <c r="B79" s="15"/>
       <c r="C79" s="16"/>
       <c r="D79" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="33"/>
@@ -7764,7 +7684,7 @@
       </c>
       <c r="H79" s="13">
         <f t="shared" si="15"/>
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="I79" s="13"/>
     </row>
@@ -7781,7 +7701,7 @@
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="43"/>
       <c r="C81" s="3"/>
@@ -7827,63 +7747,59 @@
         <v>38</v>
       </c>
       <c r="B83" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="D83" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="23">
-        <v>4</v>
-      </c>
+      <c r="E83" s="23"/>
       <c r="F83" s="24" t="str">
         <f t="shared" ref="F83:F90" si="17">IF(E83="","",IF(E83=4,"Sangat Baik",IF(AND(E83&gt;=3,E83&lt;4),"Baik",IF(AND(E83&gt;=2,E83&lt;3),"cukup",IF(AND(E83&gt;=1,E83&lt;2),"Kurang",IF(AND(E83&gt;=0,E83&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G83" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="13" t="str">
         <f t="shared" si="16"/>
-        <v>10.039999999999999</v>
+        <v/>
       </c>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A84" s="145"/>
+      <c r="A84" s="143"/>
       <c r="B84" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" s="23">
-        <v>4</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E84" s="23"/>
       <c r="F84" s="24" t="str">
         <f t="shared" si="17"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G84" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="13" t="str">
         <f t="shared" si="16"/>
-        <v>10.039999999999999</v>
+        <v/>
       </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A85" s="143"/>
+      <c r="A85" s="144"/>
       <c r="B85" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="24" t="str">
@@ -7904,13 +7820,13 @@
         <v>39</v>
       </c>
       <c r="B86" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="D86" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="24" t="str">
@@ -7931,38 +7847,36 @@
         <v>40</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="D87" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="23">
-        <v>4</v>
-      </c>
+      <c r="E87" s="23"/>
       <c r="F87" s="24" t="str">
         <f t="shared" si="17"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G87" s="13">
         <v>1.67</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H87" s="13" t="str">
         <f t="shared" si="16"/>
-        <v>6.68</v>
+        <v/>
       </c>
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" s="143"/>
+      <c r="A88" s="144"/>
       <c r="B88" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="24" t="str">
@@ -7983,38 +7897,36 @@
         <v>41</v>
       </c>
       <c r="B89" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="D89" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="23">
-        <v>4</v>
-      </c>
+      <c r="E89" s="23"/>
       <c r="F89" s="24" t="str">
         <f t="shared" si="17"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G89" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H89" s="13" t="str">
         <f t="shared" si="16"/>
-        <v>4.4800000000000004</v>
+        <v/>
       </c>
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A90" s="145"/>
+      <c r="A90" s="143"/>
       <c r="B90" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="24" t="str">
@@ -8031,13 +7943,13 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="208.5" customHeight="1">
-      <c r="A91" s="145"/>
+      <c r="A91" s="143"/>
       <c r="B91" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="24"/>
@@ -8048,13 +7960,13 @@
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A92" s="145"/>
+      <c r="A92" s="143"/>
       <c r="B92" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="24" t="str">
@@ -8071,13 +7983,13 @@
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A93" s="143"/>
+      <c r="A93" s="144"/>
       <c r="B93" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="24" t="str">
@@ -8100,7 +8012,7 @@
       <c r="B94" s="40"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="24" t="str">
@@ -8121,13 +8033,13 @@
         <v>43</v>
       </c>
       <c r="B95" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="D95" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="24" t="str">
@@ -8148,13 +8060,13 @@
         <v>44</v>
       </c>
       <c r="B96" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C96" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="D96" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="D96" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="24" t="str">
@@ -8173,11 +8085,11 @@
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="24" t="str">
@@ -8196,11 +8108,11 @@
     <row r="98" spans="1:9" ht="220.5" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="24" t="str">
@@ -8221,13 +8133,13 @@
         <v>45</v>
       </c>
       <c r="B99" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="D99" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="24" t="str">
@@ -8248,13 +8160,13 @@
         <v>46</v>
       </c>
       <c r="B100" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C100" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="D100" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="24" t="str">
@@ -8275,52 +8187,48 @@
         <v>47</v>
       </c>
       <c r="B101" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="D101" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" s="23">
-        <v>4</v>
-      </c>
+      <c r="E101" s="23"/>
       <c r="F101" s="24" t="str">
         <f t="shared" si="18"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G101" s="13">
         <v>3.35</v>
       </c>
-      <c r="H101" s="13">
+      <c r="H101" s="13" t="str">
         <f t="shared" si="19"/>
-        <v>13.4</v>
+        <v/>
       </c>
       <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E102" s="23">
-        <v>4</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E102" s="23"/>
       <c r="F102" s="24" t="str">
         <f t="shared" si="18"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G102" s="13">
         <v>3.35</v>
       </c>
-      <c r="H102" s="13">
+      <c r="H102" s="13" t="str">
         <f t="shared" si="19"/>
-        <v>13.4</v>
+        <v/>
       </c>
       <c r="I102" s="13"/>
     </row>
@@ -8340,15 +8248,15 @@
       <c r="B104" s="15"/>
       <c r="C104" s="16"/>
       <c r="D104" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E104" s="29">
+        <v>26</v>
+      </c>
+      <c r="E104" s="29" t="str">
         <f>IFERROR(AVERAGE(E83:E102),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F104" s="24" t="str">
         <f>IF(E104="","",IF(E104=4,"Sangat Baik",IF(AND(E104&gt;=3,E104&lt;4),"Baik",IF(AND(E104&gt;=2,E104&lt;3),"cukup",IF(AND(E104&gt;=1,E104&lt;2),"Kurang",IF(AND(E104&gt;=0,E104&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -8359,7 +8267,7 @@
       <c r="B105" s="15"/>
       <c r="C105" s="16"/>
       <c r="D105" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="33"/>
@@ -8369,7 +8277,7 @@
       </c>
       <c r="H105" s="13">
         <f t="shared" si="20"/>
-        <v>58.04</v>
+        <v>0</v>
       </c>
       <c r="I105" s="13"/>
     </row>
@@ -8386,7 +8294,7 @@
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -8429,27 +8337,25 @@
         <v>48</v>
       </c>
       <c r="B109" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C109" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="D109" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E109" s="141">
-        <v>4</v>
-      </c>
+      <c r="E109" s="141"/>
       <c r="F109" s="24" t="str">
         <f>IF(E109="","",IF(E109=4,"Sangat Baik",IF(AND(E109&gt;=3,E109&lt;4),"Baik",IF(AND(E109&gt;=2,E109&lt;3),"cukup",IF(AND(E109&gt;=1,E109&lt;2),"Kurang",IF(AND(E109&gt;=0,E109&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G109" s="13">
         <v>1.53</v>
       </c>
-      <c r="H109" s="13">
+      <c r="H109" s="13" t="str">
         <f>IFERROR((AVERAGE(E109)*G109),"")</f>
-        <v>6.12</v>
+        <v/>
       </c>
       <c r="I109" s="13"/>
     </row>
@@ -8458,13 +8364,13 @@
         <v>49</v>
       </c>
       <c r="B110" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="D110" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="E110" s="141"/>
       <c r="F110" s="24"/>
@@ -8490,15 +8396,15 @@
       <c r="B112" s="15"/>
       <c r="C112" s="16"/>
       <c r="D112" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E112" s="29">
+        <v>26</v>
+      </c>
+      <c r="E112" s="29" t="str">
         <f>IFERROR(AVERAGE(E109),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F112" s="24" t="str">
         <f>IF(E112="","",IF(E112=4,"Sangat Baik",IF(AND(E112&gt;=3,E112&lt;4),"Baik",IF(AND(E112&gt;=2,E112&lt;3),"cukup",IF(AND(E112&gt;=1,E112&lt;2),"Kurang",IF(AND(E112&gt;=0,E112&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
@@ -8509,7 +8415,7 @@
       <c r="B113" s="15"/>
       <c r="C113" s="16"/>
       <c r="D113" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113" s="29"/>
       <c r="F113" s="33"/>
@@ -8519,7 +8425,7 @@
       </c>
       <c r="H113" s="13">
         <f t="shared" si="21"/>
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="I113" s="13"/>
     </row>
@@ -8536,7 +8442,7 @@
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B115" s="31"/>
       <c r="C115" s="3"/>
@@ -8579,27 +8485,25 @@
         <v>50</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C117" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="D117" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="D117" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E117" s="23">
-        <v>4</v>
-      </c>
+      <c r="E117" s="23"/>
       <c r="F117" s="24" t="str">
         <f t="shared" ref="F117:F118" si="22">IF(E117="","",IF(E117=4,"Sangat Baik",IF(AND(E117&gt;=3,E117&lt;4),"Baik",IF(AND(E117&gt;=2,E117&lt;3),"cukup",IF(AND(E117&gt;=1,E117&lt;2),"Kurang",IF(AND(E117&gt;=0,E117&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G117" s="13">
         <v>0.51</v>
       </c>
-      <c r="H117" s="13">
+      <c r="H117" s="13" t="str">
         <f t="shared" ref="H117:H118" si="23">IFERROR((AVERAGE(E117)*G117),"")</f>
-        <v>2.04</v>
+        <v/>
       </c>
       <c r="I117" s="13"/>
     </row>
@@ -8608,27 +8512,25 @@
         <v>51</v>
       </c>
       <c r="B118" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="D118" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D118" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E118" s="23">
-        <v>4</v>
-      </c>
+      <c r="E118" s="23"/>
       <c r="F118" s="24" t="str">
         <f t="shared" si="22"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G118" s="13">
         <v>1.02</v>
       </c>
-      <c r="H118" s="13">
+      <c r="H118" s="13" t="str">
         <f t="shared" si="23"/>
-        <v>4.08</v>
+        <v/>
       </c>
       <c r="I118" s="13"/>
     </row>
@@ -8648,15 +8550,15 @@
       <c r="B120" s="15"/>
       <c r="C120" s="16"/>
       <c r="D120" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E120" s="29">
+        <v>26</v>
+      </c>
+      <c r="E120" s="29" t="str">
         <f>IFERROR(AVERAGE(E117:E118),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F120" s="24" t="str">
         <f>IF(E120="","",IF(E120=4,"Sangat Baik",IF(AND(E120&gt;=3,E120&lt;4),"Baik",IF(AND(E120&gt;=2,E120&lt;3),"cukup",IF(AND(E120&gt;=1,E120&lt;2),"Kurang",IF(AND(E120&gt;=0,E120&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
@@ -8667,7 +8569,7 @@
       <c r="B121" s="15"/>
       <c r="C121" s="16"/>
       <c r="D121" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="33"/>
@@ -8677,7 +8579,7 @@
       </c>
       <c r="H121" s="13">
         <f t="shared" si="24"/>
-        <v>6.12</v>
+        <v>0</v>
       </c>
       <c r="I121" s="13"/>
     </row>
@@ -8694,7 +8596,7 @@
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B123" s="31"/>
       <c r="C123" s="3"/>
@@ -8737,27 +8639,25 @@
         <v>52</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="D125" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D125" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E125" s="23">
-        <v>4</v>
-      </c>
+      <c r="E125" s="23"/>
       <c r="F125" s="24" t="str">
         <f t="shared" ref="F125:F138" si="25">IF(E125="","",IF(E125=4,"Sangat Baik",IF(AND(E125&gt;=3,E125&lt;4),"Baik",IF(AND(E125&gt;=2,E125&lt;3),"cukup",IF(AND(E125&gt;=1,E125&lt;2),"Kurang",IF(AND(E125&gt;=0,E125&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G125" s="13">
         <v>1.92</v>
       </c>
-      <c r="H125" s="13">
+      <c r="H125" s="13" t="str">
         <f t="shared" ref="H125:H138" si="26">IFERROR((AVERAGE(E125)*G125),"")</f>
-        <v>7.68</v>
+        <v/>
       </c>
       <c r="I125" s="13"/>
     </row>
@@ -8766,25 +8666,23 @@
         <v>53</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E126" s="23">
-        <v>4</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="E126" s="23"/>
       <c r="F126" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G126" s="13">
         <v>1.92</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="13" t="str">
         <f t="shared" si="26"/>
-        <v>7.68</v>
+        <v/>
       </c>
       <c r="I126" s="13"/>
     </row>
@@ -8793,11 +8691,11 @@
         <v>54</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E127" s="23"/>
       <c r="F127" s="24" t="str">
@@ -8818,11 +8716,11 @@
         <v>55</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E128" s="23"/>
       <c r="F128" s="24" t="str">
@@ -8843,11 +8741,11 @@
         <v>56</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E129" s="23"/>
       <c r="F129" s="24" t="str">
@@ -8868,11 +8766,11 @@
         <v>57</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E130" s="23"/>
       <c r="F130" s="24" t="str">
@@ -8893,11 +8791,11 @@
         <v>58</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E131" s="23"/>
       <c r="F131" s="24" t="str">
@@ -8918,11 +8816,11 @@
         <v>59</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E132" s="23"/>
       <c r="F132" s="24" t="str">
@@ -8943,25 +8841,23 @@
         <v>60</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="E133" s="23">
-        <v>4</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E133" s="23"/>
       <c r="F133" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G133" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="H133" s="13">
+        <v>207</v>
+      </c>
+      <c r="H133" s="13" t="str">
         <f t="shared" si="26"/>
-        <v>11.52</v>
+        <v/>
       </c>
       <c r="I133" s="13"/>
     </row>
@@ -8970,25 +8866,23 @@
         <v>61</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E134" s="23">
-        <v>4</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E134" s="23"/>
       <c r="F134" s="24" t="str">
         <f t="shared" si="25"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G134" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H134" s="13">
+        <v>210</v>
+      </c>
+      <c r="H134" s="13" t="str">
         <f t="shared" si="26"/>
-        <v>7.68</v>
+        <v/>
       </c>
       <c r="I134" s="13"/>
     </row>
@@ -8997,11 +8891,11 @@
         <v>62</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E135" s="23"/>
       <c r="F135" s="24" t="str">
@@ -9022,11 +8916,11 @@
         <v>63</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="24" t="str">
@@ -9047,13 +8941,13 @@
         <v>64</v>
       </c>
       <c r="B137" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C137" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="D137" s="16" t="s">
         <v>217</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>218</v>
       </c>
       <c r="E137" s="23"/>
       <c r="F137" s="24" t="str">
@@ -9076,7 +8970,7 @@
       <c r="B138" s="15"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E138" s="23"/>
       <c r="F138" s="24" t="str">
@@ -9108,15 +9002,15 @@
       <c r="B140" s="15"/>
       <c r="C140" s="16"/>
       <c r="D140" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E140" s="29">
+        <v>26</v>
+      </c>
+      <c r="E140" s="29" t="str">
         <f>IFERROR(AVERAGE(E125:E137),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F140" s="24" t="str">
         <f>IF(E140="","",IF(E140=4,"Sangat Baik",IF(AND(E140&gt;=3,E140&lt;4),"Baik",IF(AND(E140&gt;=2,E140&lt;3),"cukup",IF(AND(E140&gt;=1,E140&lt;2),"Kurang",IF(AND(E140&gt;=0,E140&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
@@ -9127,7 +9021,7 @@
       <c r="B141" s="15"/>
       <c r="C141" s="16"/>
       <c r="D141" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E141" s="29"/>
       <c r="F141" s="33"/>
@@ -9137,7 +9031,7 @@
       </c>
       <c r="H141" s="13">
         <f>SUM(H125:H137)</f>
-        <v>34.56</v>
+        <v>0</v>
       </c>
       <c r="I141" s="13"/>
     </row>
@@ -9154,7 +9048,7 @@
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
@@ -9197,124 +9091,108 @@
         <v>66</v>
       </c>
       <c r="B145" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="C145" s="114" t="s">
+      <c r="D145" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="D145" s="114" t="s">
-        <v>223</v>
-      </c>
-      <c r="E145" s="115">
-        <v>4</v>
-      </c>
+      <c r="E145" s="115"/>
       <c r="F145" s="116" t="str">
         <f t="shared" ref="F145:F148" si="27">IF(E145="","",IF(E145=4,"Sangat Baik",IF(AND(E145&gt;=3,E145&lt;4),"Baik",IF(AND(E145&gt;=2,E145&lt;3),"cukup",IF(AND(E145&gt;=1,E145&lt;2),"Kurang",IF(AND(E145&gt;=0,E145&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G145" s="117">
         <v>1.5</v>
       </c>
-      <c r="H145" s="117">
+      <c r="H145" s="117" t="str">
         <f t="shared" ref="H145:H148" si="28">IFERROR((AVERAGE(E145)*G145),"")</f>
-        <v>6</v>
-      </c>
-      <c r="I145" s="80" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I145" s="80"/>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1">
       <c r="A146" s="112">
         <v>67</v>
       </c>
       <c r="B146" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="C146" s="114" t="s">
+      <c r="D146" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="D146" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="E146" s="115">
-        <v>4</v>
-      </c>
+      <c r="E146" s="115"/>
       <c r="F146" s="116" t="str">
         <f t="shared" si="27"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G146" s="117">
         <v>2</v>
       </c>
-      <c r="H146" s="117">
+      <c r="H146" s="117" t="str">
         <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="I146" s="118" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I146" s="118"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1">
       <c r="A147" s="112">
         <v>68</v>
       </c>
       <c r="B147" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="C147" s="114" t="s">
+      <c r="D147" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="D147" s="114" t="s">
-        <v>229</v>
-      </c>
-      <c r="E147" s="115">
-        <v>4</v>
-      </c>
+      <c r="E147" s="115"/>
       <c r="F147" s="116" t="str">
         <f t="shared" si="27"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G147" s="117">
         <v>1.5</v>
       </c>
-      <c r="H147" s="117">
+      <c r="H147" s="117" t="str">
         <f t="shared" si="28"/>
-        <v>6</v>
-      </c>
-      <c r="I147" s="118" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I147" s="118"/>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1">
       <c r="A148" s="112">
         <v>69</v>
       </c>
       <c r="B148" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C148" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="C148" s="114" t="s">
+      <c r="D148" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="D148" s="114" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="115">
-        <v>4</v>
-      </c>
+      <c r="E148" s="115"/>
       <c r="F148" s="116" t="str">
         <f t="shared" si="27"/>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G148" s="117">
         <v>1</v>
       </c>
-      <c r="H148" s="117">
+      <c r="H148" s="117" t="str">
         <f t="shared" si="28"/>
-        <v>4</v>
-      </c>
-      <c r="I148" s="118" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I148" s="118"/>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1">
       <c r="A149" s="112"/>
@@ -9332,15 +9210,15 @@
       <c r="B150" s="113"/>
       <c r="C150" s="114"/>
       <c r="D150" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="E150" s="120">
+        <v>26</v>
+      </c>
+      <c r="E150" s="120" t="str">
         <f>IFERROR(AVERAGE(E145:E148),"")</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="F150" s="116" t="str">
         <f>IF(E150="","",IF(E150=4,"Sangat Baik",IF(AND(E150&gt;=3,E150&lt;4),"Baik",IF(AND(E150&gt;=2,E150&lt;3),"cukup",IF(AND(E150&gt;=1,E150&lt;2),"Kurang",IF(AND(E150&gt;=0,E150&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
       <c r="G150" s="117"/>
       <c r="H150" s="117"/>
@@ -9351,7 +9229,7 @@
       <c r="B151" s="113"/>
       <c r="C151" s="114"/>
       <c r="D151" s="119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E151" s="120"/>
       <c r="F151" s="119"/>
@@ -9361,7 +9239,7 @@
       </c>
       <c r="H151" s="117">
         <f t="shared" si="29"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I151" s="117"/>
     </row>
@@ -9373,6 +9251,12 @@
     <protectedRange sqref="G109 I3 I7 I12:I17 I21:I31 I38:I42 I49:I64 I71:I76 I83:I91 I93:I101 I102 I109:I110 I117:I118 I125:I132 I133:I138 I145:I148" name="Range2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A93"/>
@@ -9380,12 +9264,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F49:F57 F2:F5 F7:F10 F38:F44 F35:F36">
     <cfRule type="containsText" dxfId="233" priority="56" operator="containsText" text="cukup">
@@ -10527,29 +10405,9 @@
       <formula>NOT(ISERROR(SEARCH(("Sangat Kurang"),(F144))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="I30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="I145" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I146" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="I147" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I148" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10570,12 +10428,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
       <c r="D1" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="47"/>
@@ -10583,12 +10441,12 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
       <c r="D2" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="49"/>
@@ -10605,14 +10463,14 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="147"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
       <c r="E4" s="148"/>
       <c r="F4" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>6</v>
@@ -10627,13 +10485,13 @@
       <c r="C5" s="56"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="57">
+      <c r="F5" s="57" t="str">
         <f>C30</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="G5" s="58" t="str">
         <f t="shared" ref="G5:G14" si="0">IF(F5="","",IF(F5=4,"Sangat Baik",IF(AND(F5&gt;=3,F5&lt;4),"Baik",IF(AND(F5&gt;=2,F5&lt;3),"cukup",IF(AND(F5&gt;=1,F5&lt;2),"Kurang",IF(AND(F5&gt;=0,F5&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Baik</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -10647,11 +10505,11 @@
       <c r="E6" s="59"/>
       <c r="F6" s="57">
         <f>C46</f>
-        <v>2.9090909090909092</v>
+        <v>0</v>
       </c>
       <c r="G6" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>cukup</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -10665,11 +10523,11 @@
       <c r="E7" s="59"/>
       <c r="F7" s="57">
         <f>C54</f>
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G7" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>cukup</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -10683,7 +10541,7 @@
       <c r="E8" s="61"/>
       <c r="F8" s="57">
         <f>C73</f>
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="G8" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10701,7 +10559,7 @@
       <c r="E9" s="59"/>
       <c r="F9" s="57">
         <f>C82</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G9" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10719,11 +10577,11 @@
       <c r="E10" s="59"/>
       <c r="F10" s="57">
         <f>C104</f>
-        <v>1.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="G10" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Kurang</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
@@ -10737,11 +10595,11 @@
       <c r="E11" s="61"/>
       <c r="F11" s="57">
         <f>C109</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>cukup</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -10755,11 +10613,11 @@
       <c r="E12" s="61"/>
       <c r="F12" s="57">
         <f>C114</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Baik</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -10773,11 +10631,11 @@
       <c r="E13" s="61"/>
       <c r="F13" s="57">
         <f>C131</f>
-        <v>1.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="G13" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Kurang</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -10791,11 +10649,11 @@
       <c r="E14" s="61"/>
       <c r="F14" s="57">
         <f>C138</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Baik</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
@@ -10809,7 +10667,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="147"/>
       <c r="C16" s="147"/>
@@ -10817,11 +10675,11 @@
       <c r="E16" s="148"/>
       <c r="F16" s="64">
         <f>IFERROR(AVERAGE(F5:F14),"")</f>
-        <v>2.3552605946684895</v>
+        <v>0</v>
       </c>
       <c r="G16" s="58" t="str">
         <f>IF(F16="","",IF(F16=4,"Sangat Baik",IF(AND(F16&gt;=3,F16&lt;4),"Baik",IF(AND(F16&gt;=2,F16&lt;3),"cukup",IF(AND(F16&gt;=1,F16&lt;2),"Kurang",IF(AND(F16&gt;=0,F16&lt;1),"Sangat Kurang",""))))))</f>
-        <v>cukup</v>
+        <v>Sangat Kurang</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
@@ -10855,7 +10713,7 @@
       </c>
       <c r="C20" s="52">
         <f>Sheet1!$E$3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
@@ -10872,7 +10730,7 @@
       </c>
       <c r="C23" s="52">
         <f>Sheet1!$E$7</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
@@ -10887,15 +10745,15 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="68" t="str">
         <f>Sheet1!B12</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="69" t="str">
         <f>IF((Sheet1!E12=0),"",Sheet1!E12)</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -10904,9 +10762,9 @@
         <f>Sheet1!B13</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="69" t="str">
         <f>IF((Sheet1!E13=0),"",Sheet1!E13)</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -10915,19 +10773,19 @@
         <f>Sheet1!B14</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="69" t="str">
         <f>IF((Sheet1!E14=0),"",Sheet1!E14)</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="50"/>
       <c r="B30" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="71">
+        <v>238</v>
+      </c>
+      <c r="C30" s="71" t="str">
         <f>IFERROR(AVERAGE(C27:C29),"")</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
@@ -10941,7 +10799,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="50" t="str">
         <f>Sheet1!B21</f>
@@ -10949,7 +10807,7 @@
       </c>
       <c r="C35" s="72">
         <f>Sheet1!E21</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -10959,7 +10817,7 @@
       </c>
       <c r="C36" s="72">
         <f>Sheet1!E22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -10969,7 +10827,7 @@
       </c>
       <c r="C37" s="72">
         <f>Sheet1!E23</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -10979,7 +10837,7 @@
       </c>
       <c r="C38" s="72">
         <f>Sheet1!E24</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -10989,7 +10847,7 @@
       </c>
       <c r="C39" s="72">
         <f>Sheet1!E25</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -11009,7 +10867,7 @@
       </c>
       <c r="C41" s="72">
         <f>Sheet1!E27</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -11019,7 +10877,7 @@
       </c>
       <c r="C42" s="72">
         <f>Sheet1!E28</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -11029,7 +10887,7 @@
       </c>
       <c r="C43" s="72">
         <f>Sheet1!E29</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -11049,16 +10907,16 @@
       </c>
       <c r="C45" s="72">
         <f>Sheet1!E31</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="B46" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" s="74">
         <f>IFERROR(AVERAGE(C35:C45),"")</f>
-        <v>2.9090909090909092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11075,7 +10933,7 @@
       </c>
       <c r="C49" s="72">
         <f>Sheet1!E38</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
@@ -11085,7 +10943,7 @@
       </c>
       <c r="C50" s="72">
         <f>Sheet1!E39</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -11095,7 +10953,7 @@
       </c>
       <c r="C51" s="72">
         <f>Sheet1!E40</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
@@ -11105,7 +10963,7 @@
       </c>
       <c r="C52" s="72">
         <f>Sheet1!E41</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
@@ -11120,11 +10978,11 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="B54" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C54" s="75">
         <f>AVERAGE(C49:C53)</f>
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11141,7 +10999,7 @@
       </c>
       <c r="C57" s="72">
         <f>Sheet1!E49</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
@@ -11271,7 +11129,7 @@
       </c>
       <c r="C70" s="72">
         <f>Sheet1!E62</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
@@ -11281,7 +11139,7 @@
       </c>
       <c r="C71" s="72">
         <f>Sheet1!E63</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
@@ -11291,16 +11149,16 @@
       </c>
       <c r="C72" s="72">
         <f>Sheet1!E64</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="B73" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C73" s="76">
         <f>AVERAGE(C57:C72)</f>
-        <v>0.9375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11327,7 +11185,7 @@
       </c>
       <c r="C77" s="72">
         <f>Sheet1!E72</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
@@ -11372,11 +11230,11 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="B82" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82" s="76">
         <f>AVERAGE(C76:C81)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11393,7 +11251,7 @@
       </c>
       <c r="C85" s="72">
         <f>Sheet1!E83</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
@@ -11403,7 +11261,7 @@
       </c>
       <c r="C86" s="72">
         <f>Sheet1!E84</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
@@ -11433,7 +11291,7 @@
       </c>
       <c r="C89" s="72">
         <f>Sheet1!E87</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1">
@@ -11453,7 +11311,7 @@
       </c>
       <c r="C91" s="72">
         <f>Sheet1!E89</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
@@ -11563,7 +11421,7 @@
       </c>
       <c r="C102" s="72">
         <f>Sheet1!E101</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
@@ -11573,16 +11431,16 @@
       </c>
       <c r="C103" s="72">
         <f>Sheet1!E102</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="B104" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C104" s="76">
         <f>AVERAGE(C85:C103)</f>
-        <v>1.263157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
@@ -11598,11 +11456,11 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="B107" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107" s="72">
         <f>Sheet1!E109</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
@@ -11617,11 +11475,11 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="B109" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C109" s="76">
         <f>AVERAGE(C107:C108)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11638,7 +11496,7 @@
       </c>
       <c r="C112" s="72">
         <f>Sheet1!E117</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
@@ -11648,22 +11506,22 @@
       </c>
       <c r="C113" s="72">
         <f>Sheet1!E118</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="B114" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="76">
         <f>AVERAGE(C112:C113)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
@@ -11673,7 +11531,7 @@
       </c>
       <c r="C117" s="72">
         <f>Sheet1!E125</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
@@ -11683,7 +11541,7 @@
       </c>
       <c r="C118" s="72">
         <f>Sheet1!E126</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
@@ -11753,7 +11611,7 @@
       </c>
       <c r="C125" s="72">
         <f>Sheet1!E133</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
@@ -11763,7 +11621,7 @@
       </c>
       <c r="C126" s="72">
         <f>Sheet1!E134</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
@@ -11808,17 +11666,17 @@
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="B131" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C131" s="76">
         <f>AVERAGE(C117:C130)</f>
-        <v>1.1428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
@@ -11828,7 +11686,7 @@
       </c>
       <c r="C134" s="52">
         <f>Sheet1!E145</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
@@ -11838,7 +11696,7 @@
       </c>
       <c r="C135" s="52">
         <f>Sheet1!E146</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
@@ -11848,7 +11706,7 @@
       </c>
       <c r="C136" s="52">
         <f>Sheet1!E147</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
@@ -11858,16 +11716,16 @@
       </c>
       <c r="C137" s="52">
         <f>Sheet1!E148</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="B138" s="73" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C138" s="76">
         <f>AVERAGE(C134:C137)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1"/>
@@ -12800,7 +12658,7 @@
       </c>
       <c r="C1" s="72">
         <f>Sheet2!C20</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -12814,7 +12672,7 @@
       </c>
       <c r="C2" s="72">
         <f>Sheet2!C23</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -12826,22 +12684,22 @@
         <f>Sheet2!B27</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="72" t="str">
         <f>Sheet2!C27</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="50" t="str">
         <f>Sheet2!B28</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="72" t="str">
         <f>Sheet2!C28</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -12850,9 +12708,9 @@
         <f>Sheet2!B29</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="72" t="str">
         <f>Sheet2!C29</f>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -12866,12 +12724,12 @@
       </c>
       <c r="C6" s="72">
         <f>Sheet2!C35</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>Sheet2!B36</f>
@@ -12879,12 +12737,12 @@
       </c>
       <c r="C7" s="72">
         <f>Sheet2!C36</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="103" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B8" s="50" t="str">
         <f>Sheet2!B37</f>
@@ -12892,12 +12750,12 @@
       </c>
       <c r="C8" s="72">
         <f>Sheet2!C37</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="50" t="str">
         <f>Sheet2!B38</f>
@@ -12905,12 +12763,12 @@
       </c>
       <c r="C9" s="72">
         <f>Sheet2!C38</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B10" s="50" t="str">
         <f>Sheet2!B39</f>
@@ -12918,12 +12776,12 @@
       </c>
       <c r="C10" s="72">
         <f>Sheet2!C39</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="50" t="str">
         <f>Sheet2!B40</f>
@@ -12936,7 +12794,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="50" t="str">
         <f>Sheet2!B41</f>
@@ -12944,12 +12802,12 @@
       </c>
       <c r="C12" s="72">
         <f>Sheet2!C41</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="50" t="str">
         <f>Sheet2!B42</f>
@@ -12957,12 +12815,12 @@
       </c>
       <c r="C13" s="72">
         <f>Sheet2!C42</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="50" t="str">
         <f>Sheet2!B43</f>
@@ -12970,7 +12828,7 @@
       </c>
       <c r="C14" s="72">
         <f>Sheet2!C43</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -12991,7 +12849,7 @@
       </c>
       <c r="C16" s="72">
         <f>Sheet2!C45</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -13005,12 +12863,12 @@
       </c>
       <c r="C17" s="72">
         <f>Sheet2!C49</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="50" t="str">
         <f>Sheet2!B50</f>
@@ -13018,12 +12876,12 @@
       </c>
       <c r="C18" s="72">
         <f>Sheet2!C50</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="50" t="str">
         <f>Sheet2!B51</f>
@@ -13031,12 +12889,12 @@
       </c>
       <c r="C19" s="72">
         <f>Sheet2!C51</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="50" t="str">
         <f>Sheet2!B52</f>
@@ -13044,12 +12902,12 @@
       </c>
       <c r="C20" s="72">
         <f>Sheet2!C52</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="50" t="str">
         <f>Sheet2!B53</f>
@@ -13071,12 +12929,12 @@
       </c>
       <c r="C22" s="72">
         <f>Sheet2!C57</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" s="50" t="str">
         <f>Sheet2!B58</f>
@@ -13089,7 +12947,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="50" t="str">
         <f>Sheet2!B59</f>
@@ -13146,7 +13004,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="50" t="str">
         <f>Sheet2!B64</f>
@@ -13214,7 +13072,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="50" t="str">
         <f>Sheet2!B70</f>
@@ -13222,12 +13080,12 @@
       </c>
       <c r="C35" s="72">
         <f>Sheet2!C70</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="50" t="str">
         <f>Sheet2!B71</f>
@@ -13235,7 +13093,7 @@
       </c>
       <c r="C36" s="72">
         <f>Sheet2!C71</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -13246,7 +13104,7 @@
       </c>
       <c r="C37" s="72">
         <f>Sheet2!C72</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -13265,7 +13123,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B39" s="50" t="str">
         <f>Sheet2!B77</f>
@@ -13273,12 +13131,12 @@
       </c>
       <c r="C39" s="72">
         <f>Sheet2!C77</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="135" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="50" t="str">
         <f>Sheet2!B78</f>
@@ -13313,7 +13171,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="50" t="str">
         <f>Sheet2!B81</f>
@@ -13335,12 +13193,12 @@
       </c>
       <c r="C44" s="72">
         <f>Sheet2!C85</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="134" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B45" s="50" t="str">
         <f>Sheet2!B86</f>
@@ -13348,12 +13206,12 @@
       </c>
       <c r="C45" s="72">
         <f>Sheet2!C86</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="135" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B46" s="50" t="str">
         <f>Sheet2!B87</f>
@@ -13366,7 +13224,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="50" t="str">
         <f>Sheet2!B88</f>
@@ -13379,7 +13237,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="50" t="str">
         <f>Sheet2!B89</f>
@@ -13387,7 +13245,7 @@
       </c>
       <c r="C48" s="72">
         <f>Sheet2!C89</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
@@ -13403,7 +13261,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="50" t="str">
         <f>Sheet2!B91</f>
@@ -13411,7 +13269,7 @@
       </c>
       <c r="C50" s="72">
         <f>Sheet2!C91</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -13449,7 +13307,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="50" t="str">
         <f>Sheet2!B96</f>
@@ -13462,7 +13320,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" s="50" t="str">
         <f>Sheet2!B97</f>
@@ -13497,7 +13355,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B58" s="50" t="str">
         <f>Sheet2!B100</f>
@@ -13510,7 +13368,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B59" s="50" t="str">
         <f>Sheet2!B101</f>
@@ -13523,7 +13381,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="103" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B60" s="50" t="str">
         <f>Sheet2!B102</f>
@@ -13531,7 +13389,7 @@
       </c>
       <c r="C60" s="72">
         <f>Sheet2!C102</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
@@ -13542,7 +13400,7 @@
       </c>
       <c r="C61" s="72">
         <f>Sheet2!C103</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
@@ -13556,12 +13414,12 @@
       </c>
       <c r="C62" s="72">
         <f>Sheet2!C107</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="131" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63" s="50" t="str">
         <f>Sheet2!B108</f>
@@ -13583,12 +13441,12 @@
       </c>
       <c r="C64" s="72">
         <f>Sheet2!C112</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="50" t="str">
         <f>Sheet2!B113</f>
@@ -13596,7 +13454,7 @@
       </c>
       <c r="C65" s="72">
         <f>Sheet2!C113</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
@@ -13610,12 +13468,12 @@
       </c>
       <c r="C66" s="72">
         <f>Sheet2!C117</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="134" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B67" s="50" t="str">
         <f>Sheet2!B118</f>
@@ -13623,12 +13481,12 @@
       </c>
       <c r="C67" s="72">
         <f>Sheet2!C118</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="135" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B68" s="50" t="str">
         <f>Sheet2!B119</f>
@@ -13702,7 +13560,7 @@
       </c>
       <c r="C74" s="72">
         <f>Sheet2!C125</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
@@ -13713,7 +13571,7 @@
       </c>
       <c r="C75" s="72">
         <f>Sheet2!C126</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
@@ -13740,7 +13598,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B78" s="50" t="str">
         <f>Sheet2!B129</f>
@@ -13753,7 +13611,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B79" s="50" t="str">
         <f>Sheet2!B134</f>
@@ -13761,12 +13619,12 @@
       </c>
       <c r="C79" s="72">
         <f>Sheet2!C134</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" s="50" t="str">
         <f>Sheet2!B135</f>
@@ -13774,12 +13632,12 @@
       </c>
       <c r="C80" s="72">
         <f>Sheet2!C135</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B81" s="50" t="str">
         <f>Sheet2!B136</f>
@@ -13787,12 +13645,12 @@
       </c>
       <c r="C81" s="72">
         <f>Sheet2!C136</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="50" t="str">
         <f>Sheet2!B137</f>
@@ -13800,16 +13658,16 @@
       </c>
       <c r="C82" s="72">
         <f>Sheet2!C137</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="B83" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="72">
         <f>SUM(C1:C82)</f>
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1"/>

--- a/public/files/ED_Template.xlsx
+++ b/public/files/ED_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data dummy\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C6AA6-2500-418B-9176-758099EC7FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3DA5C-4D2A-4813-818D-74504E4289C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgFJ/W62q1qIxVPNtMeVgT2IVX8Pg=="/>
     </ext>
@@ -2088,7 +2077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="259">
   <si>
     <t>C. Kriteria</t>
   </si>
@@ -2130,6 +2119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Konsistensi dengan hasil analisis SWOT dan/atau analisis lain serta rencana pengembangan ke depan. </t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
   <si>
     <t>Konsistensi dengan hasil analisis SWOT dan/atau analisis lain serta rencana pengembangan ke depan.</t>
@@ -3074,6 +3066,18 @@
   </si>
   <si>
     <t>C.9.4.a) Luaran Dharma Pendidikan</t>
+  </si>
+  <si>
+    <t>https://laravel.com/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1rNzkOGzTrsoxc5WXwpAXS2apYx_bgyUO/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/147i69umsIxxQXSWNhlRV6gB69la4P4fZ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1tiR3DD3C6IbqLf3-CJnzLg-IFLFxWRSm/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
   </si>
 </sst>
 </file>
@@ -3867,11 +3871,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5971,8 +5975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -6040,25 +6044,29 @@
       <c r="D3" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="126"/>
+      <c r="E3" s="126">
+        <v>4</v>
+      </c>
       <c r="F3" s="127" t="str">
         <f>IF(E3="","",IF(E3=4,"Sangat Baik",IF(AND(E3&gt;=3,E3&lt;4),"Baik",IF(AND(E3&gt;=2,E3&lt;3),"cukup",IF(AND(E3&gt;=1,E3&lt;2),"Kurang",IF(AND(E3&gt;=0,E3&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G3" s="117">
         <v>1</v>
       </c>
-      <c r="H3" s="128" t="str">
+      <c r="H3" s="128">
         <f>IFERROR((AVERAGE(E3)*G3),"")</f>
-        <v/>
-      </c>
-      <c r="I3" s="137"/>
+        <v>4</v>
+      </c>
+      <c r="I3" s="137" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
@@ -6069,7 +6077,7 @@
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="91"/>
@@ -6112,27 +6120,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="126"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="126">
+        <v>3</v>
+      </c>
       <c r="F7" s="127" t="str">
         <f>IF(E7="","",IF(E7=4,"Sangat Baik",IF(AND(E7&gt;=3,E7&lt;4),"Baik",IF(AND(E7&gt;=2,E7&lt;3),"cukup",IF(AND(E7&gt;=1,E7&lt;2),"Kurang",IF(AND(E7&gt;=0,E7&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G7" s="117">
         <v>1</v>
       </c>
-      <c r="H7" s="128" t="str">
+      <c r="H7" s="128">
         <f>IFERROR((AVERAGE(E7)*G7),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="128"/>
+        <v>3</v>
+      </c>
+      <c r="I7" s="128" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="89"/>
@@ -6203,77 +6215,89 @@
         <v>3</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="85"/>
+        <v>22</v>
+      </c>
+      <c r="E12" s="85">
+        <v>4</v>
+      </c>
       <c r="F12" s="86" t="str">
         <f t="shared" ref="F12:F14" si="0">IF(E12="","",IF(E12=4,"Sangat Baik",IF(AND(E12&gt;=3,E12&lt;4),"Baik",IF(AND(E12&gt;=2,E12&lt;3),"cukup",IF(AND(E12&gt;=1,E12&lt;2),"Kurang",IF(AND(E12&gt;=0,E12&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G12" s="87">
         <v>0.51</v>
       </c>
-      <c r="H12" s="88" t="str">
+      <c r="H12" s="88">
         <f t="shared" ref="H12:H14" si="1">IFERROR((AVERAGE(E12)*G12),"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="138"/>
+        <v>2.04</v>
+      </c>
+      <c r="I12" s="138" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="22">
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="E13" s="23">
+        <v>4</v>
+      </c>
       <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G13" s="13">
         <v>1.02</v>
       </c>
-      <c r="H13" s="13" t="str">
+      <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I13" s="139"/>
+        <v>4.08</v>
+      </c>
+      <c r="I13" s="139" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="22">
         <v>5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="23">
+        <v>4</v>
+      </c>
       <c r="F14" s="24" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G14" s="13">
         <v>1.53</v>
       </c>
-      <c r="H14" s="13" t="str">
+      <c r="H14" s="13">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I14" s="140"/>
+        <v>6.12</v>
+      </c>
+      <c r="I14" s="140" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="27"/>
@@ -6291,15 +6315,15 @@
       <c r="B16" s="28"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E16" s="29">
         <f>IFERROR(AVERAGE(E12:E14),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F16" s="24" t="str">
         <f>IF(E16="","",IF(E16=4,"Sangat Baik",IF(AND(E16&gt;=3,E16&lt;4),"Baik",IF(AND(E16&gt;=2,E16&lt;3),"cukup",IF(AND(E16&gt;=1,E16&lt;2),"Kurang",IF(AND(E16&gt;=0,E16&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -6310,7 +6334,7 @@
       <c r="B17" s="28"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="24"/>
@@ -6320,7 +6344,7 @@
       </c>
       <c r="H17" s="13">
         <f>SUM(H12:H14)</f>
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -6337,7 +6361,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
@@ -6380,138 +6404,158 @@
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="145" t="s">
         <v>30</v>
       </c>
+      <c r="C21" s="144" t="s">
+        <v>31</v>
+      </c>
       <c r="D21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="23">
+        <v>4</v>
+      </c>
       <c r="F21" s="32" t="str">
         <f t="shared" ref="F21:F31" si="2">IF(E21="","",IF(E21=4,"Sangat Baik",IF(AND(E21&gt;=3,E21&lt;4),"Baik",IF(AND(E21&gt;=2,E21&lt;3),"cukup",IF(AND(E21&gt;=1,E21&lt;2),"Kurang",IF(AND(E21&gt;=0,E21&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G21" s="13">
         <v>0.34</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="13">
         <f t="shared" ref="H21:H31" si="3">IFERROR((AVERAGE(E21)*G21),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="25"/>
+        <v>1.36</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="144"/>
+      <c r="A22" s="143"/>
       <c r="B22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="144"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="143"/>
       <c r="D22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="23">
+        <v>4</v>
+      </c>
       <c r="F22" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G22" s="13">
         <v>0.34</v>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I22" s="26"/>
+        <v>1.36</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
       <c r="A23" s="142">
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="145" t="s">
         <v>35</v>
       </c>
+      <c r="C23" s="144" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="E23" s="23">
+        <v>4</v>
+      </c>
       <c r="F23" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G23" s="13">
         <v>0.34</v>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I23" s="26"/>
+        <v>1.36</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" customHeight="1">
-      <c r="A24" s="144"/>
+      <c r="A24" s="143"/>
       <c r="B24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="144"/>
+        <v>38</v>
+      </c>
+      <c r="C24" s="143"/>
       <c r="D24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4</v>
+      </c>
       <c r="F24" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G24" s="13">
         <v>0.34</v>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I24" s="26"/>
+        <v>1.36</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="157.5" customHeight="1">
       <c r="A25" s="14">
         <v>8</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="145" t="s">
         <v>40</v>
       </c>
+      <c r="C25" s="144" t="s">
+        <v>41</v>
+      </c>
       <c r="D25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="23">
+        <v>4</v>
+      </c>
       <c r="F25" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G25" s="13">
         <v>0.68</v>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I25" s="122"/>
+        <v>2.72</v>
+      </c>
+      <c r="I25" s="122" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="57.75" customHeight="1">
       <c r="A26" s="142">
         <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="143"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="145"/>
       <c r="D26" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="24" t="str">
@@ -6525,55 +6569,63 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I26" s="80"/>
+      <c r="I26" s="80" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="144"/>
+      <c r="A27" s="143"/>
       <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="144"/>
+        <v>45</v>
+      </c>
+      <c r="C27" s="143"/>
       <c r="D27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
       <c r="F27" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>cukup</v>
       </c>
       <c r="G27" s="13">
         <v>0.34</v>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="H27" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="79"/>
+        <v>0.68</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="14">
         <v>10</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="23"/>
+        <v>49</v>
+      </c>
+      <c r="E28" s="23">
+        <v>3</v>
+      </c>
       <c r="F28" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G28" s="13">
         <v>0.68</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="13">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2.04</v>
       </c>
       <c r="I28" s="34"/>
     </row>
@@ -6582,40 +6634,44 @@
         <v>11</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="E29" s="23">
+        <v>3</v>
+      </c>
       <c r="F29" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G29" s="13">
         <v>1.02</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="H29" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I29" s="26"/>
+        <v>3.06</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="14">
         <v>12</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="24" t="str">
@@ -6629,34 +6685,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="26" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="251.25" customHeight="1">
       <c r="A31" s="14">
         <v>13</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="E31" s="23">
+        <v>4</v>
+      </c>
       <c r="F31" s="24" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G31" s="13">
         <v>1.36</v>
       </c>
-      <c r="H31" s="13" t="str">
+      <c r="H31" s="13">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I31" s="35"/>
+        <v>5.44</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="14"/>
@@ -6674,15 +6736,15 @@
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E33" s="29">
         <f>IFERROR(AVERAGE(E21:E31),"")</f>
-        <v/>
+        <v>3.5555555555555554</v>
       </c>
       <c r="F33" s="24" t="str">
         <f>IF(E33="","",IF(E33=4,"Sangat Baik",IF(AND(E33&gt;=3,E33&lt;4),"Baik",IF(AND(E33&gt;=2,E33&lt;3),"cukup",IF(AND(E33&gt;=1,E33&lt;2),"Kurang",IF(AND(E33&gt;=0,E33&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -6693,7 +6755,7 @@
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="33"/>
@@ -6703,7 +6765,7 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19.38</v>
       </c>
       <c r="I34" s="13"/>
     </row>
@@ -6720,7 +6782,7 @@
     </row>
     <row r="36" spans="1:9" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -6763,25 +6825,27 @@
         <v>14</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="141"/>
+        <v>62</v>
+      </c>
+      <c r="E38" s="141">
+        <v>4</v>
+      </c>
       <c r="F38" s="24" t="str">
         <f t="shared" ref="F38:F39" si="5">IF(E38="","",IF(E38=4,"Sangat Baik",IF(AND(E38&gt;=3,E38&lt;4),"Baik",IF(AND(E38&gt;=2,E38&lt;3),"cukup",IF(AND(E38&gt;=1,E38&lt;2),"Kurang",IF(AND(E38&gt;=0,E38&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G38" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H38" s="13" t="str">
+      <c r="H38" s="13">
         <f t="shared" ref="H38:H39" si="6">IFERROR((AVERAGE(E38)*G38),"")</f>
-        <v/>
+        <v>18.399999999999999</v>
       </c>
       <c r="I38" s="13"/>
     </row>
@@ -6790,38 +6854,42 @@
         <v>15</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="145" t="s">
         <v>63</v>
       </c>
+      <c r="C39" s="144" t="s">
+        <v>64</v>
+      </c>
       <c r="D39" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="141"/>
+        <v>65</v>
+      </c>
+      <c r="E39" s="141">
+        <v>4</v>
+      </c>
       <c r="F39" s="24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G39" s="13">
         <v>3.07</v>
       </c>
-      <c r="H39" s="13" t="str">
+      <c r="H39" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>12.28</v>
       </c>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="144"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="144"/>
+        <v>66</v>
+      </c>
+      <c r="C40" s="143"/>
       <c r="D40" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="141"/>
+        <v>67</v>
+      </c>
+      <c r="E40" s="141">
+        <v>2</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="13">
         <v>3.07</v>
@@ -6834,36 +6902,38 @@
         <v>16</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="145" t="s">
         <v>68</v>
       </c>
+      <c r="C41" s="144" t="s">
+        <v>69</v>
+      </c>
       <c r="D41" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="141"/>
+        <v>70</v>
+      </c>
+      <c r="E41" s="141">
+        <v>4</v>
+      </c>
       <c r="F41" s="24" t="str">
         <f t="shared" ref="F41:F42" si="7">IF(E41="","",IF(E41=4,"Sangat Baik",IF(AND(E41&gt;=3,E41&lt;4),"Baik",IF(AND(E41&gt;=2,E41&lt;3),"cukup",IF(AND(E41&gt;=1,E41&lt;2),"Kurang",IF(AND(E41&gt;=0,E41&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G41" s="13">
         <v>1.53</v>
       </c>
-      <c r="H41" s="13" t="str">
+      <c r="H41" s="13">
         <f t="shared" ref="H41:H42" si="8">IFERROR((AVERAGE(E41)*G41),"")</f>
-        <v/>
+        <v>6.12</v>
       </c>
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A42" s="144"/>
+      <c r="A42" s="143"/>
       <c r="B42" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="144"/>
+        <v>71</v>
+      </c>
+      <c r="C42" s="143"/>
       <c r="D42" s="41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E42" s="141"/>
       <c r="F42" s="24" t="str">
@@ -6895,15 +6965,15 @@
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E44" s="29">
         <f>IFERROR(AVERAGE(E38:E42),"")</f>
-        <v/>
+        <v>3.5</v>
       </c>
       <c r="F44" s="24" t="str">
         <f>IF(E44="","",IF(E44=4,"Sangat Baik",IF(AND(E44&gt;=3,E44&lt;4),"Baik",IF(AND(E44&gt;=2,E44&lt;3),"cukup",IF(AND(E44&gt;=1,E44&lt;2),"Kurang",IF(AND(E44&gt;=0,E44&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -6914,7 +6984,7 @@
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="33"/>
@@ -6924,7 +6994,7 @@
       </c>
       <c r="H45" s="13">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I45" s="13"/>
     </row>
@@ -6941,7 +7011,7 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="3"/>
@@ -6984,25 +7054,27 @@
         <v>17</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="E49" s="23">
+        <v>3</v>
+      </c>
       <c r="F49" s="24" t="str">
         <f t="shared" ref="F49:F64" si="10">IF(E49="","",IF(E49=4,"Sangat Baik",IF(AND(E49&gt;=3,E49&lt;4),"Baik",IF(AND(E49&gt;=2,E49&lt;3),"cukup",IF(AND(E49&gt;=1,E49&lt;2),"Kurang",IF(AND(E49&gt;=0,E49&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G49" s="13">
         <v>0.74</v>
       </c>
-      <c r="H49" s="13" t="str">
+      <c r="H49" s="13">
         <f t="shared" ref="H49:H64" si="11">IFERROR((AVERAGE(E49)*G49),"")</f>
-        <v/>
+        <v>2.2199999999999998</v>
       </c>
       <c r="I49" s="13"/>
     </row>
@@ -7011,11 +7083,11 @@
         <v>18</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="24" t="str">
@@ -7036,11 +7108,11 @@
         <v>19</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="24" t="str">
@@ -7061,11 +7133,11 @@
         <v>20</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="24" t="str">
@@ -7086,11 +7158,11 @@
         <v>21</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="24" t="str">
@@ -7111,11 +7183,11 @@
         <v>22</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="24" t="str">
@@ -7136,11 +7208,11 @@
         <v>23</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="24" t="str">
@@ -7161,13 +7233,13 @@
         <v>24</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="24" t="str">
@@ -7188,11 +7260,11 @@
         <v>25</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="24" t="str">
@@ -7213,11 +7285,11 @@
         <v>26</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="24" t="str">
@@ -7238,11 +7310,11 @@
         <v>27</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="24" t="str">
@@ -7263,11 +7335,11 @@
         <v>28</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="24" t="str">
@@ -7288,11 +7360,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="24" t="str">
@@ -7313,25 +7385,27 @@
         <v>30</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="23"/>
+        <v>104</v>
+      </c>
+      <c r="E62" s="23">
+        <v>4</v>
+      </c>
       <c r="F62" s="24" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G62" s="13">
         <v>2.23</v>
       </c>
-      <c r="H62" s="13" t="str">
+      <c r="H62" s="13">
         <f t="shared" si="11"/>
-        <v/>
+        <v>8.92</v>
       </c>
       <c r="I62" s="13"/>
     </row>
@@ -7340,48 +7414,52 @@
         <v>31</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="E63" s="23">
+        <v>4</v>
+      </c>
       <c r="F63" s="24" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G63" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H63" s="13" t="str">
+      <c r="H63" s="13">
         <f t="shared" si="11"/>
-        <v/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" ht="82.5" customHeight="1">
       <c r="A64" s="14"/>
       <c r="B64" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="E64" s="23">
+        <v>4</v>
+      </c>
       <c r="F64" s="24" t="str">
         <f t="shared" si="10"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G64" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H64" s="13" t="str">
+      <c r="H64" s="13">
         <f t="shared" si="11"/>
-        <v/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I64" s="13"/>
     </row>
@@ -7401,15 +7479,15 @@
       <c r="B66" s="15"/>
       <c r="C66" s="16"/>
       <c r="D66" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E66" s="29">
         <f>IFERROR(AVERAGE(E49:E64),"")</f>
-        <v/>
+        <v>3.75</v>
       </c>
       <c r="F66" s="24" t="str">
         <f>IF(E66="","",IF(E66=4,"Sangat Baik",IF(AND(E66&gt;=3,E66&lt;4),"Baik",IF(AND(E66&gt;=2,E66&lt;3),"cukup",IF(AND(E66&gt;=1,E66&lt;2),"Kurang",IF(AND(E66&gt;=0,E66&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -7420,7 +7498,7 @@
       <c r="B67" s="15"/>
       <c r="C67" s="16"/>
       <c r="D67" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="33"/>
@@ -7430,7 +7508,7 @@
       </c>
       <c r="H67" s="13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I67" s="13"/>
     </row>
@@ -7447,7 +7525,7 @@
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="121" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B69" s="43"/>
       <c r="C69" s="3"/>
@@ -7490,13 +7568,13 @@
         <v>32</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="24" t="str">
@@ -7517,23 +7595,25 @@
         <v>33</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E72" s="23"/>
+        <v>115</v>
+      </c>
+      <c r="E72" s="23">
+        <v>3</v>
+      </c>
       <c r="F72" s="24" t="str">
         <f t="shared" si="13"/>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G72" s="13">
         <v>0.77</v>
       </c>
-      <c r="H72" s="13" t="str">
+      <c r="H72" s="13">
         <f t="shared" si="14"/>
-        <v/>
+        <v>2.31</v>
       </c>
       <c r="I72" s="13"/>
     </row>
@@ -7542,11 +7622,11 @@
         <v>34</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="24" t="str">
@@ -7567,11 +7647,11 @@
         <v>35</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="24" t="str">
@@ -7592,11 +7672,11 @@
         <v>36</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E75" s="23"/>
       <c r="F75" s="24" t="str">
@@ -7617,13 +7697,13 @@
         <v>37</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E76" s="23"/>
       <c r="F76" s="24" t="str">
@@ -7655,15 +7735,15 @@
       <c r="B78" s="15"/>
       <c r="C78" s="16"/>
       <c r="D78" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E78" s="29">
         <f>IFERROR(AVERAGE(E71:E76),"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F78" s="24" t="str">
         <f>IF(E78="","",IF(E78=4,"Sangat Baik",IF(AND(E78&gt;=3,E78&lt;4),"Baik",IF(AND(E78&gt;=2,E78&lt;3),"cukup",IF(AND(E78&gt;=1,E78&lt;2),"Kurang",IF(AND(E78&gt;=0,E78&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Baik</v>
       </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
@@ -7674,7 +7754,7 @@
       <c r="B79" s="15"/>
       <c r="C79" s="16"/>
       <c r="D79" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="33"/>
@@ -7684,7 +7764,7 @@
       </c>
       <c r="H79" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="I79" s="13"/>
     </row>
@@ -7701,7 +7781,7 @@
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B81" s="43"/>
       <c r="C81" s="3"/>
@@ -7747,59 +7827,63 @@
         <v>38</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" s="23"/>
+        <v>128</v>
+      </c>
+      <c r="E83" s="23">
+        <v>4</v>
+      </c>
       <c r="F83" s="24" t="str">
         <f t="shared" ref="F83:F90" si="17">IF(E83="","",IF(E83=4,"Sangat Baik",IF(AND(E83&gt;=3,E83&lt;4),"Baik",IF(AND(E83&gt;=2,E83&lt;3),"cukup",IF(AND(E83&gt;=1,E83&lt;2),"Kurang",IF(AND(E83&gt;=0,E83&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G83" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H83" s="13" t="str">
+      <c r="H83" s="13">
         <f t="shared" si="16"/>
-        <v/>
+        <v>10.039999999999999</v>
       </c>
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A84" s="143"/>
+      <c r="A84" s="145"/>
       <c r="B84" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E84" s="23"/>
+        <v>130</v>
+      </c>
+      <c r="E84" s="23">
+        <v>4</v>
+      </c>
       <c r="F84" s="24" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G84" s="13">
         <v>2.5099999999999998</v>
       </c>
-      <c r="H84" s="13" t="str">
+      <c r="H84" s="13">
         <f t="shared" si="16"/>
-        <v/>
+        <v>10.039999999999999</v>
       </c>
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A85" s="144"/>
+      <c r="A85" s="143"/>
       <c r="B85" s="40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="24" t="str">
@@ -7820,13 +7904,13 @@
         <v>39</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="24" t="str">
@@ -7847,36 +7931,38 @@
         <v>40</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E87" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="E87" s="23">
+        <v>4</v>
+      </c>
       <c r="F87" s="24" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G87" s="13">
         <v>1.67</v>
       </c>
-      <c r="H87" s="13" t="str">
+      <c r="H87" s="13">
         <f t="shared" si="16"/>
-        <v/>
+        <v>6.68</v>
       </c>
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" s="144"/>
+      <c r="A88" s="143"/>
       <c r="B88" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="24" t="str">
@@ -7897,36 +7983,38 @@
         <v>41</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="23"/>
+        <v>143</v>
+      </c>
+      <c r="E89" s="23">
+        <v>4</v>
+      </c>
       <c r="F89" s="24" t="str">
         <f t="shared" si="17"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G89" s="13">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H89" s="13" t="str">
+      <c r="H89" s="13">
         <f t="shared" si="16"/>
-        <v/>
+        <v>4.4800000000000004</v>
       </c>
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A90" s="143"/>
+      <c r="A90" s="145"/>
       <c r="B90" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="24" t="str">
@@ -7943,13 +8031,13 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="208.5" customHeight="1">
-      <c r="A91" s="143"/>
+      <c r="A91" s="145"/>
       <c r="B91" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E91" s="23"/>
       <c r="F91" s="24"/>
@@ -7960,13 +8048,13 @@
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A92" s="143"/>
+      <c r="A92" s="145"/>
       <c r="B92" s="40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E92" s="23"/>
       <c r="F92" s="24" t="str">
@@ -7983,13 +8071,13 @@
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A93" s="144"/>
+      <c r="A93" s="143"/>
       <c r="B93" s="40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="24" t="str">
@@ -8012,7 +8100,7 @@
       <c r="B94" s="40"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="24" t="str">
@@ -8033,13 +8121,13 @@
         <v>43</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="24" t="str">
@@ -8060,13 +8148,13 @@
         <v>44</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="24" t="str">
@@ -8085,11 +8173,11 @@
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="24" t="str">
@@ -8108,11 +8196,11 @@
     <row r="98" spans="1:9" ht="220.5" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="24" t="str">
@@ -8133,13 +8221,13 @@
         <v>45</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E99" s="23"/>
       <c r="F99" s="24" t="str">
@@ -8160,13 +8248,13 @@
         <v>46</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E100" s="23"/>
       <c r="F100" s="24" t="str">
@@ -8187,48 +8275,52 @@
         <v>47</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E101" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="E101" s="23">
+        <v>4</v>
+      </c>
       <c r="F101" s="24" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G101" s="13">
         <v>3.35</v>
       </c>
-      <c r="H101" s="13" t="str">
+      <c r="H101" s="13">
         <f t="shared" si="19"/>
-        <v/>
+        <v>13.4</v>
       </c>
       <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E102" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="E102" s="23">
+        <v>4</v>
+      </c>
       <c r="F102" s="24" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G102" s="13">
         <v>3.35</v>
       </c>
-      <c r="H102" s="13" t="str">
+      <c r="H102" s="13">
         <f t="shared" si="19"/>
-        <v/>
+        <v>13.4</v>
       </c>
       <c r="I102" s="13"/>
     </row>
@@ -8248,15 +8340,15 @@
       <c r="B104" s="15"/>
       <c r="C104" s="16"/>
       <c r="D104" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E104" s="29">
         <f>IFERROR(AVERAGE(E83:E102),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F104" s="24" t="str">
         <f>IF(E104="","",IF(E104=4,"Sangat Baik",IF(AND(E104&gt;=3,E104&lt;4),"Baik",IF(AND(E104&gt;=2,E104&lt;3),"cukup",IF(AND(E104&gt;=1,E104&lt;2),"Kurang",IF(AND(E104&gt;=0,E104&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
@@ -8267,7 +8359,7 @@
       <c r="B105" s="15"/>
       <c r="C105" s="16"/>
       <c r="D105" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E105" s="29"/>
       <c r="F105" s="33"/>
@@ -8277,7 +8369,7 @@
       </c>
       <c r="H105" s="13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>58.04</v>
       </c>
       <c r="I105" s="13"/>
     </row>
@@ -8294,7 +8386,7 @@
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
@@ -8337,25 +8429,27 @@
         <v>48</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E109" s="141"/>
+        <v>177</v>
+      </c>
+      <c r="E109" s="141">
+        <v>4</v>
+      </c>
       <c r="F109" s="24" t="str">
         <f>IF(E109="","",IF(E109=4,"Sangat Baik",IF(AND(E109&gt;=3,E109&lt;4),"Baik",IF(AND(E109&gt;=2,E109&lt;3),"cukup",IF(AND(E109&gt;=1,E109&lt;2),"Kurang",IF(AND(E109&gt;=0,E109&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G109" s="13">
         <v>1.53</v>
       </c>
-      <c r="H109" s="13" t="str">
+      <c r="H109" s="13">
         <f>IFERROR((AVERAGE(E109)*G109),"")</f>
-        <v/>
+        <v>6.12</v>
       </c>
       <c r="I109" s="13"/>
     </row>
@@ -8364,13 +8458,13 @@
         <v>49</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E110" s="141"/>
       <c r="F110" s="24"/>
@@ -8396,15 +8490,15 @@
       <c r="B112" s="15"/>
       <c r="C112" s="16"/>
       <c r="D112" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E112" s="29">
         <f>IFERROR(AVERAGE(E109),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F112" s="24" t="str">
         <f>IF(E112="","",IF(E112=4,"Sangat Baik",IF(AND(E112&gt;=3,E112&lt;4),"Baik",IF(AND(E112&gt;=2,E112&lt;3),"cukup",IF(AND(E112&gt;=1,E112&lt;2),"Kurang",IF(AND(E112&gt;=0,E112&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G112" s="13"/>
       <c r="H112" s="13"/>
@@ -8415,7 +8509,7 @@
       <c r="B113" s="15"/>
       <c r="C113" s="16"/>
       <c r="D113" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E113" s="29"/>
       <c r="F113" s="33"/>
@@ -8425,7 +8519,7 @@
       </c>
       <c r="H113" s="13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="I113" s="13"/>
     </row>
@@ -8442,7 +8536,7 @@
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" s="31"/>
       <c r="C115" s="3"/>
@@ -8485,25 +8579,27 @@
         <v>50</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D117" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="E117" s="23"/>
+        <v>184</v>
+      </c>
+      <c r="E117" s="23">
+        <v>4</v>
+      </c>
       <c r="F117" s="24" t="str">
         <f t="shared" ref="F117:F118" si="22">IF(E117="","",IF(E117=4,"Sangat Baik",IF(AND(E117&gt;=3,E117&lt;4),"Baik",IF(AND(E117&gt;=2,E117&lt;3),"cukup",IF(AND(E117&gt;=1,E117&lt;2),"Kurang",IF(AND(E117&gt;=0,E117&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G117" s="13">
         <v>0.51</v>
       </c>
-      <c r="H117" s="13" t="str">
+      <c r="H117" s="13">
         <f t="shared" ref="H117:H118" si="23">IFERROR((AVERAGE(E117)*G117),"")</f>
-        <v/>
+        <v>2.04</v>
       </c>
       <c r="I117" s="13"/>
     </row>
@@ -8512,25 +8608,27 @@
         <v>51</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E118" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="E118" s="23">
+        <v>4</v>
+      </c>
       <c r="F118" s="24" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G118" s="13">
         <v>1.02</v>
       </c>
-      <c r="H118" s="13" t="str">
+      <c r="H118" s="13">
         <f t="shared" si="23"/>
-        <v/>
+        <v>4.08</v>
       </c>
       <c r="I118" s="13"/>
     </row>
@@ -8550,15 +8648,15 @@
       <c r="B120" s="15"/>
       <c r="C120" s="16"/>
       <c r="D120" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E120" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E120" s="29">
         <f>IFERROR(AVERAGE(E117:E118),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F120" s="24" t="str">
         <f>IF(E120="","",IF(E120=4,"Sangat Baik",IF(AND(E120&gt;=3,E120&lt;4),"Baik",IF(AND(E120&gt;=2,E120&lt;3),"cukup",IF(AND(E120&gt;=1,E120&lt;2),"Kurang",IF(AND(E120&gt;=0,E120&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G120" s="13"/>
       <c r="H120" s="13"/>
@@ -8569,7 +8667,7 @@
       <c r="B121" s="15"/>
       <c r="C121" s="16"/>
       <c r="D121" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E121" s="29"/>
       <c r="F121" s="33"/>
@@ -8579,7 +8677,7 @@
       </c>
       <c r="H121" s="13">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="I121" s="13"/>
     </row>
@@ -8596,7 +8694,7 @@
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B123" s="31"/>
       <c r="C123" s="3"/>
@@ -8639,25 +8737,27 @@
         <v>52</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E125" s="23"/>
+        <v>191</v>
+      </c>
+      <c r="E125" s="23">
+        <v>4</v>
+      </c>
       <c r="F125" s="24" t="str">
         <f t="shared" ref="F125:F138" si="25">IF(E125="","",IF(E125=4,"Sangat Baik",IF(AND(E125&gt;=3,E125&lt;4),"Baik",IF(AND(E125&gt;=2,E125&lt;3),"cukup",IF(AND(E125&gt;=1,E125&lt;2),"Kurang",IF(AND(E125&gt;=0,E125&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G125" s="13">
         <v>1.92</v>
       </c>
-      <c r="H125" s="13" t="str">
+      <c r="H125" s="13">
         <f t="shared" ref="H125:H138" si="26">IFERROR((AVERAGE(E125)*G125),"")</f>
-        <v/>
+        <v>7.68</v>
       </c>
       <c r="I125" s="13"/>
     </row>
@@ -8666,23 +8766,25 @@
         <v>53</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E126" s="23"/>
+        <v>193</v>
+      </c>
+      <c r="E126" s="23">
+        <v>4</v>
+      </c>
       <c r="F126" s="24" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G126" s="13">
         <v>1.92</v>
       </c>
-      <c r="H126" s="13" t="str">
+      <c r="H126" s="13">
         <f t="shared" si="26"/>
-        <v/>
+        <v>7.68</v>
       </c>
       <c r="I126" s="13"/>
     </row>
@@ -8691,11 +8793,11 @@
         <v>54</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E127" s="23"/>
       <c r="F127" s="24" t="str">
@@ -8716,11 +8818,11 @@
         <v>55</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E128" s="23"/>
       <c r="F128" s="24" t="str">
@@ -8741,11 +8843,11 @@
         <v>56</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E129" s="23"/>
       <c r="F129" s="24" t="str">
@@ -8766,11 +8868,11 @@
         <v>57</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E130" s="23"/>
       <c r="F130" s="24" t="str">
@@ -8791,11 +8893,11 @@
         <v>58</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E131" s="23"/>
       <c r="F131" s="24" t="str">
@@ -8816,11 +8918,11 @@
         <v>59</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E132" s="23"/>
       <c r="F132" s="24" t="str">
@@ -8841,23 +8943,25 @@
         <v>60</v>
       </c>
       <c r="B133" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E133" s="23"/>
+        <v>207</v>
+      </c>
+      <c r="E133" s="23">
+        <v>4</v>
+      </c>
       <c r="F133" s="24" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H133" s="13" t="str">
+        <v>208</v>
+      </c>
+      <c r="H133" s="13">
         <f t="shared" si="26"/>
-        <v/>
+        <v>11.52</v>
       </c>
       <c r="I133" s="13"/>
     </row>
@@ -8866,23 +8970,25 @@
         <v>61</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E134" s="23"/>
+        <v>210</v>
+      </c>
+      <c r="E134" s="23">
+        <v>4</v>
+      </c>
       <c r="F134" s="24" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="H134" s="13" t="str">
+        <v>211</v>
+      </c>
+      <c r="H134" s="13">
         <f t="shared" si="26"/>
-        <v/>
+        <v>7.68</v>
       </c>
       <c r="I134" s="13"/>
     </row>
@@ -8891,11 +8997,11 @@
         <v>62</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E135" s="23"/>
       <c r="F135" s="24" t="str">
@@ -8916,11 +9022,11 @@
         <v>63</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E136" s="23"/>
       <c r="F136" s="24" t="str">
@@ -8941,13 +9047,13 @@
         <v>64</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E137" s="23"/>
       <c r="F137" s="24" t="str">
@@ -8970,7 +9076,7 @@
       <c r="B138" s="15"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E138" s="23"/>
       <c r="F138" s="24" t="str">
@@ -9002,15 +9108,15 @@
       <c r="B140" s="15"/>
       <c r="C140" s="16"/>
       <c r="D140" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140" s="29" t="str">
+        <v>27</v>
+      </c>
+      <c r="E140" s="29">
         <f>IFERROR(AVERAGE(E125:E137),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F140" s="24" t="str">
         <f>IF(E140="","",IF(E140=4,"Sangat Baik",IF(AND(E140&gt;=3,E140&lt;4),"Baik",IF(AND(E140&gt;=2,E140&lt;3),"cukup",IF(AND(E140&gt;=1,E140&lt;2),"Kurang",IF(AND(E140&gt;=0,E140&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
@@ -9021,7 +9127,7 @@
       <c r="B141" s="15"/>
       <c r="C141" s="16"/>
       <c r="D141" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E141" s="29"/>
       <c r="F141" s="33"/>
@@ -9031,7 +9137,7 @@
       </c>
       <c r="H141" s="13">
         <f>SUM(H125:H137)</f>
-        <v>0</v>
+        <v>34.56</v>
       </c>
       <c r="I141" s="13"/>
     </row>
@@ -9048,7 +9154,7 @@
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="3"/>
@@ -9091,108 +9197,124 @@
         <v>66</v>
       </c>
       <c r="B145" s="113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C145" s="114" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D145" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="E145" s="115"/>
+        <v>223</v>
+      </c>
+      <c r="E145" s="115">
+        <v>4</v>
+      </c>
       <c r="F145" s="116" t="str">
         <f t="shared" ref="F145:F148" si="27">IF(E145="","",IF(E145=4,"Sangat Baik",IF(AND(E145&gt;=3,E145&lt;4),"Baik",IF(AND(E145&gt;=2,E145&lt;3),"cukup",IF(AND(E145&gt;=1,E145&lt;2),"Kurang",IF(AND(E145&gt;=0,E145&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G145" s="117">
         <v>1.5</v>
       </c>
-      <c r="H145" s="117" t="str">
+      <c r="H145" s="117">
         <f t="shared" ref="H145:H148" si="28">IFERROR((AVERAGE(E145)*G145),"")</f>
-        <v/>
-      </c>
-      <c r="I145" s="80"/>
+        <v>6</v>
+      </c>
+      <c r="I145" s="80" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1">
       <c r="A146" s="112">
         <v>67</v>
       </c>
       <c r="B146" s="113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C146" s="114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D146" s="114" t="s">
-        <v>225</v>
-      </c>
-      <c r="E146" s="115"/>
+        <v>226</v>
+      </c>
+      <c r="E146" s="115">
+        <v>4</v>
+      </c>
       <c r="F146" s="116" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G146" s="117">
         <v>2</v>
       </c>
-      <c r="H146" s="117" t="str">
+      <c r="H146" s="117">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="I146" s="118"/>
+        <v>8</v>
+      </c>
+      <c r="I146" s="118" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1">
       <c r="A147" s="112">
         <v>68</v>
       </c>
       <c r="B147" s="113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C147" s="114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D147" s="114" t="s">
-        <v>228</v>
-      </c>
-      <c r="E147" s="115"/>
+        <v>229</v>
+      </c>
+      <c r="E147" s="115">
+        <v>4</v>
+      </c>
       <c r="F147" s="116" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G147" s="117">
         <v>1.5</v>
       </c>
-      <c r="H147" s="117" t="str">
+      <c r="H147" s="117">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="I147" s="118"/>
+        <v>6</v>
+      </c>
+      <c r="I147" s="118" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1">
       <c r="A148" s="112">
         <v>69</v>
       </c>
       <c r="B148" s="113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C148" s="114" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D148" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="E148" s="115"/>
+        <v>232</v>
+      </c>
+      <c r="E148" s="115">
+        <v>4</v>
+      </c>
       <c r="F148" s="116" t="str">
         <f t="shared" si="27"/>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G148" s="117">
         <v>1</v>
       </c>
-      <c r="H148" s="117" t="str">
+      <c r="H148" s="117">
         <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="I148" s="118"/>
+        <v>4</v>
+      </c>
+      <c r="I148" s="118" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1">
       <c r="A149" s="112"/>
@@ -9210,15 +9332,15 @@
       <c r="B150" s="113"/>
       <c r="C150" s="114"/>
       <c r="D150" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150" s="120" t="str">
+        <v>27</v>
+      </c>
+      <c r="E150" s="120">
         <f>IFERROR(AVERAGE(E145:E148),"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F150" s="116" t="str">
         <f>IF(E150="","",IF(E150=4,"Sangat Baik",IF(AND(E150&gt;=3,E150&lt;4),"Baik",IF(AND(E150&gt;=2,E150&lt;3),"cukup",IF(AND(E150&gt;=1,E150&lt;2),"Kurang",IF(AND(E150&gt;=0,E150&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
       <c r="G150" s="117"/>
       <c r="H150" s="117"/>
@@ -9229,7 +9351,7 @@
       <c r="B151" s="113"/>
       <c r="C151" s="114"/>
       <c r="D151" s="119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E151" s="120"/>
       <c r="F151" s="119"/>
@@ -9239,7 +9361,7 @@
       </c>
       <c r="H151" s="117">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I151" s="117"/>
     </row>
@@ -9251,12 +9373,6 @@
     <protectedRange sqref="G109 I3 I7 I12:I17 I21:I31 I38:I42 I49:I64 I71:I76 I83:I91 I93:I101 I102 I109:I110 I117:I118 I125:I132 I133:I138 I145:I148" name="Range2"/>
   </protectedRanges>
   <mergeCells count="13">
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A93"/>
@@ -9264,6 +9380,12 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F49:F57 F2:F5 F7:F10 F38:F44 F35:F36">
     <cfRule type="containsText" dxfId="233" priority="56" operator="containsText" text="cukup">
@@ -10405,9 +10527,29 @@
       <formula>NOT(ISERROR(SEARCH(("Sangat Kurang"),(F144))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I26" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I27" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I145" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I146" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I147" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I148" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -10428,12 +10570,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
       <c r="D1" s="45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="47"/>
@@ -10441,12 +10583,12 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
       <c r="D2" s="45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E2" s="45"/>
       <c r="F2" s="49"/>
@@ -10463,14 +10605,14 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="146" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B4" s="147"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
       <c r="E4" s="148"/>
       <c r="F4" s="53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>6</v>
@@ -10485,13 +10627,13 @@
       <c r="C5" s="56"/>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="57" t="str">
+      <c r="F5" s="57">
         <f>C30</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G5" s="58" t="str">
         <f t="shared" ref="G5:G14" si="0">IF(F5="","",IF(F5=4,"Sangat Baik",IF(AND(F5&gt;=3,F5&lt;4),"Baik",IF(AND(F5&gt;=2,F5&lt;3),"cukup",IF(AND(F5&gt;=1,F5&lt;2),"Kurang",IF(AND(F5&gt;=0,F5&lt;1),"Sangat Kurang",""))))))</f>
-        <v/>
+        <v>Sangat Baik</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -10505,11 +10647,11 @@
       <c r="E6" s="59"/>
       <c r="F6" s="57">
         <f>C46</f>
-        <v>0</v>
+        <v>2.9090909090909092</v>
       </c>
       <c r="G6" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>cukup</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -10523,11 +10665,11 @@
       <c r="E7" s="59"/>
       <c r="F7" s="57">
         <f>C54</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G7" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>cukup</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -10541,7 +10683,7 @@
       <c r="E8" s="61"/>
       <c r="F8" s="57">
         <f>C73</f>
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="G8" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10559,7 +10701,7 @@
       <c r="E9" s="59"/>
       <c r="F9" s="57">
         <f>C82</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="58" t="str">
         <f t="shared" si="0"/>
@@ -10577,11 +10719,11 @@
       <c r="E10" s="59"/>
       <c r="F10" s="57">
         <f>C104</f>
-        <v>0</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="G10" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>Kurang</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
@@ -10595,11 +10737,11 @@
       <c r="E11" s="61"/>
       <c r="F11" s="57">
         <f>C109</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>cukup</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -10613,11 +10755,11 @@
       <c r="E12" s="61"/>
       <c r="F12" s="57">
         <f>C114</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>Sangat Baik</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -10631,11 +10773,11 @@
       <c r="E13" s="61"/>
       <c r="F13" s="57">
         <f>C131</f>
-        <v>0</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="G13" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>Kurang</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -10649,11 +10791,11 @@
       <c r="E14" s="61"/>
       <c r="F14" s="57">
         <f>C138</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Sangat Kurang</v>
+        <v>Sangat Baik</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
@@ -10667,7 +10809,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="147"/>
       <c r="C16" s="147"/>
@@ -10675,11 +10817,11 @@
       <c r="E16" s="148"/>
       <c r="F16" s="64">
         <f>IFERROR(AVERAGE(F5:F14),"")</f>
-        <v>0</v>
+        <v>2.3552605946684895</v>
       </c>
       <c r="G16" s="58" t="str">
         <f>IF(F16="","",IF(F16=4,"Sangat Baik",IF(AND(F16&gt;=3,F16&lt;4),"Baik",IF(AND(F16&gt;=2,F16&lt;3),"cukup",IF(AND(F16&gt;=1,F16&lt;2),"Kurang",IF(AND(F16&gt;=0,F16&lt;1),"Sangat Kurang",""))))))</f>
-        <v>Sangat Kurang</v>
+        <v>cukup</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
@@ -10713,7 +10855,7 @@
       </c>
       <c r="C20" s="52">
         <f>Sheet1!$E$3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
@@ -10730,7 +10872,7 @@
       </c>
       <c r="C23" s="52">
         <f>Sheet1!$E$7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1"/>
@@ -10745,15 +10887,15 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="68" t="str">
         <f>Sheet1!B12</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C27" s="69" t="str">
+      <c r="C27" s="69">
         <f>IF((Sheet1!E12=0),"",Sheet1!E12)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -10762,9 +10904,9 @@
         <f>Sheet1!B13</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C28" s="69" t="str">
+      <c r="C28" s="69">
         <f>IF((Sheet1!E13=0),"",Sheet1!E13)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -10773,19 +10915,19 @@
         <f>Sheet1!B14</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C29" s="69" t="str">
+      <c r="C29" s="69">
         <f>IF((Sheet1!E14=0),"",Sheet1!E14)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="50"/>
       <c r="B30" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="71" t="str">
+        <v>239</v>
+      </c>
+      <c r="C30" s="71">
         <f>IFERROR(AVERAGE(C27:C29),"")</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1"/>
@@ -10799,7 +10941,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="50" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" s="50" t="str">
         <f>Sheet1!B21</f>
@@ -10807,7 +10949,7 @@
       </c>
       <c r="C35" s="72">
         <f>Sheet1!E21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -10817,7 +10959,7 @@
       </c>
       <c r="C36" s="72">
         <f>Sheet1!E22</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -10827,7 +10969,7 @@
       </c>
       <c r="C37" s="72">
         <f>Sheet1!E23</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -10837,7 +10979,7 @@
       </c>
       <c r="C38" s="72">
         <f>Sheet1!E24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -10847,7 +10989,7 @@
       </c>
       <c r="C39" s="72">
         <f>Sheet1!E25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -10867,7 +11009,7 @@
       </c>
       <c r="C41" s="72">
         <f>Sheet1!E27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -10877,7 +11019,7 @@
       </c>
       <c r="C42" s="72">
         <f>Sheet1!E28</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -10887,7 +11029,7 @@
       </c>
       <c r="C43" s="72">
         <f>Sheet1!E29</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -10907,16 +11049,16 @@
       </c>
       <c r="C45" s="72">
         <f>Sheet1!E31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="B46" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="74">
         <f>IFERROR(AVERAGE(C35:C45),"")</f>
-        <v>0</v>
+        <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
@@ -10933,7 +11075,7 @@
       </c>
       <c r="C49" s="72">
         <f>Sheet1!E38</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
@@ -10943,7 +11085,7 @@
       </c>
       <c r="C50" s="72">
         <f>Sheet1!E39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -10953,7 +11095,7 @@
       </c>
       <c r="C51" s="72">
         <f>Sheet1!E40</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
@@ -10963,7 +11105,7 @@
       </c>
       <c r="C52" s="72">
         <f>Sheet1!E41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
@@ -10978,11 +11120,11 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="B54" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C54" s="75">
         <f>AVERAGE(C49:C53)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1"/>
@@ -10999,7 +11141,7 @@
       </c>
       <c r="C57" s="72">
         <f>Sheet1!E49</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
@@ -11129,7 +11271,7 @@
       </c>
       <c r="C70" s="72">
         <f>Sheet1!E62</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
@@ -11139,7 +11281,7 @@
       </c>
       <c r="C71" s="72">
         <f>Sheet1!E63</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
@@ -11149,16 +11291,16 @@
       </c>
       <c r="C72" s="72">
         <f>Sheet1!E64</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="B73" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C73" s="76">
         <f>AVERAGE(C57:C72)</f>
-        <v>0</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11185,7 +11327,7 @@
       </c>
       <c r="C77" s="72">
         <f>Sheet1!E72</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
@@ -11230,11 +11372,11 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="B82" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C82" s="76">
         <f>AVERAGE(C76:C81)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11251,7 +11393,7 @@
       </c>
       <c r="C85" s="72">
         <f>Sheet1!E83</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
@@ -11261,7 +11403,7 @@
       </c>
       <c r="C86" s="72">
         <f>Sheet1!E84</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
@@ -11291,7 +11433,7 @@
       </c>
       <c r="C89" s="72">
         <f>Sheet1!E87</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1">
@@ -11311,7 +11453,7 @@
       </c>
       <c r="C91" s="72">
         <f>Sheet1!E89</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
@@ -11421,7 +11563,7 @@
       </c>
       <c r="C102" s="72">
         <f>Sheet1!E101</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
@@ -11431,16 +11573,16 @@
       </c>
       <c r="C103" s="72">
         <f>Sheet1!E102</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="B104" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C104" s="76">
         <f>AVERAGE(C85:C103)</f>
-        <v>0</v>
+        <v>1.263157894736842</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
@@ -11456,11 +11598,11 @@
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="B107" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C107" s="72">
         <f>Sheet1!E109</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
@@ -11475,11 +11617,11 @@
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="B109" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C109" s="76">
         <f>AVERAGE(C107:C108)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1"/>
@@ -11496,7 +11638,7 @@
       </c>
       <c r="C112" s="72">
         <f>Sheet1!E117</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
@@ -11506,22 +11648,22 @@
       </c>
       <c r="C113" s="72">
         <f>Sheet1!E118</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="B114" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" s="76">
         <f>AVERAGE(C112:C113)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
@@ -11531,7 +11673,7 @@
       </c>
       <c r="C117" s="72">
         <f>Sheet1!E125</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
@@ -11541,7 +11683,7 @@
       </c>
       <c r="C118" s="72">
         <f>Sheet1!E126</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
@@ -11611,7 +11753,7 @@
       </c>
       <c r="C125" s="72">
         <f>Sheet1!E133</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
@@ -11621,7 +11763,7 @@
       </c>
       <c r="C126" s="72">
         <f>Sheet1!E134</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
@@ -11666,17 +11808,17 @@
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="B131" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C131" s="76">
         <f>AVERAGE(C117:C130)</f>
-        <v>0</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
@@ -11686,7 +11828,7 @@
       </c>
       <c r="C134" s="52">
         <f>Sheet1!E145</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
@@ -11696,7 +11838,7 @@
       </c>
       <c r="C135" s="52">
         <f>Sheet1!E146</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
@@ -11706,7 +11848,7 @@
       </c>
       <c r="C136" s="52">
         <f>Sheet1!E147</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
@@ -11716,16 +11858,16 @@
       </c>
       <c r="C137" s="52">
         <f>Sheet1!E148</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="B138" s="73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C138" s="76">
         <f>AVERAGE(C134:C137)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1"/>
@@ -12658,7 +12800,7 @@
       </c>
       <c r="C1" s="72">
         <f>Sheet2!C20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -12672,7 +12814,7 @@
       </c>
       <c r="C2" s="72">
         <f>Sheet2!C23</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -12684,22 +12826,22 @@
         <f>Sheet2!B27</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C3" s="72" t="str">
+      <c r="C3" s="72">
         <f>Sheet2!C27</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="50" t="str">
         <f>Sheet2!B28</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="72">
         <f>Sheet2!C28</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -12708,9 +12850,9 @@
         <f>Sheet2!B29</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C5" s="72" t="str">
+      <c r="C5" s="72">
         <f>Sheet2!C29</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -12724,12 +12866,12 @@
       </c>
       <c r="C6" s="72">
         <f>Sheet2!C35</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="50" t="str">
         <f>Sheet2!B36</f>
@@ -12737,12 +12879,12 @@
       </c>
       <c r="C7" s="72">
         <f>Sheet2!C36</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B8" s="50" t="str">
         <f>Sheet2!B37</f>
@@ -12750,12 +12892,12 @@
       </c>
       <c r="C8" s="72">
         <f>Sheet2!C37</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="50" t="str">
         <f>Sheet2!B38</f>
@@ -12763,12 +12905,12 @@
       </c>
       <c r="C9" s="72">
         <f>Sheet2!C38</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B10" s="50" t="str">
         <f>Sheet2!B39</f>
@@ -12776,12 +12918,12 @@
       </c>
       <c r="C10" s="72">
         <f>Sheet2!C39</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="50" t="str">
         <f>Sheet2!B40</f>
@@ -12794,7 +12936,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="50" t="str">
         <f>Sheet2!B41</f>
@@ -12802,12 +12944,12 @@
       </c>
       <c r="C12" s="72">
         <f>Sheet2!C41</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" s="50" t="str">
         <f>Sheet2!B42</f>
@@ -12815,12 +12957,12 @@
       </c>
       <c r="C13" s="72">
         <f>Sheet2!C42</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="50" t="str">
         <f>Sheet2!B43</f>
@@ -12828,7 +12970,7 @@
       </c>
       <c r="C14" s="72">
         <f>Sheet2!C43</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -12849,7 +12991,7 @@
       </c>
       <c r="C16" s="72">
         <f>Sheet2!C45</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -12863,12 +13005,12 @@
       </c>
       <c r="C17" s="72">
         <f>Sheet2!C49</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B18" s="50" t="str">
         <f>Sheet2!B50</f>
@@ -12876,12 +13018,12 @@
       </c>
       <c r="C18" s="72">
         <f>Sheet2!C50</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B19" s="50" t="str">
         <f>Sheet2!B51</f>
@@ -12889,12 +13031,12 @@
       </c>
       <c r="C19" s="72">
         <f>Sheet2!C51</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="50" t="str">
         <f>Sheet2!B52</f>
@@ -12902,12 +13044,12 @@
       </c>
       <c r="C20" s="72">
         <f>Sheet2!C52</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="103" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="50" t="str">
         <f>Sheet2!B53</f>
@@ -12929,12 +13071,12 @@
       </c>
       <c r="C22" s="72">
         <f>Sheet2!C57</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" s="50" t="str">
         <f>Sheet2!B58</f>
@@ -12947,7 +13089,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" s="50" t="str">
         <f>Sheet2!B59</f>
@@ -13004,7 +13146,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="103" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B29" s="50" t="str">
         <f>Sheet2!B64</f>
@@ -13072,7 +13214,7 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" s="50" t="str">
         <f>Sheet2!B70</f>
@@ -13080,12 +13222,12 @@
       </c>
       <c r="C35" s="72">
         <f>Sheet2!C70</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B36" s="50" t="str">
         <f>Sheet2!B71</f>
@@ -13093,7 +13235,7 @@
       </c>
       <c r="C36" s="72">
         <f>Sheet2!C71</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -13104,7 +13246,7 @@
       </c>
       <c r="C37" s="72">
         <f>Sheet2!C72</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -13123,7 +13265,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B39" s="50" t="str">
         <f>Sheet2!B77</f>
@@ -13131,12 +13273,12 @@
       </c>
       <c r="C39" s="72">
         <f>Sheet2!C77</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B40" s="50" t="str">
         <f>Sheet2!B78</f>
@@ -13171,7 +13313,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="103" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B43" s="50" t="str">
         <f>Sheet2!B81</f>
@@ -13193,12 +13335,12 @@
       </c>
       <c r="C44" s="72">
         <f>Sheet2!C85</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="134" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B45" s="50" t="str">
         <f>Sheet2!B86</f>
@@ -13206,12 +13348,12 @@
       </c>
       <c r="C45" s="72">
         <f>Sheet2!C86</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B46" s="50" t="str">
         <f>Sheet2!B87</f>
@@ -13224,7 +13366,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="103" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="50" t="str">
         <f>Sheet2!B88</f>
@@ -13237,7 +13379,7 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" s="50" t="str">
         <f>Sheet2!B89</f>
@@ -13245,7 +13387,7 @@
       </c>
       <c r="C48" s="72">
         <f>Sheet2!C89</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
@@ -13261,7 +13403,7 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B50" s="50" t="str">
         <f>Sheet2!B91</f>
@@ -13269,7 +13411,7 @@
       </c>
       <c r="C50" s="72">
         <f>Sheet2!C91</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -13307,7 +13449,7 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" s="50" t="str">
         <f>Sheet2!B96</f>
@@ -13320,7 +13462,7 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="103" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="50" t="str">
         <f>Sheet2!B97</f>
@@ -13355,7 +13497,7 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B58" s="50" t="str">
         <f>Sheet2!B100</f>
@@ -13368,7 +13510,7 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B59" s="50" t="str">
         <f>Sheet2!B101</f>
@@ -13381,7 +13523,7 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B60" s="50" t="str">
         <f>Sheet2!B102</f>
@@ -13389,7 +13531,7 @@
       </c>
       <c r="C60" s="72">
         <f>Sheet2!C102</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
@@ -13400,7 +13542,7 @@
       </c>
       <c r="C61" s="72">
         <f>Sheet2!C103</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
@@ -13414,12 +13556,12 @@
       </c>
       <c r="C62" s="72">
         <f>Sheet2!C107</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="131" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B63" s="50" t="str">
         <f>Sheet2!B108</f>
@@ -13441,12 +13583,12 @@
       </c>
       <c r="C64" s="72">
         <f>Sheet2!C112</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B65" s="50" t="str">
         <f>Sheet2!B113</f>
@@ -13454,7 +13596,7 @@
       </c>
       <c r="C65" s="72">
         <f>Sheet2!C113</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
@@ -13468,12 +13610,12 @@
       </c>
       <c r="C66" s="72">
         <f>Sheet2!C117</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B67" s="50" t="str">
         <f>Sheet2!B118</f>
@@ -13481,12 +13623,12 @@
       </c>
       <c r="C67" s="72">
         <f>Sheet2!C118</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="135" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B68" s="50" t="str">
         <f>Sheet2!B119</f>
@@ -13560,7 +13702,7 @@
       </c>
       <c r="C74" s="72">
         <f>Sheet2!C125</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
@@ -13571,7 +13713,7 @@
       </c>
       <c r="C75" s="72">
         <f>Sheet2!C126</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
@@ -13598,7 +13740,7 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B78" s="50" t="str">
         <f>Sheet2!B129</f>
@@ -13611,7 +13753,7 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="103" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B79" s="50" t="str">
         <f>Sheet2!B134</f>
@@ -13619,12 +13761,12 @@
       </c>
       <c r="C79" s="72">
         <f>Sheet2!C134</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B80" s="50" t="str">
         <f>Sheet2!B135</f>
@@ -13632,12 +13774,12 @@
       </c>
       <c r="C80" s="72">
         <f>Sheet2!C135</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B81" s="50" t="str">
         <f>Sheet2!B136</f>
@@ -13645,12 +13787,12 @@
       </c>
       <c r="C81" s="72">
         <f>Sheet2!C136</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B82" s="50" t="str">
         <f>Sheet2!B137</f>
@@ -13658,16 +13800,16 @@
       </c>
       <c r="C82" s="72">
         <f>Sheet2!C137</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="B83" s="50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" s="72">
         <f>SUM(C1:C82)</f>
-        <v>0</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1"/>

--- a/public/files/ED_Template.xlsx
+++ b/public/files/ED_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data dummy\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3DA5C-4D2A-4813-818D-74504E4289C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC52DEAD-A24C-4273-8CD1-811F694D61E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,7 +2077,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="263">
   <si>
     <t>C. Kriteria</t>
   </si>
@@ -3078,6 +3078,18 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/1tiR3DD3C6IbqLf3-CJnzLg-IFLFxWRSm/edit?usp=sharing&amp;ouid=102354794413054881945&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>Data baru</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>Nilai Akhir</t>
   </si>
 </sst>
 </file>
@@ -3477,7 +3489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3868,14 +3880,15 @@
     <xf numFmtId="2" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5973,10 +5986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -5991,7 +6004,7 @@
     <col min="8" max="9" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="123" t="s">
         <v>10</v>
       </c>
@@ -6004,7 +6017,7 @@
       <c r="H1" s="106"/>
       <c r="I1" s="106"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="107" t="s">
         <v>2</v>
       </c>
@@ -6031,7 +6044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="112">
         <v>1</v>
       </c>
@@ -6061,8 +6074,9 @@
       <c r="I3" s="137" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1">
+      <c r="K3" s="142"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19" t="s">
@@ -6075,7 +6089,7 @@
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="129" t="s">
         <v>16</v>
       </c>
@@ -6088,7 +6102,7 @@
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
     </row>
-    <row r="6" spans="1:9" ht="28.5" customHeight="1">
+    <row r="6" spans="1:11" ht="28.5" customHeight="1">
       <c r="A6" s="107" t="s">
         <v>2</v>
       </c>
@@ -6115,7 +6129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="81.75" customHeight="1">
+    <row r="7" spans="1:11" ht="81.75" customHeight="1">
       <c r="A7" s="112">
         <v>2</v>
       </c>
@@ -6146,7 +6160,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="89"/>
       <c r="B8" s="90"/>
       <c r="C8" s="91"/>
@@ -6157,7 +6171,7 @@
       <c r="H8" s="81"/>
       <c r="I8" s="81"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="94" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6184,7 @@
       <c r="H9" s="81"/>
       <c r="I9" s="81"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="93" t="s">
         <v>1</v>
       </c>
@@ -6183,7 +6197,7 @@
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
     </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1">
+    <row r="11" spans="1:11" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
@@ -6210,7 +6224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="82">
         <v>3</v>
       </c>
@@ -6241,7 +6255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -6270,7 +6284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="22">
         <v>5</v>
       </c>
@@ -6299,7 +6313,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="16"/>
@@ -6310,7 +6324,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="16"/>
@@ -6400,13 +6414,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="142">
+      <c r="A21" s="143">
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="144" t="s">
+      <c r="C21" s="146" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -6431,11 +6445,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" s="143"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="143"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="16" t="s">
         <v>34</v>
       </c>
@@ -6458,13 +6472,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A23" s="142">
+      <c r="A23" s="143">
         <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="144" t="s">
+      <c r="C23" s="146" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="33" t="s">
@@ -6489,11 +6503,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="126.75" customHeight="1">
-      <c r="A24" s="143"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="143"/>
+      <c r="C24" s="145"/>
       <c r="D24" s="16" t="s">
         <v>39</v>
       </c>
@@ -6522,7 +6536,7 @@
       <c r="B25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="146" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -6547,13 +6561,13 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="57.75" customHeight="1">
-      <c r="A26" s="142">
+      <c r="A26" s="143">
         <v>9</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="145"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="16" t="s">
         <v>44</v>
       </c>
@@ -6574,11 +6588,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" s="143"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="143"/>
+      <c r="C27" s="145"/>
       <c r="D27" s="16" t="s">
         <v>46</v>
       </c>
@@ -6731,7 +6745,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -6750,7 +6764,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -6769,7 +6783,7 @@
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="3"/>
@@ -6780,7 +6794,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" s="101" customFormat="1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:12" s="101" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="93" t="s">
         <v>59</v>
       </c>
@@ -6792,8 +6806,9 @@
       <c r="G36" s="106"/>
       <c r="H36" s="106"/>
       <c r="I36" s="106"/>
-    </row>
-    <row r="37" spans="1:9" s="101" customFormat="1" ht="28.5" customHeight="1">
+      <c r="L36"/>
+    </row>
+    <row r="37" spans="1:12" s="101" customFormat="1" ht="28.5" customHeight="1">
       <c r="A37" s="95" t="s">
         <v>2</v>
       </c>
@@ -6819,8 +6834,9 @@
       <c r="I37" s="98" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="54.75" customHeight="1">
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="1:12" ht="54.75" customHeight="1">
       <c r="A38" s="14">
         <v>14</v>
       </c>
@@ -6849,14 +6865,14 @@
       </c>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A39" s="142">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="143">
         <v>15</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="144" t="s">
+      <c r="C39" s="146" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -6878,12 +6894,12 @@
       </c>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A40" s="143"/>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A40" s="145"/>
       <c r="B40" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="143"/>
+      <c r="C40" s="145"/>
       <c r="D40" s="16" t="s">
         <v>67</v>
       </c>
@@ -6897,14 +6913,14 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" ht="87" customHeight="1">
-      <c r="A41" s="142">
+    <row r="41" spans="1:12" ht="87" customHeight="1">
+      <c r="A41" s="143">
         <v>16</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="144" t="s">
+      <c r="C41" s="146" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="16" t="s">
@@ -6926,12 +6942,12 @@
       </c>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A42" s="143"/>
+    <row r="42" spans="1:12" ht="39.75" customHeight="1">
+      <c r="A42" s="145"/>
       <c r="B42" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="143"/>
+      <c r="C42" s="145"/>
       <c r="D42" s="41" t="s">
         <v>72</v>
       </c>
@@ -6949,7 +6965,7 @@
       </c>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
@@ -6960,7 +6976,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
@@ -6979,7 +6995,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
@@ -6998,7 +7014,7 @@
       </c>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="30"/>
       <c r="B46" s="31"/>
       <c r="C46" s="3"/>
@@ -7009,7 +7025,7 @@
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>73</v>
       </c>
@@ -7022,7 +7038,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" ht="28.5" customHeight="1">
+    <row r="48" spans="1:12" ht="28.5" customHeight="1">
       <c r="A48" s="7" t="s">
         <v>2</v>
       </c>
@@ -7823,7 +7839,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A83" s="142">
+      <c r="A83" s="143">
         <v>38</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -7852,7 +7868,7 @@
       <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A84" s="145"/>
+      <c r="A84" s="144"/>
       <c r="B84" s="15" t="s">
         <v>129</v>
       </c>
@@ -7877,7 +7893,7 @@
       <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A85" s="143"/>
+      <c r="A85" s="145"/>
       <c r="B85" s="40" t="s">
         <v>131</v>
       </c>
@@ -7927,7 +7943,7 @@
       <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A87" s="142">
+      <c r="A87" s="143">
         <v>40</v>
       </c>
       <c r="B87" s="15" t="s">
@@ -7956,7 +7972,7 @@
       <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" s="143"/>
+      <c r="A88" s="145"/>
       <c r="B88" s="15" t="s">
         <v>139</v>
       </c>
@@ -7979,7 +7995,7 @@
       <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A89" s="142">
+      <c r="A89" s="143">
         <v>41</v>
       </c>
       <c r="B89" s="15" t="s">
@@ -8008,7 +8024,7 @@
       <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A90" s="145"/>
+      <c r="A90" s="144"/>
       <c r="B90" s="15" t="s">
         <v>144</v>
       </c>
@@ -8031,7 +8047,7 @@
       <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" ht="208.5" customHeight="1">
-      <c r="A91" s="145"/>
+      <c r="A91" s="144"/>
       <c r="B91" s="15" t="s">
         <v>146</v>
       </c>
@@ -8048,7 +8064,7 @@
       <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A92" s="145"/>
+      <c r="A92" s="144"/>
       <c r="B92" s="40" t="s">
         <v>148</v>
       </c>
@@ -8071,7 +8087,7 @@
       <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A93" s="143"/>
+      <c r="A93" s="145"/>
       <c r="B93" s="40" t="s">
         <v>150</v>
       </c>
@@ -9366,13 +9382,19 @@
       <c r="I151" s="117"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hXjuf79Zq6Jdwk+V5W7KxAk+TOtAstxr9D4fQfIjUmj9zLYOgsMVh0edhhbifPNKqvnP4o4fdxBSDCrynOj7rw==" saltValue="pC4pKAvyZXkImbOwFQaw4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="O+/ubwOG2cyiNMNKzimR1ZTKsnjpxhlUWd1UBXQPzPsVmeAIF1mtZfzscqGtwJubQYcYtIVBQ1xaynt44r5Q6A==" saltValue="9V7+wgu6fH/OxWgJvGeVdw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="E145:E148" name="Range3"/>
-    <protectedRange sqref="E3 E7 E12 E13 E14 E21:E25 E30:E31 E26 E28 E27 E29 E38 E41 E42 E40 E39 E49:E62 E63 E64 E71:E76 E83:E91 E92:E98 E99 E102 E101 E100 E109 E110 E117 E118 E125:E132 E133:E138" name="Range1"/>
-    <protectedRange sqref="G109 I3 I7 I12:I17 I21:I31 I38:I42 I49:I64 I71:I76 I83:I91 I93:I101 I102 I109:I110 I117:I118 I125:I132 I133:I138 I145:I148" name="Range2"/>
+    <protectedRange sqref="E3 E7 E12:E14 E21:E31 E38:E42 E49:E64 E71:E76 E83:E102 E109:E110 E117:E118 E125:E138" name="Range1"/>
+    <protectedRange sqref="G109 I3 I7 I12:I17 I21:I31 I38:I42 I49:I64 I71:I76 I83:I91 I93:I102 I109:I110 I117:I118 I125:I138 I145:I148" name="Range2"/>
   </protectedRanges>
   <mergeCells count="13">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A83:A85"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A89:A93"/>
@@ -9380,12 +9402,6 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="F49:F57 F2:F5 F7:F10 F38:F44 F35:F36">
     <cfRule type="containsText" dxfId="233" priority="56" operator="containsText" text="cukup">
@@ -10557,7 +10573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L345" sqref="L345"/>
     </sheetView>
   </sheetViews>
@@ -10604,13 +10620,13 @@
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="147" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="53" t="s">
         <v>237</v>
       </c>
@@ -10808,13 +10824,13 @@
       <c r="G15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
       <c r="F16" s="64">
         <f>IFERROR(AVERAGE(F5:F14),"")</f>
         <v>2.3552605946684895</v>
@@ -12775,10 +12791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C996"/>
+  <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -12789,1042 +12805,1395 @@
     <col min="4" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="131" t="str">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="C1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="131" t="str">
         <f>Sheet2!$A$19</f>
         <v xml:space="preserve">A. Kondisi Eksternal </v>
       </c>
-      <c r="B1" s="50" t="str">
+      <c r="B2" s="50" t="str">
         <f>Sheet2!B20</f>
         <v>A.1</v>
       </c>
-      <c r="C1" s="72">
+      <c r="C2" s="72">
         <f>Sheet2!C20</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="131" t="str">
+      <c r="D2" s="142">
+        <f>Sheet1!$L$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="131" t="str">
         <f>Sheet2!$A$22</f>
         <v xml:space="preserve">B. Profil Unit Pengelola Program Studi </v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B3" s="50" t="str">
         <f>Sheet2!B23</f>
         <v>B.1</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C3" s="72">
         <f>Sheet2!C23</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="131" t="str">
+      <c r="D3">
+        <f>Sheet1!$L$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="131" t="str">
         <f>Sheet2!$A$26</f>
         <v>C.1. Visi, Misi, Tujuan dan Strategi</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B4" s="50" t="str">
         <f>Sheet2!B27</f>
         <v>C.1.4.1</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C4" s="72">
         <f>Sheet2!C27</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="103" t="s">
+      <c r="D4">
+        <f>Sheet1!L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="50" t="str">
+      <c r="B5" s="50" t="str">
         <f>Sheet2!B28</f>
         <v>C.1.4.2</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C5" s="72">
         <f>Sheet2!C28</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="131"/>
-      <c r="B5" s="50" t="str">
+      <c r="D5">
+        <f>Sheet1!L13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="131"/>
+      <c r="B6" s="50" t="str">
         <f>Sheet2!B29</f>
         <v>C.1.4.3</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C6" s="72">
         <f>Sheet2!C29</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="131" t="str">
+      <c r="D6">
+        <f>Sheet1!L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="131" t="str">
         <f>Sheet2!$A$34</f>
         <v>C.2. Tata Pamong, Tata Kelola dan Kerjasama</v>
       </c>
-      <c r="B6" s="50" t="str">
+      <c r="B7" s="50" t="str">
         <f>Sheet2!B35</f>
         <v>C.2.4.a.A.</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C7" s="72">
         <f>Sheet2!C35</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="D7">
+        <f>Sheet1!L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="50" t="str">
+      <c r="B8" s="50" t="str">
         <f>Sheet2!B36</f>
         <v>C.2.4.a.B.</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C8" s="72">
         <f>Sheet2!C36</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="103" t="s">
+      <c r="D8">
+        <f>Sheet1!L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="50" t="str">
+      <c r="B9" s="50" t="str">
         <f>Sheet2!B37</f>
         <v>C.2.4.b.A</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C9" s="72">
         <f>Sheet2!C37</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="103" t="s">
+      <c r="D9">
+        <f>Sheet1!L23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="50" t="str">
+      <c r="B10" s="50" t="str">
         <f>Sheet2!B38</f>
         <v>C.2.4.b.B</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C10" s="72">
         <f>Sheet2!C38</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="103" t="s">
+      <c r="D10">
+        <f>Sheet1!L24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="B10" s="50" t="str">
+      <c r="B11" s="50" t="str">
         <f>Sheet2!B39</f>
         <v xml:space="preserve">C.2.4.c) </v>
       </c>
-      <c r="C10" s="72">
+      <c r="C11" s="72">
         <f>Sheet2!C39</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="103" t="s">
+      <c r="D11">
+        <f>Sheet1!L25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="50" t="str">
+      <c r="B12" s="50" t="str">
         <f>Sheet2!B40</f>
         <v>C.2.4.c.A</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C12" s="72">
         <f>Sheet2!C40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="103" t="s">
+      <c r="D12">
+        <f>Sheet1!L26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="50" t="str">
+      <c r="B13" s="50" t="str">
         <f>Sheet2!B41</f>
         <v>C.2.4.c.B</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C13" s="72">
         <f>Sheet2!C41</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="103" t="s">
+      <c r="D13">
+        <f>Sheet1!L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="50" t="str">
+      <c r="B14" s="50" t="str">
         <f>Sheet2!B42</f>
         <v>C.2.5.</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C14" s="72">
         <f>Sheet2!C42</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="103" t="s">
+      <c r="D14">
+        <f>Sheet1!L28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="50" t="str">
+      <c r="B15" s="50" t="str">
         <f>Sheet2!B43</f>
         <v>C.2.6.</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C15" s="72">
         <f>Sheet2!C43</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B15" s="50" t="str">
+      <c r="D15">
+        <f>Sheet1!L29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B16" s="50" t="str">
         <f>Sheet2!B44</f>
         <v>C.2.7.</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C16" s="72">
         <f>Sheet2!C44</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="50" t="str">
+      <c r="D16">
+        <f>Sheet1!L30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="131"/>
+      <c r="B17" s="50" t="str">
         <f>Sheet2!B45</f>
         <v>C.2.8.</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C17" s="72">
         <f>Sheet2!C45</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="132" t="str">
+      <c r="D17">
+        <f>Sheet1!L31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="132" t="str">
         <f>Sheet1!$A$36</f>
         <v>C.3. Mahasiswa</v>
       </c>
-      <c r="B17" s="50" t="str">
+      <c r="B18" s="50" t="str">
         <f>Sheet2!B49</f>
         <v>C.3.4.a.</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C18" s="72">
         <f>Sheet2!C49</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="103" t="s">
+      <c r="D18">
+        <f>Sheet1!L38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="50" t="str">
+      <c r="B19" s="50" t="str">
         <f>Sheet2!B50</f>
         <v>C.3.4.b. A</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C19" s="72">
         <f>Sheet2!C50</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="133" t="s">
+      <c r="D19">
+        <f>Sheet1!L39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="133" t="s">
         <v>246</v>
       </c>
-      <c r="B19" s="50" t="str">
+      <c r="B20" s="50" t="str">
         <f>Sheet2!B51</f>
         <v>C.3.4.b. B</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C20" s="72">
         <f>Sheet2!C51</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="103" t="s">
+      <c r="D20">
+        <f>Sheet1!L40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="50" t="str">
+      <c r="B21" s="50" t="str">
         <f>Sheet2!B52</f>
         <v>C.3.4.c.A</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C21" s="72">
         <f>Sheet2!C52</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="103" t="s">
+      <c r="D21">
+        <f>Sheet1!L41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="50" t="str">
+      <c r="B22" s="50" t="str">
         <f>Sheet2!B53</f>
         <v>C.3.4.c.B</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C22" s="72">
         <f>Sheet2!C53</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="131" t="str">
+      <c r="D22">
+        <f>Sheet1!L49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="131" t="str">
         <f>Sheet2!$A$56</f>
         <v xml:space="preserve">C.4. Sumber Daya Manusia </v>
       </c>
-      <c r="B22" s="50" t="str">
+      <c r="B23" s="50" t="str">
         <f>Sheet2!B57</f>
         <v>C.4.4.a.1</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C23" s="72">
         <f>Sheet2!C57</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="134" t="s">
+      <c r="D23">
+        <f>Sheet1!L50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="50" t="str">
+      <c r="B24" s="50" t="str">
         <f>Sheet2!B58</f>
         <v>C.4.4.a.2</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C24" s="72">
         <f>Sheet2!C58</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="135" t="s">
+      <c r="D24">
+        <f>Sheet1!L51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="50" t="str">
+      <c r="B25" s="50" t="str">
         <f>Sheet2!B59</f>
         <v>C.4.4.a.3.</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C25" s="72">
         <f>Sheet2!C59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="131"/>
-      <c r="B25" s="50" t="str">
+      <c r="D25">
+        <f>Sheet1!L52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="131"/>
+      <c r="B26" s="50" t="str">
         <f>Sheet2!B60</f>
         <v>C.4.4.a.4</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C26" s="72">
         <f>Sheet2!C60</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="131"/>
-      <c r="B26" s="50" t="str">
+      <c r="D26">
+        <f>Sheet1!L53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="131"/>
+      <c r="B27" s="50" t="str">
         <f>Sheet2!B61</f>
         <v>C.4.4.a.5</v>
       </c>
-      <c r="C26" s="72">
+      <c r="C27" s="72">
         <f>Sheet2!C61</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="131"/>
-      <c r="B27" s="50" t="str">
+      <c r="D27">
+        <f>Sheet1!L54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="131"/>
+      <c r="B28" s="50" t="str">
         <f>Sheet2!B62</f>
         <v>C.4.4.a.6</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C28" s="72">
         <f>Sheet2!C62</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="50" t="str">
+      <c r="D28">
+        <f>Sheet1!L55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" s="131"/>
+      <c r="B29" s="50" t="str">
         <f>Sheet2!B63</f>
         <v>C.4.4.a.7</v>
       </c>
-      <c r="C28" s="72">
+      <c r="C29" s="72">
         <f>Sheet2!C63</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="103" t="s">
+      <c r="D29">
+        <f>Sheet1!L56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="50" t="str">
+      <c r="B30" s="50" t="str">
         <f>Sheet2!B64</f>
         <v>C.4.4.b.1</v>
       </c>
-      <c r="C29" s="72">
+      <c r="C30" s="72">
         <f>Sheet2!C64</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="50" t="str">
+      <c r="D30">
+        <f>Sheet1!L57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" s="131"/>
+      <c r="B31" s="50" t="str">
         <f>Sheet2!B65</f>
         <v>C.4.4.b.2</v>
       </c>
-      <c r="C30" s="72">
+      <c r="C31" s="72">
         <f>Sheet2!C65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="50" t="str">
+      <c r="D31">
+        <f>Sheet1!L58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A32" s="131"/>
+      <c r="B32" s="50" t="str">
         <f>Sheet2!B66</f>
         <v>C.4.4.b.3</v>
       </c>
-      <c r="C31" s="72">
+      <c r="C32" s="72">
         <f>Sheet2!C66</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="50" t="str">
+      <c r="D32">
+        <f>Sheet1!L59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A33" s="131"/>
+      <c r="B33" s="50" t="str">
         <f>Sheet2!B67</f>
         <v>C.4.4.b.4</v>
       </c>
-      <c r="C32" s="72">
+      <c r="C33" s="72">
         <f>Sheet2!C67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="50" t="str">
+      <c r="D33">
+        <f>Sheet1!L60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A34" s="131"/>
+      <c r="B34" s="50" t="str">
         <f>Sheet2!B68</f>
         <v>C.4.4.b.5</v>
       </c>
-      <c r="C33" s="72">
+      <c r="C34" s="72">
         <f>Sheet2!C68</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="131"/>
-      <c r="B34" s="50" t="str">
+      <c r="D34">
+        <f>Sheet1!L61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A35" s="131"/>
+      <c r="B35" s="50" t="str">
         <f>Sheet2!B69</f>
         <v>C.4.4.b.6</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C35" s="72">
         <f>Sheet2!C69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="D35">
+        <f>Sheet1!L62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A36" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="50" t="str">
+      <c r="B36" s="50" t="str">
         <f>Sheet2!B70</f>
         <v>C.4.4.c</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C36" s="72">
         <f>Sheet2!C70</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="103" t="s">
+      <c r="D36">
+        <f>Sheet1!L63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A37" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="50" t="str">
+      <c r="B37" s="50" t="str">
         <f>Sheet2!B71</f>
         <v>C.4.4.d.A</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C37" s="72">
         <f>Sheet2!C71</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="131"/>
-      <c r="B37" s="50" t="str">
+      <c r="D37">
+        <f>Sheet1!L64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A38" s="131"/>
+      <c r="B38" s="50" t="str">
         <f>Sheet2!B72</f>
         <v>C.4.4.d.B</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C38" s="72">
         <f>Sheet2!C72</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="131" t="str">
+      <c r="D38">
+        <f>Sheet1!L71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A39" s="131" t="str">
         <f>Sheet2!$A$75</f>
         <v>C.5. Keuangan, Sarana dan Prasarana</v>
       </c>
-      <c r="B38" s="50" t="str">
+      <c r="B39" s="50" t="str">
         <f>Sheet2!B76</f>
         <v>C.5.4.a.1</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C39" s="72">
         <f>Sheet2!C76</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="136" t="s">
+      <c r="D39">
+        <f>Sheet1!L72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A40" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="B39" s="50" t="str">
+      <c r="B40" s="50" t="str">
         <f>Sheet2!B77</f>
         <v>C.5.4.a.2</v>
       </c>
-      <c r="C39" s="72">
+      <c r="C40" s="72">
         <f>Sheet2!C77</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="135" t="s">
+      <c r="D40">
+        <f>Sheet1!L73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A41" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="B40" s="50" t="str">
+      <c r="B41" s="50" t="str">
         <f>Sheet2!B78</f>
         <v>C.5.4.a.3</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C41" s="72">
         <f>Sheet2!C78</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="50" t="str">
+      <c r="D41">
+        <f>Sheet1!L74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A42" s="131"/>
+      <c r="B42" s="50" t="str">
         <f>Sheet2!B79</f>
         <v>C.5.4.a.4</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C42" s="72">
         <f>Sheet2!C79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="50" t="str">
+      <c r="D42">
+        <f>Sheet1!L75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A43" s="131"/>
+      <c r="B43" s="50" t="str">
         <f>Sheet2!B80</f>
         <v>C.5.4.a.5</v>
       </c>
-      <c r="C42" s="72">
+      <c r="C43" s="72">
         <f>Sheet2!C80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="103" t="s">
+      <c r="D43">
+        <f>Sheet1!L76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A44" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="50" t="str">
+      <c r="B44" s="50" t="str">
         <f>Sheet2!B81</f>
         <v>C.5.4.b.</v>
       </c>
-      <c r="C43" s="72">
+      <c r="C44" s="72">
         <f>Sheet2!C81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="131" t="str">
+      <c r="D44">
+        <f>Sheet1!L83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A45" s="131" t="str">
         <f>Sheet2!$A$84</f>
         <v xml:space="preserve">C.6. Pendidikan </v>
       </c>
-      <c r="B44" s="50" t="str">
+      <c r="B45" s="50" t="str">
         <f>Sheet2!B85</f>
         <v>C.6.4.a.A</v>
       </c>
-      <c r="C44" s="72">
+      <c r="C45" s="72">
         <f>Sheet2!C85</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="134" t="s">
+      <c r="D45">
+        <f>Sheet1!L84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A46" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="B45" s="50" t="str">
+      <c r="B46" s="50" t="str">
         <f>Sheet2!B86</f>
         <v>C.6.4.a.B</v>
       </c>
-      <c r="C45" s="72">
+      <c r="C46" s="72">
         <f>Sheet2!C86</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="135" t="s">
+      <c r="D46">
+        <f>Sheet1!L85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A47" s="135" t="s">
         <v>248</v>
       </c>
-      <c r="B46" s="50" t="str">
+      <c r="B47" s="50" t="str">
         <f>Sheet2!B87</f>
         <v>C.6.4.a.C</v>
       </c>
-      <c r="C46" s="72">
+      <c r="C47" s="72">
         <f>Sheet2!C87</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="103" t="s">
+      <c r="D47">
+        <f>Sheet1!L86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A48" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="50" t="str">
+      <c r="B48" s="50" t="str">
         <f>Sheet2!B88</f>
         <v>C.6.4.b.</v>
       </c>
-      <c r="C47" s="72">
+      <c r="C48" s="72">
         <f>Sheet2!C88</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A48" s="103" t="s">
+      <c r="D48">
+        <f>Sheet1!L87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="50" t="str">
+      <c r="B49" s="50" t="str">
         <f>Sheet2!B89</f>
         <v>C.6.4.c.A</v>
       </c>
-      <c r="C48" s="72">
+      <c r="C49" s="72">
         <f>Sheet2!C89</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A49" s="131"/>
-      <c r="B49" s="50" t="str">
+      <c r="D49">
+        <f>Sheet1!L88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="131"/>
+      <c r="B50" s="50" t="str">
         <f>Sheet2!B90</f>
         <v>C.6.4.c.B</v>
       </c>
-      <c r="C49" s="72">
+      <c r="C50" s="72">
         <f>Sheet2!C90</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A50" s="103" t="s">
+      <c r="D50">
+        <f>Sheet1!L89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="50" t="str">
+      <c r="B51" s="50" t="str">
         <f>Sheet2!B91</f>
         <v>C.6.4.d.A</v>
       </c>
-      <c r="C50" s="72">
+      <c r="C51" s="72">
         <f>Sheet2!C91</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A51" s="131"/>
-      <c r="B51" s="50" t="str">
+      <c r="D51">
+        <f>Sheet1!L90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="131"/>
+      <c r="B52" s="50" t="str">
         <f>Sheet2!B92</f>
         <v>C.6.4.d.B</v>
       </c>
-      <c r="C51" s="72">
+      <c r="C52" s="72">
         <f>Sheet2!C92</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A52" s="131"/>
-      <c r="B52" s="50" t="str">
+      <c r="D52">
+        <f>Sheet1!L91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="131"/>
+      <c r="B53" s="50" t="str">
         <f>Sheet2!B93</f>
         <v>C.6.4.d.D</v>
       </c>
-      <c r="C52" s="72">
+      <c r="C53" s="72">
         <f>Sheet2!C93</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A53" s="131"/>
-      <c r="B53" s="50" t="str">
+      <c r="D53">
+        <f>Sheet1!L92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="131"/>
+      <c r="B54" s="50" t="str">
         <f>Sheet2!B94</f>
         <v>C.6.4.d.E</v>
       </c>
-      <c r="C53" s="72">
+      <c r="C54" s="72">
         <f>Sheet2!C94</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A54" s="103" t="s">
+      <c r="D54">
+        <f>Sheet1!L93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="50" t="str">
+      <c r="B55" s="50" t="str">
         <f>Sheet2!B96</f>
         <v>C.6.4.e.</v>
       </c>
-      <c r="C54" s="72">
+      <c r="C55" s="72">
         <f>Sheet2!C96</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A55" s="103" t="s">
+      <c r="D55">
+        <f>Sheet1!L94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="B55" s="50" t="str">
+      <c r="B56" s="50" t="str">
         <f>Sheet2!B97</f>
         <v>C.6.4.f.A</v>
       </c>
-      <c r="C55" s="72">
+      <c r="C56" s="72">
         <f>Sheet2!C97</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A56" s="131"/>
-      <c r="B56" s="50" t="str">
+      <c r="D56">
+        <f>Sheet1!L95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="131"/>
+      <c r="B57" s="50" t="str">
         <f>Sheet2!B98</f>
         <v>C.6.4.f.B</v>
       </c>
-      <c r="C56" s="72">
+      <c r="C57" s="72">
         <f>Sheet2!C98</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A57" s="131"/>
-      <c r="B57" s="50" t="str">
+      <c r="D57">
+        <f>Sheet1!L96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="131"/>
+      <c r="B58" s="50" t="str">
         <f>Sheet2!B99</f>
         <v>C.6.4.f.C</v>
       </c>
-      <c r="C57" s="72">
+      <c r="C58" s="72">
         <f>Sheet2!C99</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A58" s="103" t="s">
+      <c r="D58">
+        <f>Sheet1!L97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="50" t="str">
+      <c r="B59" s="50" t="str">
         <f>Sheet2!B100</f>
         <v>C.6.4.g</v>
       </c>
-      <c r="C58" s="72">
+      <c r="C59" s="72">
         <f>Sheet2!C100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A59" s="103" t="s">
+      <c r="D59">
+        <f>Sheet1!L98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="50" t="str">
+      <c r="B60" s="50" t="str">
         <f>Sheet2!B101</f>
         <v>C.6.4.h</v>
       </c>
-      <c r="C59" s="72">
+      <c r="C60" s="72">
         <f>Sheet2!C101</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A60" s="103" t="s">
+      <c r="D60">
+        <f>Sheet1!L99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="103" t="s">
         <v>170</v>
       </c>
-      <c r="B60" s="50" t="str">
+      <c r="B61" s="50" t="str">
         <f>Sheet2!B102</f>
         <v>C.6.4.i.A</v>
       </c>
-      <c r="C60" s="72">
+      <c r="C61" s="72">
         <f>Sheet2!C102</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A61" s="131"/>
-      <c r="B61" s="50" t="str">
+      <c r="D61">
+        <f>Sheet1!L100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="131"/>
+      <c r="B62" s="50" t="str">
         <f>Sheet2!B103</f>
         <v>C.6.4.i.B</v>
       </c>
-      <c r="C61" s="72">
+      <c r="C62" s="72">
         <f>Sheet2!C103</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A62" s="131" t="str">
+      <c r="D62">
+        <f>Sheet1!L101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A63" s="131" t="str">
         <f>Sheet2!$A$106</f>
         <v>C.7. Penelitian</v>
       </c>
-      <c r="B62" s="50" t="str">
+      <c r="B63" s="50" t="str">
         <f>Sheet2!B107</f>
         <v>C.7.4.a</v>
       </c>
-      <c r="C62" s="72">
+      <c r="C63" s="72">
         <f>Sheet2!C107</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A63" s="131" t="s">
+      <c r="D63">
+        <f>Sheet1!L102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A64" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="B63" s="50" t="str">
+      <c r="B64" s="50" t="str">
         <f>Sheet2!B108</f>
         <v>C.7.4.b</v>
       </c>
-      <c r="C63" s="72">
+      <c r="C64" s="72">
         <f>Sheet2!C108</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A64" s="131" t="str">
+      <c r="D64">
+        <f>Sheet1!L109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A65" s="131" t="str">
         <f>Sheet2!$A$111</f>
         <v>C.8 Pengabdian Kepada Masyarakat</v>
       </c>
-      <c r="B64" s="50" t="str">
+      <c r="B65" s="50" t="str">
         <f>Sheet2!B112</f>
         <v>C.8.4.a.</v>
       </c>
-      <c r="C64" s="72">
+      <c r="C65" s="72">
         <f>Sheet2!C112</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A65" s="103" t="s">
+      <c r="D65">
+        <f>Sheet1!L110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A66" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="B65" s="50" t="str">
+      <c r="B66" s="50" t="str">
         <f>Sheet2!B113</f>
         <v>C.8.4.b.</v>
       </c>
-      <c r="C65" s="72">
+      <c r="C66" s="72">
         <f>Sheet2!C113</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A66" s="131" t="str">
+      <c r="D66">
+        <f>Sheet1!L117</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A67" s="131" t="str">
         <f>Sheet2!$A$116</f>
         <v>C.9. Luaran dan Capaian Tridharma</v>
       </c>
-      <c r="B66" s="50" t="str">
+      <c r="B67" s="50" t="str">
         <f>Sheet2!B117</f>
         <v>C.9.4.a.1</v>
       </c>
-      <c r="C66" s="72">
+      <c r="C67" s="72">
         <f>Sheet2!C117</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A67" s="134" t="s">
+      <c r="D67">
+        <f>Sheet1!L118</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A68" s="134" t="s">
         <v>253</v>
       </c>
-      <c r="B67" s="50" t="str">
+      <c r="B68" s="50" t="str">
         <f>Sheet2!B118</f>
         <v>C.9.4.a.2</v>
       </c>
-      <c r="C67" s="72">
+      <c r="C68" s="72">
         <f>Sheet2!C118</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A68" s="135" t="s">
+      <c r="D68">
+        <f>Sheet1!L125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A69" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="B68" s="50" t="str">
+      <c r="B69" s="50" t="str">
         <f>Sheet2!B119</f>
         <v>C.9.4.a.3</v>
       </c>
-      <c r="C68" s="72">
+      <c r="C69" s="72">
         <f>Sheet2!C119</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A69" s="131"/>
-      <c r="B69" s="50" t="str">
+      <c r="D69">
+        <f>Sheet1!L126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A70" s="131"/>
+      <c r="B70" s="50" t="str">
         <f>Sheet2!B120</f>
         <v>C.9.4.a.4</v>
       </c>
-      <c r="C69" s="72">
+      <c r="C70" s="72">
         <f>Sheet2!C120</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A70" s="131"/>
-      <c r="B70" s="50" t="str">
+      <c r="D70">
+        <f>Sheet1!L127</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A71" s="131"/>
+      <c r="B71" s="50" t="str">
         <f>Sheet2!B121</f>
         <v>C.9.4.a.5</v>
       </c>
-      <c r="C70" s="72">
+      <c r="C71" s="72">
         <f>Sheet2!C121</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A71" s="131"/>
-      <c r="B71" s="50" t="str">
+      <c r="D71">
+        <f>Sheet1!L128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A72" s="131"/>
+      <c r="B72" s="50" t="str">
         <f>Sheet2!B122</f>
         <v>C.9.4.a.6</v>
       </c>
-      <c r="C71" s="72">
+      <c r="C72" s="72">
         <f>Sheet2!C122</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A72" s="131"/>
-      <c r="B72" s="50" t="str">
+      <c r="D72">
+        <f>Sheet1!L129</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A73" s="131"/>
+      <c r="B73" s="50" t="str">
         <f>Sheet2!B123</f>
         <v>C.9.4.a.7</v>
       </c>
-      <c r="C72" s="72">
+      <c r="C73" s="72">
         <f>Sheet2!C123</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A73" s="131"/>
-      <c r="B73" s="50" t="str">
+      <c r="D73">
+        <f>Sheet1!L130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A74" s="131"/>
+      <c r="B74" s="50" t="str">
         <f>Sheet2!B124</f>
         <v>C.9.4.a.8</v>
       </c>
-      <c r="C73" s="72">
+      <c r="C74" s="72">
         <f>Sheet2!C124</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A74" s="131"/>
-      <c r="B74" s="50" t="str">
+      <c r="D74">
+        <f>Sheet1!L131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A75" s="131"/>
+      <c r="B75" s="50" t="str">
         <f>Sheet2!B125</f>
         <v>C.9.4.a.9</v>
       </c>
-      <c r="C74" s="72">
+      <c r="C75" s="72">
         <f>Sheet2!C125</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A75" s="131"/>
-      <c r="B75" s="50" t="str">
+      <c r="D75">
+        <f>Sheet1!L132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A76" s="131"/>
+      <c r="B76" s="50" t="str">
         <f>Sheet2!B126</f>
         <v>C.9.4.a.10</v>
       </c>
-      <c r="C75" s="72">
+      <c r="C76" s="72">
         <f>Sheet2!C126</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A76" s="131"/>
-      <c r="B76" s="50" t="str">
+      <c r="D76">
+        <f>Sheet1!L133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A77" s="131"/>
+      <c r="B77" s="50" t="str">
         <f>Sheet2!B127</f>
         <v>C.9.4.a.11</v>
       </c>
-      <c r="C76" s="72">
+      <c r="C77" s="72">
         <f>Sheet2!C127</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A77" s="131"/>
-      <c r="B77" s="50" t="str">
+      <c r="D77">
+        <f>Sheet1!L134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A78" s="131"/>
+      <c r="B78" s="50" t="str">
         <f>Sheet2!B128</f>
         <v>C.9.4.a.12</v>
       </c>
-      <c r="C77" s="72">
+      <c r="C78" s="72">
         <f>Sheet2!C128</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A78" s="103" t="s">
+      <c r="D78">
+        <f>Sheet1!L135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A79" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="50" t="str">
+      <c r="B79" s="50" t="str">
         <f>Sheet2!B129</f>
         <v>C.9.4.b</v>
       </c>
-      <c r="C78" s="72">
+      <c r="C79" s="72">
         <f>Sheet2!C129</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A79" s="103" t="s">
+      <c r="D79">
+        <f>Sheet1!L136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A80" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="B79" s="50" t="str">
+      <c r="B80" s="50" t="str">
         <f>Sheet2!B134</f>
         <v>D.1</v>
       </c>
-      <c r="C79" s="72">
+      <c r="C80" s="72">
         <f>Sheet2!C134</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A80" s="103" t="s">
+      <c r="D80">
+        <f>Sheet1!L137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A81" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B80" s="50" t="str">
+      <c r="B81" s="50" t="str">
         <f>Sheet2!B135</f>
         <v>D.2</v>
       </c>
-      <c r="C80" s="72">
+      <c r="C81" s="72">
         <f>Sheet2!C135</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A81" s="103" t="s">
+      <c r="D81">
+        <f>Sheet1!L145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A82" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="72">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <f>Sheet1!L146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A83" s="103" t="s">
         <v>228</v>
       </c>
-      <c r="B81" s="50" t="str">
+      <c r="B83" s="50" t="str">
         <f>Sheet2!B136</f>
         <v>D.3</v>
       </c>
-      <c r="C81" s="72">
+      <c r="C83" s="72">
         <f>Sheet2!C136</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A82" s="103" t="s">
+      <c r="D83">
+        <f>Sheet1!L147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A84" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="B82" s="50" t="str">
+      <c r="B84" s="50" t="str">
         <f>Sheet2!B137</f>
         <v>D.4</v>
       </c>
-      <c r="C82" s="72">
+      <c r="C84" s="72">
         <f>Sheet2!C137</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1">
-      <c r="B83" s="50" t="s">
+      <c r="D84">
+        <f>Sheet1!L148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B85" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="72">
-        <f>SUM(C1:C82)</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1"/>
+      <c r="C85" s="72">
+        <f>SUM(C2:C84)</f>
+        <v>155</v>
+      </c>
+      <c r="D85" s="72">
+        <f>SUM(D2:D84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -14725,7 +15094,10 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z37s1n3gIZhmLdfJ+O8j/Wohpa/QsGmeTD3Evr3wDq8X01+Zaq95WNle8SMLBSPPsJ5MN+4r3Q0q+OMV8zSaVA==" saltValue="2bkMPcZ1YWpMshAlD5ByrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
